--- a/ProgressKDM.xlsx
+++ b/ProgressKDM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\semester 5\MAGANG BPS\KDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1D0209-CCD6-482A-B2A2-2C5EE1E4C00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB829093-5440-4AE1-9C58-697AD31555E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semua" sheetId="5" r:id="rId1"/>
@@ -364,6 +364,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -660,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90E5432-501C-4E71-A6C4-97092BA05C82}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="101" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -716,13 +717,13 @@
         <v>66</v>
       </c>
       <c r="E2" s="3">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="3">
         <v>66</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="3">
-        <v>46</v>
       </c>
       <c r="H2" s="3">
         <v>20</v>
@@ -742,13 +743,13 @@
         <v>284</v>
       </c>
       <c r="E3" s="3">
+        <v>364</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="3">
         <v>520</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="3">
-        <v>364</v>
       </c>
       <c r="H3" s="3">
         <v>156</v>
@@ -794,13 +795,13 @@
         <v>77</v>
       </c>
       <c r="E5" s="3">
+        <v>75</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="3">
         <v>77</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="3">
-        <v>75</v>
       </c>
       <c r="H5" s="3">
         <v>2</v>
@@ -820,13 +821,13 @@
         <v>259</v>
       </c>
       <c r="E6" s="3">
+        <v>497</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="3">
         <v>589</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="3">
-        <v>497</v>
       </c>
       <c r="H6" s="3">
         <v>92</v>
@@ -846,13 +847,13 @@
         <v>52</v>
       </c>
       <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="3">
         <v>52</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>52</v>
@@ -872,13 +873,13 @@
         <v>60</v>
       </c>
       <c r="E8" s="3">
+        <v>59</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="3">
         <v>60</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="3">
-        <v>59</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -898,13 +899,13 @@
         <v>47</v>
       </c>
       <c r="E9" s="3">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="3">
         <v>47</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="3">
-        <v>41</v>
       </c>
       <c r="H9" s="3">
         <v>6</v>
@@ -950,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="3">
         <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>13</v>
@@ -1002,13 +1003,13 @@
         <v>62</v>
       </c>
       <c r="E13" s="3">
+        <v>58</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="3">
         <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="3">
-        <v>58</v>
       </c>
       <c r="H13" s="3">
         <v>4</v>
@@ -1054,13 +1055,13 @@
         <v>19</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="3">
         <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>19</v>
@@ -1106,13 +1107,13 @@
         <v>75</v>
       </c>
       <c r="E17" s="3">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>75</v>
       </c>
       <c r="G17" s="3">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H17" s="3">
         <v>29</v>
@@ -1210,13 +1211,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="3">
         <v>10</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>10</v>
@@ -1236,13 +1237,13 @@
         <v>369</v>
       </c>
       <c r="E22" s="3">
+        <v>256</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="3">
         <v>481</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="3">
-        <v>256</v>
       </c>
       <c r="H22" s="3">
         <v>225</v>
@@ -1262,13 +1263,13 @@
         <v>547</v>
       </c>
       <c r="E23" s="3">
+        <v>1005</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="3">
         <v>1192</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1005</v>
       </c>
       <c r="H23" s="3">
         <v>187</v>
@@ -1288,13 +1289,13 @@
         <v>179</v>
       </c>
       <c r="E24" s="3">
+        <v>205</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="3">
         <v>348</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="3">
-        <v>205</v>
       </c>
       <c r="H24" s="3">
         <v>143</v>
@@ -1366,13 +1367,13 @@
         <v>228</v>
       </c>
       <c r="E27" s="3">
+        <v>390</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="3">
         <v>483</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="3">
-        <v>390</v>
       </c>
       <c r="H27" s="3">
         <v>93</v>
@@ -1392,13 +1393,13 @@
         <v>109</v>
       </c>
       <c r="E28" s="3">
+        <v>84</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="3">
         <v>109</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="3">
-        <v>84</v>
       </c>
       <c r="H28" s="3">
         <v>25</v>
@@ -1418,13 +1419,13 @@
         <v>4</v>
       </c>
       <c r="E29" s="3">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="3">
         <v>4</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="3">
-        <v>2</v>
       </c>
       <c r="H29" s="3">
         <v>2</v>
@@ -1444,13 +1445,13 @@
         <v>72</v>
       </c>
       <c r="E30" s="3">
+        <v>71</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="3">
         <v>72</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="3">
-        <v>71</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -1496,13 +1497,13 @@
         <v>367</v>
       </c>
       <c r="E32" s="3">
+        <v>675</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="3">
         <v>775</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="3">
-        <v>675</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -1652,13 +1653,13 @@
         <v>102</v>
       </c>
       <c r="E38" s="3">
+        <v>100</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="3">
         <v>102</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G38" s="3">
-        <v>100</v>
       </c>
       <c r="H38" s="3">
         <v>2</v>
@@ -1678,13 +1679,13 @@
         <v>70</v>
       </c>
       <c r="E39" s="3">
+        <v>216</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="3">
         <v>259</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="3">
-        <v>216</v>
       </c>
       <c r="H39" s="3">
         <v>43</v>
@@ -1912,13 +1913,13 @@
         <v>137</v>
       </c>
       <c r="E48" s="3">
+        <v>230</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="3">
         <v>328</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G48" s="3">
-        <v>230</v>
       </c>
       <c r="H48" s="3">
         <v>98</v>
@@ -1990,13 +1991,13 @@
         <v>30</v>
       </c>
       <c r="E51" s="3">
+        <v>29</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="3">
         <v>30</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="3">
-        <v>29</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
@@ -2016,13 +2017,13 @@
         <v>417</v>
       </c>
       <c r="E52" s="3">
+        <v>269</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="3">
         <v>586</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G52" s="3">
-        <v>269</v>
       </c>
       <c r="H52" s="3">
         <v>317</v>
@@ -2094,13 +2095,13 @@
         <v>97</v>
       </c>
       <c r="E55" s="3">
+        <v>284</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="3">
         <v>342</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" s="3">
-        <v>284</v>
       </c>
       <c r="H55" s="3">
         <v>58</v>
@@ -2146,13 +2147,13 @@
         <v>175</v>
       </c>
       <c r="E57" s="3">
+        <v>299</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" s="3">
         <v>413</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G57" s="3">
-        <v>299</v>
       </c>
       <c r="H57" s="3">
         <v>114</v>
@@ -2198,13 +2199,13 @@
         <v>275</v>
       </c>
       <c r="E59" s="3">
+        <v>106</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G59" s="3">
         <v>365</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G59" s="3">
-        <v>106</v>
       </c>
       <c r="H59" s="3">
         <v>259</v>
@@ -2224,13 +2225,13 @@
         <v>225</v>
       </c>
       <c r="E60" s="3">
+        <v>263</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" s="3">
         <v>406</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G60" s="3">
-        <v>263</v>
       </c>
       <c r="H60" s="3">
         <v>143</v>
@@ -2302,13 +2303,13 @@
         <v>38</v>
       </c>
       <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" s="3">
         <v>38</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0</v>
       </c>
       <c r="H63" s="3">
         <v>38</v>
@@ -2406,13 +2407,13 @@
         <v>344</v>
       </c>
       <c r="E67" s="3">
+        <v>374</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67" s="3">
         <v>564</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G67" s="3">
-        <v>374</v>
       </c>
       <c r="H67" s="3">
         <v>190</v>
@@ -2484,13 +2485,13 @@
         <v>56</v>
       </c>
       <c r="E70" s="3">
+        <v>28</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G70" s="3">
         <v>56</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G70" s="3">
-        <v>28</v>
       </c>
       <c r="H70" s="3">
         <v>28</v>
@@ -2510,13 +2511,13 @@
         <v>11</v>
       </c>
       <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="3">
         <v>11</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G71" s="3">
-        <v>0</v>
       </c>
       <c r="H71" s="3">
         <v>11</v>
@@ -2536,13 +2537,13 @@
         <v>179</v>
       </c>
       <c r="E72" s="3">
+        <v>501</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" s="3">
         <v>586</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G72" s="3">
-        <v>501</v>
       </c>
       <c r="H72" s="3">
         <v>85</v>
@@ -2588,13 +2589,13 @@
         <v>157</v>
       </c>
       <c r="E74" s="3">
+        <v>329</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G74" s="3">
         <v>383</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G74" s="3">
-        <v>329</v>
       </c>
       <c r="H74" s="3">
         <v>54</v>
@@ -2637,7 +2638,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2693,13 +2694,13 @@
         <v>97</v>
       </c>
       <c r="E2" s="3">
+        <v>284</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="3">
         <v>342</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="3">
-        <v>284</v>
       </c>
       <c r="H2" s="3">
         <v>58</v>
@@ -2719,13 +2720,13 @@
         <v>137</v>
       </c>
       <c r="E3" s="3">
+        <v>230</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="3">
         <v>328</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="3">
-        <v>230</v>
       </c>
       <c r="H3" s="3">
         <v>98</v>
@@ -2745,13 +2746,13 @@
         <v>284</v>
       </c>
       <c r="E4" s="3">
+        <v>364</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="3">
         <v>520</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="3">
-        <v>364</v>
       </c>
       <c r="H4" s="3">
         <v>156</v>
@@ -2771,13 +2772,13 @@
         <v>369</v>
       </c>
       <c r="E5" s="3">
+        <v>256</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="3">
         <v>481</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="3">
-        <v>256</v>
       </c>
       <c r="H5" s="3">
         <v>225</v>
@@ -2797,13 +2798,13 @@
         <v>417</v>
       </c>
       <c r="E6" s="3">
+        <v>269</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="3">
         <v>586</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="3">
-        <v>269</v>
       </c>
       <c r="H6" s="3">
         <v>317</v>
@@ -2823,13 +2824,13 @@
         <v>344</v>
       </c>
       <c r="E7" s="3">
+        <v>374</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="3">
         <v>564</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="3">
-        <v>374</v>
       </c>
       <c r="H7" s="3">
         <v>190</v>
@@ -2849,13 +2850,13 @@
         <v>70</v>
       </c>
       <c r="E8" s="3">
+        <v>216</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="3">
         <v>259</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="3">
-        <v>216</v>
       </c>
       <c r="H8" s="3">
         <v>43</v>
@@ -2875,13 +2876,13 @@
         <v>275</v>
       </c>
       <c r="E9" s="3">
+        <v>106</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="3">
         <v>365</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="3">
-        <v>106</v>
       </c>
       <c r="H9" s="3">
         <v>259</v>
@@ -2901,13 +2902,13 @@
         <v>259</v>
       </c>
       <c r="E10" s="3">
+        <v>497</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="3">
         <v>589</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="3">
-        <v>497</v>
       </c>
       <c r="H10" s="3">
         <v>92</v>
@@ -2927,13 +2928,13 @@
         <v>228</v>
       </c>
       <c r="E11" s="3">
+        <v>390</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="3">
         <v>483</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="3">
-        <v>390</v>
       </c>
       <c r="H11" s="3">
         <v>93</v>
@@ -2953,13 +2954,13 @@
         <v>157</v>
       </c>
       <c r="E12" s="3">
+        <v>329</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="3">
         <v>383</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="3">
-        <v>329</v>
       </c>
       <c r="H12" s="3">
         <v>54</v>
@@ -2979,13 +2980,13 @@
         <v>225</v>
       </c>
       <c r="E13" s="3">
+        <v>263</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="3">
         <v>406</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="3">
-        <v>263</v>
       </c>
       <c r="H13" s="3">
         <v>143</v>
@@ -3005,13 +3006,13 @@
         <v>179</v>
       </c>
       <c r="E14" s="3">
+        <v>501</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="3">
         <v>586</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="3">
-        <v>501</v>
       </c>
       <c r="H14" s="3">
         <v>85</v>
@@ -3031,13 +3032,13 @@
         <v>367</v>
       </c>
       <c r="E15" s="3">
+        <v>675</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="3">
         <v>775</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="3">
-        <v>675</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -3057,13 +3058,13 @@
         <v>547</v>
       </c>
       <c r="E16" s="3">
+        <v>1005</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="3">
         <v>1192</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1005</v>
       </c>
       <c r="H16" s="3">
         <v>187</v>
@@ -3083,13 +3084,13 @@
         <v>175</v>
       </c>
       <c r="E17" s="3">
+        <v>299</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="3">
         <v>413</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="3">
-        <v>299</v>
       </c>
       <c r="H17" s="3">
         <v>114</v>
@@ -3109,13 +3110,13 @@
         <v>179</v>
       </c>
       <c r="E18" s="3">
+        <v>205</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="3">
         <v>348</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="3">
-        <v>205</v>
       </c>
       <c r="H18" s="3">
         <v>143</v>
@@ -4171,8 +4172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721B1B99-A37B-47CF-BBD2-DBE8B4A5CEF5}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4224,13 +4225,13 @@
         <v>66</v>
       </c>
       <c r="E2" s="3">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="3">
         <v>66</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="3">
-        <v>46</v>
       </c>
       <c r="H2" s="3">
         <v>20</v>
@@ -4276,13 +4277,13 @@
         <v>77</v>
       </c>
       <c r="E4" s="3">
+        <v>75</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="3">
         <v>77</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="3">
-        <v>75</v>
       </c>
       <c r="H4" s="3">
         <v>2</v>
@@ -4302,13 +4303,13 @@
         <v>52</v>
       </c>
       <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="3">
         <v>52</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>52</v>
@@ -4328,13 +4329,13 @@
         <v>60</v>
       </c>
       <c r="E6" s="3">
+        <v>59</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="3">
         <v>60</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="3">
-        <v>59</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -4354,13 +4355,13 @@
         <v>47</v>
       </c>
       <c r="E7" s="3">
+        <v>41</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="3">
         <v>47</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="3">
-        <v>41</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
@@ -4406,13 +4407,13 @@
         <v>13</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="3">
         <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>13</v>
@@ -4458,13 +4459,13 @@
         <v>62</v>
       </c>
       <c r="E11" s="3">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="3">
         <v>62</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="3">
-        <v>58</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
@@ -4510,13 +4511,13 @@
         <v>19</v>
       </c>
       <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="3">
         <v>19</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>19</v>
@@ -4562,13 +4563,13 @@
         <v>75</v>
       </c>
       <c r="E15" s="3">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>75</v>
       </c>
       <c r="G15" s="3">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H15" s="3">
         <v>29</v>
@@ -4666,13 +4667,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="3">
         <v>10</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
       </c>
       <c r="H19" s="3">
         <v>10</v>
@@ -4744,13 +4745,13 @@
         <v>109</v>
       </c>
       <c r="E22" s="3">
+        <v>84</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="3">
         <v>109</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="3">
-        <v>84</v>
       </c>
       <c r="H22" s="3">
         <v>25</v>
@@ -4770,13 +4771,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="3">
         <v>4</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2</v>
       </c>
       <c r="H23" s="3">
         <v>2</v>
@@ -4796,13 +4797,13 @@
         <v>72</v>
       </c>
       <c r="E24" s="3">
+        <v>71</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="3">
         <v>72</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="3">
-        <v>71</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -4978,13 +4979,13 @@
         <v>102</v>
       </c>
       <c r="E31" s="3">
+        <v>100</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="3">
         <v>102</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="3">
-        <v>100</v>
       </c>
       <c r="H31" s="3">
         <v>2</v>
@@ -5264,13 +5265,13 @@
         <v>30</v>
       </c>
       <c r="E42" s="3">
+        <v>29</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="3">
         <v>30</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G42" s="3">
-        <v>29</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -5446,13 +5447,13 @@
         <v>38</v>
       </c>
       <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="3">
         <v>38</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>38</v>
@@ -5602,13 +5603,13 @@
         <v>56</v>
       </c>
       <c r="E55" s="3">
+        <v>28</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="3">
         <v>56</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" s="3">
-        <v>28</v>
       </c>
       <c r="H55" s="3">
         <v>28</v>
@@ -5628,13 +5629,13 @@
         <v>11</v>
       </c>
       <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" s="3">
         <v>11</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0</v>
       </c>
       <c r="H56" s="3">
         <v>11</v>

--- a/ProgressKDM.xlsx
+++ b/ProgressKDM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\semester 5\MAGANG BPS\KDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95783DC-8CEA-4A81-86C2-5F3EF949D7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD85D7C-A195-4FC0-8504-4613A6DD3E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semua" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="110">
   <si>
     <t>Nama</t>
   </si>
@@ -355,16 +355,35 @@
   <si>
     <t>01/09/2025</t>
   </si>
+  <si>
+    <t>Nikah Nurhidayati</t>
+  </si>
+  <si>
+    <t>Eka Wahyu</t>
+  </si>
+  <si>
+    <t>Asri Ermawati</t>
+  </si>
+  <si>
+    <t>08/09/2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -461,71 +480,67 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90E5432-501C-4E71-A6C4-97092BA05C82}">
-  <dimension ref="A1:H218"/>
+  <dimension ref="A1:H298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="101" workbookViewId="0">
-      <selection activeCell="F217" sqref="F217"/>
+    <sheetView topLeftCell="A285" zoomScale="101" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6427,6 +6442,2086 @@
         <v>0</v>
       </c>
     </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A219" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B219" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" s="24">
+        <v>0</v>
+      </c>
+      <c r="D219" s="24">
+        <v>11</v>
+      </c>
+      <c r="E219" s="24">
+        <v>11</v>
+      </c>
+      <c r="F219" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G219" s="24">
+        <v>11</v>
+      </c>
+      <c r="H219" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A220" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B220" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="24">
+        <v>0</v>
+      </c>
+      <c r="D220" s="24">
+        <v>0</v>
+      </c>
+      <c r="E220" s="24">
+        <v>0</v>
+      </c>
+      <c r="F220" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G220" s="24">
+        <v>0</v>
+      </c>
+      <c r="H220" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B221" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="24">
+        <v>0</v>
+      </c>
+      <c r="D221" s="24">
+        <v>126</v>
+      </c>
+      <c r="E221" s="24">
+        <v>65</v>
+      </c>
+      <c r="F221" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G221" s="24">
+        <v>126</v>
+      </c>
+      <c r="H221" s="24">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A222" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B222" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="24">
+        <v>0</v>
+      </c>
+      <c r="D222" s="24">
+        <v>13</v>
+      </c>
+      <c r="E222" s="24">
+        <v>0</v>
+      </c>
+      <c r="F222" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G222" s="24">
+        <v>13</v>
+      </c>
+      <c r="H222" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A223" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B223" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" s="24">
+        <v>0</v>
+      </c>
+      <c r="D223" s="24">
+        <v>97</v>
+      </c>
+      <c r="E223" s="24">
+        <v>97</v>
+      </c>
+      <c r="F223" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G223" s="24">
+        <v>97</v>
+      </c>
+      <c r="H223" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A224" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B224" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="24">
+        <v>0</v>
+      </c>
+      <c r="D224" s="24">
+        <v>3</v>
+      </c>
+      <c r="E224" s="24">
+        <v>0</v>
+      </c>
+      <c r="F224" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G224" s="24">
+        <v>3</v>
+      </c>
+      <c r="H224" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A225" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B225" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" s="24">
+        <v>0</v>
+      </c>
+      <c r="D225" s="24">
+        <v>40</v>
+      </c>
+      <c r="E225" s="24">
+        <v>40</v>
+      </c>
+      <c r="F225" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G225" s="24">
+        <v>40</v>
+      </c>
+      <c r="H225" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A226" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B226" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="24">
+        <v>0</v>
+      </c>
+      <c r="D226" s="24">
+        <v>28</v>
+      </c>
+      <c r="E226" s="24">
+        <v>28</v>
+      </c>
+      <c r="F226" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G226" s="24">
+        <v>28</v>
+      </c>
+      <c r="H226" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A227" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B227" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" s="26">
+        <v>90</v>
+      </c>
+      <c r="D227" s="26">
+        <v>360</v>
+      </c>
+      <c r="E227" s="26">
+        <v>449</v>
+      </c>
+      <c r="F227" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G227" s="26">
+        <v>450</v>
+      </c>
+      <c r="H227" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A228" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B228" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" s="24">
+        <v>0</v>
+      </c>
+      <c r="D228" s="24">
+        <v>91</v>
+      </c>
+      <c r="E228" s="24">
+        <v>91</v>
+      </c>
+      <c r="F228" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G228" s="24">
+        <v>91</v>
+      </c>
+      <c r="H228" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A229" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B229" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" s="24">
+        <v>0</v>
+      </c>
+      <c r="D229" s="24">
+        <v>103</v>
+      </c>
+      <c r="E229" s="24">
+        <v>103</v>
+      </c>
+      <c r="F229" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G229" s="24">
+        <v>103</v>
+      </c>
+      <c r="H229" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A230" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B230" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="26">
+        <v>189</v>
+      </c>
+      <c r="D230" s="26">
+        <v>140</v>
+      </c>
+      <c r="E230" s="26">
+        <v>320</v>
+      </c>
+      <c r="F230" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G230" s="26">
+        <v>329</v>
+      </c>
+      <c r="H230" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A231" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B231" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="24">
+        <v>0</v>
+      </c>
+      <c r="D231" s="24">
+        <v>11</v>
+      </c>
+      <c r="E231" s="24">
+        <v>6</v>
+      </c>
+      <c r="F231" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G231" s="24">
+        <v>11</v>
+      </c>
+      <c r="H231" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A232" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B232" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" s="24">
+        <v>0</v>
+      </c>
+      <c r="D232" s="24">
+        <v>0</v>
+      </c>
+      <c r="E232" s="24">
+        <v>0</v>
+      </c>
+      <c r="F232" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G232" s="24">
+        <v>0</v>
+      </c>
+      <c r="H232" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A233" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B233" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" s="24">
+        <v>0</v>
+      </c>
+      <c r="D233" s="24">
+        <v>5</v>
+      </c>
+      <c r="E233" s="24">
+        <v>5</v>
+      </c>
+      <c r="F233" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G233" s="24">
+        <v>5</v>
+      </c>
+      <c r="H233" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A234" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B234" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" s="24">
+        <v>0</v>
+      </c>
+      <c r="D234" s="24">
+        <v>54</v>
+      </c>
+      <c r="E234" s="24">
+        <v>47</v>
+      </c>
+      <c r="F234" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G234" s="24">
+        <v>54</v>
+      </c>
+      <c r="H234" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A235" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B235" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="24">
+        <v>0</v>
+      </c>
+      <c r="D235" s="24">
+        <v>88</v>
+      </c>
+      <c r="E235" s="24">
+        <v>77</v>
+      </c>
+      <c r="F235" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G235" s="24">
+        <v>88</v>
+      </c>
+      <c r="H235" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A236" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B236" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="24">
+        <v>0</v>
+      </c>
+      <c r="D236" s="24">
+        <v>162</v>
+      </c>
+      <c r="E236" s="24">
+        <v>105</v>
+      </c>
+      <c r="F236" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G236" s="24">
+        <v>162</v>
+      </c>
+      <c r="H236" s="24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A237" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B237" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="24">
+        <v>0</v>
+      </c>
+      <c r="D237" s="24">
+        <v>45</v>
+      </c>
+      <c r="E237" s="24">
+        <v>45</v>
+      </c>
+      <c r="F237" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G237" s="24">
+        <v>45</v>
+      </c>
+      <c r="H237" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A238" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B238" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="24">
+        <v>0</v>
+      </c>
+      <c r="D238" s="24">
+        <v>59</v>
+      </c>
+      <c r="E238" s="24">
+        <v>24</v>
+      </c>
+      <c r="F238" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G238" s="24">
+        <v>59</v>
+      </c>
+      <c r="H238" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A239" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B239" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="24">
+        <v>0</v>
+      </c>
+      <c r="D239" s="24">
+        <v>40</v>
+      </c>
+      <c r="E239" s="24">
+        <v>40</v>
+      </c>
+      <c r="F239" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G239" s="24">
+        <v>40</v>
+      </c>
+      <c r="H239" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A240" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B240" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="26">
+        <v>181</v>
+      </c>
+      <c r="D240" s="26">
+        <v>285</v>
+      </c>
+      <c r="E240" s="26">
+        <v>466</v>
+      </c>
+      <c r="F240" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G240" s="26">
+        <v>466</v>
+      </c>
+      <c r="H240" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A241" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B241" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" s="24">
+        <v>0</v>
+      </c>
+      <c r="D241" s="24">
+        <v>167</v>
+      </c>
+      <c r="E241" s="24">
+        <v>115</v>
+      </c>
+      <c r="F241" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G241" s="24">
+        <v>167</v>
+      </c>
+      <c r="H241" s="24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A242" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B242" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="24">
+        <v>0</v>
+      </c>
+      <c r="D242" s="24">
+        <v>107</v>
+      </c>
+      <c r="E242" s="24">
+        <v>95</v>
+      </c>
+      <c r="F242" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G242" s="24">
+        <v>107</v>
+      </c>
+      <c r="H242" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A243" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B243" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" s="24">
+        <v>0</v>
+      </c>
+      <c r="D243" s="24">
+        <v>45</v>
+      </c>
+      <c r="E243" s="24">
+        <v>45</v>
+      </c>
+      <c r="F243" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G243" s="24">
+        <v>45</v>
+      </c>
+      <c r="H243" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A244" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B244" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="24">
+        <v>0</v>
+      </c>
+      <c r="D244" s="24">
+        <v>32</v>
+      </c>
+      <c r="E244" s="24">
+        <v>32</v>
+      </c>
+      <c r="F244" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G244" s="24">
+        <v>32</v>
+      </c>
+      <c r="H244" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A245" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B245" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="26">
+        <v>169</v>
+      </c>
+      <c r="D245" s="26">
+        <v>268</v>
+      </c>
+      <c r="E245" s="26">
+        <v>435</v>
+      </c>
+      <c r="F245" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G245" s="26">
+        <v>437</v>
+      </c>
+      <c r="H245" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A246" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B246" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="26">
+        <v>330</v>
+      </c>
+      <c r="D246" s="26">
+        <v>350</v>
+      </c>
+      <c r="E246" s="26">
+        <v>680</v>
+      </c>
+      <c r="F246" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G246" s="26">
+        <v>680</v>
+      </c>
+      <c r="H246" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A247" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B247" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="24">
+        <v>0</v>
+      </c>
+      <c r="D247" s="24">
+        <v>82</v>
+      </c>
+      <c r="E247" s="24">
+        <v>19</v>
+      </c>
+      <c r="F247" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G247" s="24">
+        <v>82</v>
+      </c>
+      <c r="H247" s="24">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A248" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B248" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="24">
+        <v>0</v>
+      </c>
+      <c r="D248" s="24">
+        <v>66</v>
+      </c>
+      <c r="E248" s="24">
+        <v>66</v>
+      </c>
+      <c r="F248" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G248" s="24">
+        <v>66</v>
+      </c>
+      <c r="H248" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A249" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B249" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="24">
+        <v>0</v>
+      </c>
+      <c r="D249" s="24">
+        <v>103</v>
+      </c>
+      <c r="E249" s="24">
+        <v>89</v>
+      </c>
+      <c r="F249" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G249" s="24">
+        <v>103</v>
+      </c>
+      <c r="H249" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A250" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B250" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="26">
+        <v>238</v>
+      </c>
+      <c r="D250" s="26">
+        <v>296</v>
+      </c>
+      <c r="E250" s="26">
+        <v>534</v>
+      </c>
+      <c r="F250" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G250" s="26">
+        <v>534</v>
+      </c>
+      <c r="H250" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A251" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B251" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="24">
+        <v>0</v>
+      </c>
+      <c r="D251" s="24">
+        <v>69</v>
+      </c>
+      <c r="E251" s="24">
+        <v>60</v>
+      </c>
+      <c r="F251" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G251" s="24">
+        <v>69</v>
+      </c>
+      <c r="H251" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A252" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B252" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="24">
+        <v>0</v>
+      </c>
+      <c r="D252" s="24">
+        <v>132</v>
+      </c>
+      <c r="E252" s="24">
+        <v>132</v>
+      </c>
+      <c r="F252" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G252" s="24">
+        <v>132</v>
+      </c>
+      <c r="H252" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A253" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B253" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" s="24">
+        <v>0</v>
+      </c>
+      <c r="D253" s="24">
+        <v>62</v>
+      </c>
+      <c r="E253" s="24">
+        <v>62</v>
+      </c>
+      <c r="F253" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G253" s="24">
+        <v>62</v>
+      </c>
+      <c r="H253" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A254" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B254" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="26">
+        <v>112</v>
+      </c>
+      <c r="D254" s="26">
+        <v>425</v>
+      </c>
+      <c r="E254" s="26">
+        <v>537</v>
+      </c>
+      <c r="F254" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G254" s="26">
+        <v>537</v>
+      </c>
+      <c r="H254" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A255" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B255" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255" s="24">
+        <v>0</v>
+      </c>
+      <c r="D255" s="24">
+        <v>24</v>
+      </c>
+      <c r="E255" s="24">
+        <v>4</v>
+      </c>
+      <c r="F255" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G255" s="24">
+        <v>24</v>
+      </c>
+      <c r="H255" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A256" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B256" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" s="26">
+        <v>645</v>
+      </c>
+      <c r="D256" s="26">
+        <v>656</v>
+      </c>
+      <c r="E256" s="26">
+        <v>1214</v>
+      </c>
+      <c r="F256" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G256" s="26">
+        <v>1301</v>
+      </c>
+      <c r="H256" s="26">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A257" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B257" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="26">
+        <v>407</v>
+      </c>
+      <c r="D257" s="26">
+        <v>397</v>
+      </c>
+      <c r="E257" s="26">
+        <v>814</v>
+      </c>
+      <c r="F257" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G257" s="26">
+        <v>804</v>
+      </c>
+      <c r="H257" s="26">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A258" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B258" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="24">
+        <v>0</v>
+      </c>
+      <c r="D258" s="24">
+        <v>109</v>
+      </c>
+      <c r="E258" s="24">
+        <v>109</v>
+      </c>
+      <c r="F258" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G258" s="24">
+        <v>109</v>
+      </c>
+      <c r="H258" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A259" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B259" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C259" s="24">
+        <v>0</v>
+      </c>
+      <c r="D259" s="24">
+        <v>44</v>
+      </c>
+      <c r="E259" s="24">
+        <v>36</v>
+      </c>
+      <c r="F259" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G259" s="24">
+        <v>44</v>
+      </c>
+      <c r="H259" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A260" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B260" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="24">
+        <v>0</v>
+      </c>
+      <c r="D260" s="24">
+        <v>85</v>
+      </c>
+      <c r="E260" s="24">
+        <v>85</v>
+      </c>
+      <c r="F260" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G260" s="24">
+        <v>85</v>
+      </c>
+      <c r="H260" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A261" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B261" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" s="26">
+        <v>191</v>
+      </c>
+      <c r="D261" s="26">
+        <v>232</v>
+      </c>
+      <c r="E261" s="26">
+        <v>423</v>
+      </c>
+      <c r="F261" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G261" s="26">
+        <v>423</v>
+      </c>
+      <c r="H261" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A262" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B262" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C262" s="26">
+        <v>226</v>
+      </c>
+      <c r="D262" s="26">
+        <v>325</v>
+      </c>
+      <c r="E262" s="26">
+        <v>551</v>
+      </c>
+      <c r="F262" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G262" s="26">
+        <v>551</v>
+      </c>
+      <c r="H262" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A263" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B263" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="24">
+        <v>0</v>
+      </c>
+      <c r="D263" s="24">
+        <v>0</v>
+      </c>
+      <c r="E263" s="24">
+        <v>0</v>
+      </c>
+      <c r="F263" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G263" s="24">
+        <v>0</v>
+      </c>
+      <c r="H263" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A264" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B264" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264" s="24">
+        <v>0</v>
+      </c>
+      <c r="D264" s="24">
+        <v>37</v>
+      </c>
+      <c r="E264" s="24">
+        <v>37</v>
+      </c>
+      <c r="F264" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G264" s="24">
+        <v>37</v>
+      </c>
+      <c r="H264" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A265" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B265" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C265" s="24">
+        <v>0</v>
+      </c>
+      <c r="D265" s="24">
+        <v>162</v>
+      </c>
+      <c r="E265" s="24">
+        <v>162</v>
+      </c>
+      <c r="F265" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G265" s="24">
+        <v>162</v>
+      </c>
+      <c r="H265" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A266" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B266" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" s="24">
+        <v>0</v>
+      </c>
+      <c r="D266" s="24">
+        <v>102</v>
+      </c>
+      <c r="E266" s="24">
+        <v>102</v>
+      </c>
+      <c r="F266" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G266" s="24">
+        <v>102</v>
+      </c>
+      <c r="H266" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A267" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B267" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C267" s="24">
+        <v>0</v>
+      </c>
+      <c r="D267" s="24">
+        <v>7</v>
+      </c>
+      <c r="E267" s="24">
+        <v>7</v>
+      </c>
+      <c r="F267" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G267" s="24">
+        <v>7</v>
+      </c>
+      <c r="H267" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A268" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B268" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="24">
+        <v>0</v>
+      </c>
+      <c r="D268" s="24">
+        <v>0</v>
+      </c>
+      <c r="E268" s="24">
+        <v>0</v>
+      </c>
+      <c r="F268" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G268" s="24">
+        <v>0</v>
+      </c>
+      <c r="H268" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A269" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B269" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C269" s="24">
+        <v>0</v>
+      </c>
+      <c r="D269" s="24">
+        <v>0</v>
+      </c>
+      <c r="E269" s="24">
+        <v>0</v>
+      </c>
+      <c r="F269" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G269" s="24">
+        <v>0</v>
+      </c>
+      <c r="H269" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A270" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B270" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" s="24">
+        <v>0</v>
+      </c>
+      <c r="D270" s="24">
+        <v>99</v>
+      </c>
+      <c r="E270" s="24">
+        <v>99</v>
+      </c>
+      <c r="F270" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G270" s="24">
+        <v>99</v>
+      </c>
+      <c r="H270" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A271" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B271" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C271" s="24">
+        <v>0</v>
+      </c>
+      <c r="D271" s="24">
+        <v>1</v>
+      </c>
+      <c r="E271" s="24">
+        <v>0</v>
+      </c>
+      <c r="F271" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G271" s="24">
+        <v>1</v>
+      </c>
+      <c r="H271" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A272" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B272" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C272" s="24">
+        <v>0</v>
+      </c>
+      <c r="D272" s="24">
+        <v>77</v>
+      </c>
+      <c r="E272" s="24">
+        <v>77</v>
+      </c>
+      <c r="F272" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G272" s="24">
+        <v>77</v>
+      </c>
+      <c r="H272" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A273" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B273" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" s="24">
+        <v>0</v>
+      </c>
+      <c r="D273" s="24">
+        <v>61</v>
+      </c>
+      <c r="E273" s="24">
+        <v>61</v>
+      </c>
+      <c r="F273" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G273" s="24">
+        <v>61</v>
+      </c>
+      <c r="H273" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A274" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B274" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C274" s="24">
+        <v>0</v>
+      </c>
+      <c r="D274" s="24">
+        <v>35</v>
+      </c>
+      <c r="E274" s="24">
+        <v>35</v>
+      </c>
+      <c r="F274" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G274" s="24">
+        <v>35</v>
+      </c>
+      <c r="H274" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A275" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B275" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C275" s="24">
+        <v>0</v>
+      </c>
+      <c r="D275" s="24">
+        <v>75</v>
+      </c>
+      <c r="E275" s="24">
+        <v>75</v>
+      </c>
+      <c r="F275" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G275" s="24">
+        <v>75</v>
+      </c>
+      <c r="H275" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A276" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B276" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C276" s="26">
+        <v>169</v>
+      </c>
+      <c r="D276" s="26">
+        <v>426</v>
+      </c>
+      <c r="E276" s="26">
+        <v>595</v>
+      </c>
+      <c r="F276" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G276" s="26">
+        <v>595</v>
+      </c>
+      <c r="H276" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A277" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B277" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277" s="26">
+        <v>255</v>
+      </c>
+      <c r="D277" s="26">
+        <v>320</v>
+      </c>
+      <c r="E277" s="26">
+        <v>574</v>
+      </c>
+      <c r="F277" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G277" s="26">
+        <v>575</v>
+      </c>
+      <c r="H277" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A278" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B278" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="24">
+        <v>0</v>
+      </c>
+      <c r="D278" s="24">
+        <v>38</v>
+      </c>
+      <c r="E278" s="24">
+        <v>38</v>
+      </c>
+      <c r="F278" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G278" s="24">
+        <v>38</v>
+      </c>
+      <c r="H278" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A279" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B279" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C279" s="26">
+        <v>220</v>
+      </c>
+      <c r="D279" s="26">
+        <v>512</v>
+      </c>
+      <c r="E279" s="26">
+        <v>649</v>
+      </c>
+      <c r="F279" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G279" s="26">
+        <v>732</v>
+      </c>
+      <c r="H279" s="26">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A280" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B280" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" s="24">
+        <v>0</v>
+      </c>
+      <c r="D280" s="24">
+        <v>90</v>
+      </c>
+      <c r="E280" s="24">
+        <v>90</v>
+      </c>
+      <c r="F280" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G280" s="24">
+        <v>90</v>
+      </c>
+      <c r="H280" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A281" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B281" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C281" s="24">
+        <v>0</v>
+      </c>
+      <c r="D281" s="24">
+        <v>20</v>
+      </c>
+      <c r="E281" s="24">
+        <v>18</v>
+      </c>
+      <c r="F281" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G281" s="24">
+        <v>20</v>
+      </c>
+      <c r="H281" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A282" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B282" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C282" s="26">
+        <v>408</v>
+      </c>
+      <c r="D282" s="26">
+        <v>644</v>
+      </c>
+      <c r="E282" s="26">
+        <v>998</v>
+      </c>
+      <c r="F282" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G282" s="26">
+        <v>1052</v>
+      </c>
+      <c r="H282" s="26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A283" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B283" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="24">
+        <v>0</v>
+      </c>
+      <c r="D283" s="24">
+        <v>105</v>
+      </c>
+      <c r="E283" s="24">
+        <v>105</v>
+      </c>
+      <c r="F283" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G283" s="24">
+        <v>105</v>
+      </c>
+      <c r="H283" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A284" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B284" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C284" s="24">
+        <v>0</v>
+      </c>
+      <c r="D284" s="24">
+        <v>45</v>
+      </c>
+      <c r="E284" s="24">
+        <v>45</v>
+      </c>
+      <c r="F284" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G284" s="24">
+        <v>45</v>
+      </c>
+      <c r="H284" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A285" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B285" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C285" s="24">
+        <v>0</v>
+      </c>
+      <c r="D285" s="24">
+        <v>65</v>
+      </c>
+      <c r="E285" s="24">
+        <v>64</v>
+      </c>
+      <c r="F285" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G285" s="24">
+        <v>65</v>
+      </c>
+      <c r="H285" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A286" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B286" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C286" s="24">
+        <v>0</v>
+      </c>
+      <c r="D286" s="24">
+        <v>73</v>
+      </c>
+      <c r="E286" s="24">
+        <v>73</v>
+      </c>
+      <c r="F286" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G286" s="24">
+        <v>73</v>
+      </c>
+      <c r="H286" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A287" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B287" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C287" s="24">
+        <v>0</v>
+      </c>
+      <c r="D287" s="24">
+        <v>101</v>
+      </c>
+      <c r="E287" s="24">
+        <v>0</v>
+      </c>
+      <c r="F287" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G287" s="24">
+        <v>101</v>
+      </c>
+      <c r="H287" s="24">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A288" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B288" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288" s="24">
+        <v>0</v>
+      </c>
+      <c r="D288" s="24">
+        <v>3</v>
+      </c>
+      <c r="E288" s="24">
+        <v>0</v>
+      </c>
+      <c r="F288" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G288" s="24">
+        <v>3</v>
+      </c>
+      <c r="H288" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A289" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B289" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="24">
+        <v>0</v>
+      </c>
+      <c r="D289" s="24">
+        <v>56</v>
+      </c>
+      <c r="E289" s="24">
+        <v>56</v>
+      </c>
+      <c r="F289" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G289" s="24">
+        <v>56</v>
+      </c>
+      <c r="H289" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A290" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B290" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290" s="24">
+        <v>0</v>
+      </c>
+      <c r="D290" s="24">
+        <v>42</v>
+      </c>
+      <c r="E290" s="24">
+        <v>42</v>
+      </c>
+      <c r="F290" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G290" s="24">
+        <v>42</v>
+      </c>
+      <c r="H290" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A291" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B291" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C291" s="26">
+        <v>245</v>
+      </c>
+      <c r="D291" s="26">
+        <v>235</v>
+      </c>
+      <c r="E291" s="26">
+        <v>474</v>
+      </c>
+      <c r="F291" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G291" s="26">
+        <v>480</v>
+      </c>
+      <c r="H291" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A292" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B292" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C292" s="24">
+        <v>0</v>
+      </c>
+      <c r="D292" s="24">
+        <v>0</v>
+      </c>
+      <c r="E292" s="24">
+        <v>0</v>
+      </c>
+      <c r="F292" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G292" s="24">
+        <v>0</v>
+      </c>
+      <c r="H292" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A293" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B293" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C293" s="24">
+        <v>0</v>
+      </c>
+      <c r="D293" s="24">
+        <v>124</v>
+      </c>
+      <c r="E293" s="24">
+        <v>87</v>
+      </c>
+      <c r="F293" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G293" s="24">
+        <v>124</v>
+      </c>
+      <c r="H293" s="24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A294" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B294" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="24">
+        <v>0</v>
+      </c>
+      <c r="D294" s="24">
+        <v>33</v>
+      </c>
+      <c r="E294" s="24">
+        <v>33</v>
+      </c>
+      <c r="F294" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G294" s="24">
+        <v>33</v>
+      </c>
+      <c r="H294" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A295" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B295" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C295" s="24">
+        <v>0</v>
+      </c>
+      <c r="D295" s="24">
+        <v>40</v>
+      </c>
+      <c r="E295" s="24">
+        <v>18</v>
+      </c>
+      <c r="F295" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G295" s="24">
+        <v>40</v>
+      </c>
+      <c r="H295" s="24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A296" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B296" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C296" s="26">
+        <v>236</v>
+      </c>
+      <c r="D296" s="26">
+        <v>371</v>
+      </c>
+      <c r="E296" s="26">
+        <v>579</v>
+      </c>
+      <c r="F296" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G296" s="26">
+        <v>607</v>
+      </c>
+      <c r="H296" s="24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A297" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B297" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C297" s="24">
+        <v>0</v>
+      </c>
+      <c r="D297" s="24">
+        <v>1</v>
+      </c>
+      <c r="E297" s="24">
+        <v>1</v>
+      </c>
+      <c r="F297" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G297" s="24">
+        <v>1</v>
+      </c>
+      <c r="H297" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A298" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B298" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C298" s="24">
+        <v>0</v>
+      </c>
+      <c r="D298" s="24">
+        <v>87</v>
+      </c>
+      <c r="E298" s="24">
+        <v>87</v>
+      </c>
+      <c r="F298" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G298" s="24">
+        <v>87</v>
+      </c>
+      <c r="H298" s="24">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6434,11 +8529,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H977"/>
+  <dimension ref="A1:H976"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38:F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7806,50 +9901,619 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="24">
+        <v>90</v>
+      </c>
+      <c r="D53" s="24">
+        <v>360</v>
+      </c>
+      <c r="E53" s="24">
+        <v>449</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" s="24">
+        <v>450</v>
+      </c>
+      <c r="H53" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="24">
+        <v>189</v>
+      </c>
+      <c r="D54" s="24">
+        <v>140</v>
+      </c>
+      <c r="E54" s="24">
+        <v>320</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G54" s="24">
+        <v>329</v>
+      </c>
+      <c r="H54" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="24">
+        <v>181</v>
+      </c>
+      <c r="D55" s="24">
+        <v>285</v>
+      </c>
+      <c r="E55" s="24">
+        <v>466</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G55" s="24">
+        <v>466</v>
+      </c>
+      <c r="H55" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="24">
+        <v>169</v>
+      </c>
+      <c r="D56" s="24">
+        <v>268</v>
+      </c>
+      <c r="E56" s="24">
+        <v>435</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" s="24">
+        <v>437</v>
+      </c>
+      <c r="H56" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="24">
+        <v>330</v>
+      </c>
+      <c r="D57" s="24">
+        <v>350</v>
+      </c>
+      <c r="E57" s="24">
+        <v>680</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G57" s="24">
+        <v>680</v>
+      </c>
+      <c r="H57" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="24">
+        <v>238</v>
+      </c>
+      <c r="D58" s="24">
+        <v>296</v>
+      </c>
+      <c r="E58" s="24">
+        <v>534</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G58" s="24">
+        <v>534</v>
+      </c>
+      <c r="H58" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="24">
+        <v>112</v>
+      </c>
+      <c r="D59" s="24">
+        <v>425</v>
+      </c>
+      <c r="E59" s="24">
+        <v>537</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G59" s="24">
+        <v>537</v>
+      </c>
+      <c r="H59" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="24">
+        <v>191</v>
+      </c>
+      <c r="D60" s="24">
+        <v>232</v>
+      </c>
+      <c r="E60" s="24">
+        <v>423</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" s="24">
+        <v>423</v>
+      </c>
+      <c r="H60" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="24">
+        <v>226</v>
+      </c>
+      <c r="D61" s="24">
+        <v>325</v>
+      </c>
+      <c r="E61" s="24">
+        <v>551</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G61" s="24">
+        <v>551</v>
+      </c>
+      <c r="H61" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="24">
+        <v>169</v>
+      </c>
+      <c r="D62" s="24">
+        <v>426</v>
+      </c>
+      <c r="E62" s="24">
+        <v>595</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G62" s="24">
+        <v>595</v>
+      </c>
+      <c r="H62" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="24">
+        <v>255</v>
+      </c>
+      <c r="D63" s="24">
+        <v>320</v>
+      </c>
+      <c r="E63" s="24">
+        <v>574</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" s="24">
+        <v>575</v>
+      </c>
+      <c r="H63" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="24">
+        <v>220</v>
+      </c>
+      <c r="D64" s="24">
+        <v>512</v>
+      </c>
+      <c r="E64" s="24">
+        <v>649</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G64" s="24">
+        <v>732</v>
+      </c>
+      <c r="H64" s="24">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="24">
+        <v>408</v>
+      </c>
+      <c r="D65" s="24">
+        <v>644</v>
+      </c>
+      <c r="E65" s="24">
+        <v>998</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" s="24">
+        <v>1052</v>
+      </c>
+      <c r="H65" s="24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="24">
+        <v>645</v>
+      </c>
+      <c r="D66" s="24">
+        <v>656</v>
+      </c>
+      <c r="E66" s="24">
+        <v>1214</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66" s="24">
+        <v>1301</v>
+      </c>
+      <c r="H66" s="24">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="24">
+        <v>407</v>
+      </c>
+      <c r="D67" s="24">
+        <v>397</v>
+      </c>
+      <c r="E67" s="24">
+        <v>814</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G67" s="24">
+        <v>804</v>
+      </c>
+      <c r="H67" s="24">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="24">
+        <v>245</v>
+      </c>
+      <c r="D68" s="24">
+        <v>235</v>
+      </c>
+      <c r="E68" s="24">
+        <v>474</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G68" s="24">
+        <v>480</v>
+      </c>
+      <c r="H68" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="24">
+        <v>236</v>
+      </c>
+      <c r="D69" s="24">
+        <v>371</v>
+      </c>
+      <c r="E69" s="24">
+        <v>579</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G69" s="24">
+        <v>607</v>
+      </c>
+      <c r="H69" s="24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8730,7 +11394,6 @@
     <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -8739,10 +11402,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721B1B99-A37B-47CF-BBD2-DBE8B4A5CEF5}">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H230"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="F135" sqref="F135:F150"/>
+    <sheetView topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13086,7 +15749,7 @@
       <c r="E167" s="17">
         <v>60</v>
       </c>
-      <c r="F167" s="21" t="s">
+      <c r="F167" s="20" t="s">
         <v>105</v>
       </c>
       <c r="G167" s="17">
@@ -13097,22 +15760,1642 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F168" s="23"/>
+      <c r="A168" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B168" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="24">
+        <v>0</v>
+      </c>
+      <c r="D168" s="24">
+        <v>11</v>
+      </c>
+      <c r="E168" s="24">
+        <v>11</v>
+      </c>
+      <c r="F168" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G168" s="24">
+        <v>11</v>
+      </c>
+      <c r="H168" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F169" s="22"/>
+      <c r="A169" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B169" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="24">
+        <v>0</v>
+      </c>
+      <c r="D169" s="24">
+        <v>0</v>
+      </c>
+      <c r="E169" s="24">
+        <v>0</v>
+      </c>
+      <c r="F169" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G169" s="24">
+        <v>0</v>
+      </c>
+      <c r="H169" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F170" s="22"/>
+      <c r="A170" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B170" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="24">
+        <v>0</v>
+      </c>
+      <c r="D170" s="24">
+        <v>126</v>
+      </c>
+      <c r="E170" s="24">
+        <v>65</v>
+      </c>
+      <c r="F170" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G170" s="24">
+        <v>126</v>
+      </c>
+      <c r="H170" s="24">
+        <v>61</v>
+      </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F171" s="22"/>
+      <c r="A171" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B171" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="24">
+        <v>0</v>
+      </c>
+      <c r="D171" s="24">
+        <v>13</v>
+      </c>
+      <c r="E171" s="24">
+        <v>0</v>
+      </c>
+      <c r="F171" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G171" s="24">
+        <v>13</v>
+      </c>
+      <c r="H171" s="24">
+        <v>13</v>
+      </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F172" s="22"/>
+      <c r="A172" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B172" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="24">
+        <v>0</v>
+      </c>
+      <c r="D172" s="24">
+        <v>97</v>
+      </c>
+      <c r="E172" s="24">
+        <v>97</v>
+      </c>
+      <c r="F172" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G172" s="24">
+        <v>97</v>
+      </c>
+      <c r="H172" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F173" s="22"/>
+      <c r="A173" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B173" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="24">
+        <v>0</v>
+      </c>
+      <c r="D173" s="24">
+        <v>3</v>
+      </c>
+      <c r="E173" s="24">
+        <v>0</v>
+      </c>
+      <c r="F173" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G173" s="24">
+        <v>3</v>
+      </c>
+      <c r="H173" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A174" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B174" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="24">
+        <v>0</v>
+      </c>
+      <c r="D174" s="24">
+        <v>40</v>
+      </c>
+      <c r="E174" s="24">
+        <v>40</v>
+      </c>
+      <c r="F174" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G174" s="24">
+        <v>40</v>
+      </c>
+      <c r="H174" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A175" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B175" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="24">
+        <v>0</v>
+      </c>
+      <c r="D175" s="24">
+        <v>28</v>
+      </c>
+      <c r="E175" s="24">
+        <v>28</v>
+      </c>
+      <c r="F175" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G175" s="24">
+        <v>28</v>
+      </c>
+      <c r="H175" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A176" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B176" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="24">
+        <v>0</v>
+      </c>
+      <c r="D176" s="24">
+        <v>91</v>
+      </c>
+      <c r="E176" s="24">
+        <v>91</v>
+      </c>
+      <c r="F176" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G176" s="24">
+        <v>91</v>
+      </c>
+      <c r="H176" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A177" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B177" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="24">
+        <v>0</v>
+      </c>
+      <c r="D177" s="24">
+        <v>103</v>
+      </c>
+      <c r="E177" s="24">
+        <v>103</v>
+      </c>
+      <c r="F177" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G177" s="24">
+        <v>103</v>
+      </c>
+      <c r="H177" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A178" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B178" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="24">
+        <v>0</v>
+      </c>
+      <c r="D178" s="24">
+        <v>11</v>
+      </c>
+      <c r="E178" s="24">
+        <v>6</v>
+      </c>
+      <c r="F178" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G178" s="24">
+        <v>11</v>
+      </c>
+      <c r="H178" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B179" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="24">
+        <v>0</v>
+      </c>
+      <c r="D179" s="24">
+        <v>0</v>
+      </c>
+      <c r="E179" s="24">
+        <v>0</v>
+      </c>
+      <c r="F179" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G179" s="24">
+        <v>0</v>
+      </c>
+      <c r="H179" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="24">
+        <v>0</v>
+      </c>
+      <c r="D180" s="24">
+        <v>5</v>
+      </c>
+      <c r="E180" s="24">
+        <v>5</v>
+      </c>
+      <c r="F180" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G180" s="24">
+        <v>5</v>
+      </c>
+      <c r="H180" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B181" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="24">
+        <v>0</v>
+      </c>
+      <c r="D181" s="24">
+        <v>54</v>
+      </c>
+      <c r="E181" s="24">
+        <v>47</v>
+      </c>
+      <c r="F181" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G181" s="24">
+        <v>54</v>
+      </c>
+      <c r="H181" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A182" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B182" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="24">
+        <v>0</v>
+      </c>
+      <c r="D182" s="24">
+        <v>88</v>
+      </c>
+      <c r="E182" s="24">
+        <v>77</v>
+      </c>
+      <c r="F182" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G182" s="24">
+        <v>88</v>
+      </c>
+      <c r="H182" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B183" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="24">
+        <v>0</v>
+      </c>
+      <c r="D183" s="24">
+        <v>162</v>
+      </c>
+      <c r="E183" s="24">
+        <v>105</v>
+      </c>
+      <c r="F183" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G183" s="24">
+        <v>162</v>
+      </c>
+      <c r="H183" s="24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A184" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B184" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="24">
+        <v>0</v>
+      </c>
+      <c r="D184" s="24">
+        <v>45</v>
+      </c>
+      <c r="E184" s="24">
+        <v>45</v>
+      </c>
+      <c r="F184" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G184" s="24">
+        <v>45</v>
+      </c>
+      <c r="H184" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A185" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B185" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="24">
+        <v>0</v>
+      </c>
+      <c r="D185" s="24">
+        <v>59</v>
+      </c>
+      <c r="E185" s="24">
+        <v>24</v>
+      </c>
+      <c r="F185" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G185" s="24">
+        <v>59</v>
+      </c>
+      <c r="H185" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A186" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B186" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="24">
+        <v>0</v>
+      </c>
+      <c r="D186" s="24">
+        <v>40</v>
+      </c>
+      <c r="E186" s="24">
+        <v>40</v>
+      </c>
+      <c r="F186" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G186" s="24">
+        <v>40</v>
+      </c>
+      <c r="H186" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A187" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B187" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="24">
+        <v>0</v>
+      </c>
+      <c r="D187" s="24">
+        <v>167</v>
+      </c>
+      <c r="E187" s="24">
+        <v>115</v>
+      </c>
+      <c r="F187" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G187" s="24">
+        <v>167</v>
+      </c>
+      <c r="H187" s="24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A188" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B188" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="24">
+        <v>0</v>
+      </c>
+      <c r="D188" s="24">
+        <v>107</v>
+      </c>
+      <c r="E188" s="24">
+        <v>95</v>
+      </c>
+      <c r="F188" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G188" s="24">
+        <v>107</v>
+      </c>
+      <c r="H188" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A189" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B189" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="24">
+        <v>0</v>
+      </c>
+      <c r="D189" s="24">
+        <v>45</v>
+      </c>
+      <c r="E189" s="24">
+        <v>45</v>
+      </c>
+      <c r="F189" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G189" s="24">
+        <v>45</v>
+      </c>
+      <c r="H189" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A190" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B190" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="24">
+        <v>0</v>
+      </c>
+      <c r="D190" s="24">
+        <v>32</v>
+      </c>
+      <c r="E190" s="24">
+        <v>32</v>
+      </c>
+      <c r="F190" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G190" s="24">
+        <v>32</v>
+      </c>
+      <c r="H190" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A191" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B191" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="24">
+        <v>0</v>
+      </c>
+      <c r="D191" s="24">
+        <v>82</v>
+      </c>
+      <c r="E191" s="24">
+        <v>19</v>
+      </c>
+      <c r="F191" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G191" s="24">
+        <v>82</v>
+      </c>
+      <c r="H191" s="24">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A192" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B192" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="24">
+        <v>0</v>
+      </c>
+      <c r="D192" s="24">
+        <v>66</v>
+      </c>
+      <c r="E192" s="24">
+        <v>66</v>
+      </c>
+      <c r="F192" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G192" s="24">
+        <v>66</v>
+      </c>
+      <c r="H192" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A193" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B193" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="24">
+        <v>0</v>
+      </c>
+      <c r="D193" s="24">
+        <v>103</v>
+      </c>
+      <c r="E193" s="24">
+        <v>89</v>
+      </c>
+      <c r="F193" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G193" s="24">
+        <v>103</v>
+      </c>
+      <c r="H193" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A194" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B194" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="24">
+        <v>0</v>
+      </c>
+      <c r="D194" s="24">
+        <v>69</v>
+      </c>
+      <c r="E194" s="24">
+        <v>60</v>
+      </c>
+      <c r="F194" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G194" s="24">
+        <v>69</v>
+      </c>
+      <c r="H194" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A195" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B195" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="24">
+        <v>0</v>
+      </c>
+      <c r="D195" s="24">
+        <v>132</v>
+      </c>
+      <c r="E195" s="24">
+        <v>132</v>
+      </c>
+      <c r="F195" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G195" s="24">
+        <v>132</v>
+      </c>
+      <c r="H195" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A196" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B196" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="24">
+        <v>0</v>
+      </c>
+      <c r="D196" s="24">
+        <v>62</v>
+      </c>
+      <c r="E196" s="24">
+        <v>62</v>
+      </c>
+      <c r="F196" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G196" s="24">
+        <v>62</v>
+      </c>
+      <c r="H196" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A197" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B197" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="24">
+        <v>0</v>
+      </c>
+      <c r="D197" s="24">
+        <v>24</v>
+      </c>
+      <c r="E197" s="24">
+        <v>4</v>
+      </c>
+      <c r="F197" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G197" s="24">
+        <v>24</v>
+      </c>
+      <c r="H197" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A198" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B198" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="24">
+        <v>0</v>
+      </c>
+      <c r="D198" s="24">
+        <v>109</v>
+      </c>
+      <c r="E198" s="24">
+        <v>109</v>
+      </c>
+      <c r="F198" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G198" s="24">
+        <v>109</v>
+      </c>
+      <c r="H198" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A199" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B199" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="24">
+        <v>0</v>
+      </c>
+      <c r="D199" s="24">
+        <v>44</v>
+      </c>
+      <c r="E199" s="24">
+        <v>36</v>
+      </c>
+      <c r="F199" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G199" s="24">
+        <v>44</v>
+      </c>
+      <c r="H199" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A200" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B200" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="24">
+        <v>0</v>
+      </c>
+      <c r="D200" s="24">
+        <v>85</v>
+      </c>
+      <c r="E200" s="24">
+        <v>85</v>
+      </c>
+      <c r="F200" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G200" s="24">
+        <v>85</v>
+      </c>
+      <c r="H200" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A201" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B201" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="24">
+        <v>0</v>
+      </c>
+      <c r="D201" s="24">
+        <v>0</v>
+      </c>
+      <c r="E201" s="24">
+        <v>0</v>
+      </c>
+      <c r="F201" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G201" s="24">
+        <v>0</v>
+      </c>
+      <c r="H201" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A202" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B202" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="24">
+        <v>0</v>
+      </c>
+      <c r="D202" s="24">
+        <v>37</v>
+      </c>
+      <c r="E202" s="24">
+        <v>37</v>
+      </c>
+      <c r="F202" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G202" s="24">
+        <v>37</v>
+      </c>
+      <c r="H202" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A203" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B203" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="24">
+        <v>0</v>
+      </c>
+      <c r="D203" s="24">
+        <v>162</v>
+      </c>
+      <c r="E203" s="24">
+        <v>162</v>
+      </c>
+      <c r="F203" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G203" s="24">
+        <v>162</v>
+      </c>
+      <c r="H203" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A204" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B204" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="24">
+        <v>0</v>
+      </c>
+      <c r="D204" s="24">
+        <v>102</v>
+      </c>
+      <c r="E204" s="24">
+        <v>102</v>
+      </c>
+      <c r="F204" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G204" s="24">
+        <v>102</v>
+      </c>
+      <c r="H204" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A205" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B205" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="24">
+        <v>0</v>
+      </c>
+      <c r="D205" s="24">
+        <v>7</v>
+      </c>
+      <c r="E205" s="24">
+        <v>7</v>
+      </c>
+      <c r="F205" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G205" s="24">
+        <v>7</v>
+      </c>
+      <c r="H205" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A206" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B206" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="24">
+        <v>0</v>
+      </c>
+      <c r="D206" s="24">
+        <v>0</v>
+      </c>
+      <c r="E206" s="24">
+        <v>0</v>
+      </c>
+      <c r="F206" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G206" s="24">
+        <v>0</v>
+      </c>
+      <c r="H206" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A207" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B207" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="24">
+        <v>0</v>
+      </c>
+      <c r="D207" s="24">
+        <v>0</v>
+      </c>
+      <c r="E207" s="24">
+        <v>0</v>
+      </c>
+      <c r="F207" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G207" s="24">
+        <v>0</v>
+      </c>
+      <c r="H207" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A208" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B208" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" s="24">
+        <v>0</v>
+      </c>
+      <c r="D208" s="24">
+        <v>99</v>
+      </c>
+      <c r="E208" s="24">
+        <v>99</v>
+      </c>
+      <c r="F208" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G208" s="24">
+        <v>99</v>
+      </c>
+      <c r="H208" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A209" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B209" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="24">
+        <v>0</v>
+      </c>
+      <c r="D209" s="24">
+        <v>1</v>
+      </c>
+      <c r="E209" s="24">
+        <v>0</v>
+      </c>
+      <c r="F209" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G209" s="24">
+        <v>1</v>
+      </c>
+      <c r="H209" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A210" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B210" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="24">
+        <v>0</v>
+      </c>
+      <c r="D210" s="24">
+        <v>77</v>
+      </c>
+      <c r="E210" s="24">
+        <v>77</v>
+      </c>
+      <c r="F210" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G210" s="24">
+        <v>77</v>
+      </c>
+      <c r="H210" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A211" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B211" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="24">
+        <v>0</v>
+      </c>
+      <c r="D211" s="24">
+        <v>61</v>
+      </c>
+      <c r="E211" s="24">
+        <v>61</v>
+      </c>
+      <c r="F211" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G211" s="24">
+        <v>61</v>
+      </c>
+      <c r="H211" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A212" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B212" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" s="24">
+        <v>0</v>
+      </c>
+      <c r="D212" s="24">
+        <v>35</v>
+      </c>
+      <c r="E212" s="24">
+        <v>35</v>
+      </c>
+      <c r="F212" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G212" s="24">
+        <v>35</v>
+      </c>
+      <c r="H212" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A213" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B213" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" s="24">
+        <v>0</v>
+      </c>
+      <c r="D213" s="24">
+        <v>75</v>
+      </c>
+      <c r="E213" s="24">
+        <v>75</v>
+      </c>
+      <c r="F213" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G213" s="24">
+        <v>75</v>
+      </c>
+      <c r="H213" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A214" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B214" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="24">
+        <v>0</v>
+      </c>
+      <c r="D214" s="24">
+        <v>38</v>
+      </c>
+      <c r="E214" s="24">
+        <v>38</v>
+      </c>
+      <c r="F214" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G214" s="24">
+        <v>38</v>
+      </c>
+      <c r="H214" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A215" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B215" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="24">
+        <v>0</v>
+      </c>
+      <c r="D215" s="24">
+        <v>90</v>
+      </c>
+      <c r="E215" s="24">
+        <v>90</v>
+      </c>
+      <c r="F215" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G215" s="24">
+        <v>90</v>
+      </c>
+      <c r="H215" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A216" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B216" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="24">
+        <v>0</v>
+      </c>
+      <c r="D216" s="24">
+        <v>20</v>
+      </c>
+      <c r="E216" s="24">
+        <v>18</v>
+      </c>
+      <c r="F216" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G216" s="24">
+        <v>20</v>
+      </c>
+      <c r="H216" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A217" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B217" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="24">
+        <v>0</v>
+      </c>
+      <c r="D217" s="24">
+        <v>105</v>
+      </c>
+      <c r="E217" s="24">
+        <v>105</v>
+      </c>
+      <c r="F217" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G217" s="24">
+        <v>105</v>
+      </c>
+      <c r="H217" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A218" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B218" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" s="24">
+        <v>0</v>
+      </c>
+      <c r="D218" s="24">
+        <v>45</v>
+      </c>
+      <c r="E218" s="24">
+        <v>45</v>
+      </c>
+      <c r="F218" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G218" s="24">
+        <v>45</v>
+      </c>
+      <c r="H218" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A219" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B219" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" s="24">
+        <v>0</v>
+      </c>
+      <c r="D219" s="24">
+        <v>65</v>
+      </c>
+      <c r="E219" s="24">
+        <v>64</v>
+      </c>
+      <c r="F219" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G219" s="24">
+        <v>65</v>
+      </c>
+      <c r="H219" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A220" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B220" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="24">
+        <v>0</v>
+      </c>
+      <c r="D220" s="24">
+        <v>73</v>
+      </c>
+      <c r="E220" s="24">
+        <v>73</v>
+      </c>
+      <c r="F220" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G220" s="24">
+        <v>73</v>
+      </c>
+      <c r="H220" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A221" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B221" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="24">
+        <v>0</v>
+      </c>
+      <c r="D221" s="24">
+        <v>101</v>
+      </c>
+      <c r="E221" s="24">
+        <v>0</v>
+      </c>
+      <c r="F221" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G221" s="24">
+        <v>101</v>
+      </c>
+      <c r="H221" s="24">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A222" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B222" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="24">
+        <v>0</v>
+      </c>
+      <c r="D222" s="24">
+        <v>3</v>
+      </c>
+      <c r="E222" s="24">
+        <v>0</v>
+      </c>
+      <c r="F222" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G222" s="24">
+        <v>3</v>
+      </c>
+      <c r="H222" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A223" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B223" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" s="24">
+        <v>0</v>
+      </c>
+      <c r="D223" s="24">
+        <v>56</v>
+      </c>
+      <c r="E223" s="24">
+        <v>56</v>
+      </c>
+      <c r="F223" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G223" s="24">
+        <v>56</v>
+      </c>
+      <c r="H223" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A224" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B224" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="24">
+        <v>0</v>
+      </c>
+      <c r="D224" s="24">
+        <v>42</v>
+      </c>
+      <c r="E224" s="24">
+        <v>42</v>
+      </c>
+      <c r="F224" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G224" s="24">
+        <v>42</v>
+      </c>
+      <c r="H224" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A225" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B225" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" s="24">
+        <v>0</v>
+      </c>
+      <c r="D225" s="24">
+        <v>0</v>
+      </c>
+      <c r="E225" s="24">
+        <v>0</v>
+      </c>
+      <c r="F225" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G225" s="24">
+        <v>0</v>
+      </c>
+      <c r="H225" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A226" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B226" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="24">
+        <v>0</v>
+      </c>
+      <c r="D226" s="24">
+        <v>124</v>
+      </c>
+      <c r="E226" s="24">
+        <v>87</v>
+      </c>
+      <c r="F226" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G226" s="24">
+        <v>124</v>
+      </c>
+      <c r="H226" s="24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A227" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B227" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" s="24">
+        <v>0</v>
+      </c>
+      <c r="D227" s="24">
+        <v>33</v>
+      </c>
+      <c r="E227" s="24">
+        <v>33</v>
+      </c>
+      <c r="F227" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G227" s="24">
+        <v>33</v>
+      </c>
+      <c r="H227" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A228" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B228" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" s="24">
+        <v>0</v>
+      </c>
+      <c r="D228" s="24">
+        <v>40</v>
+      </c>
+      <c r="E228" s="24">
+        <v>18</v>
+      </c>
+      <c r="F228" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G228" s="24">
+        <v>40</v>
+      </c>
+      <c r="H228" s="24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A229" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B229" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" s="24">
+        <v>0</v>
+      </c>
+      <c r="D229" s="24">
+        <v>1</v>
+      </c>
+      <c r="E229" s="24">
+        <v>1</v>
+      </c>
+      <c r="F229" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G229" s="24">
+        <v>1</v>
+      </c>
+      <c r="H229" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A230" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B230" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="24">
+        <v>0</v>
+      </c>
+      <c r="D230" s="24">
+        <v>87</v>
+      </c>
+      <c r="E230" s="24">
+        <v>87</v>
+      </c>
+      <c r="F230" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G230" s="24">
+        <v>87</v>
+      </c>
+      <c r="H230" s="24">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProgressKDM.xlsx
+++ b/ProgressKDM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\semester 5\MAGANG BPS\KDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD85D7C-A195-4FC0-8504-4613A6DD3E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435808AF-871A-434F-A825-75A5B663402D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="111">
   <si>
     <t>Nama</t>
   </si>
@@ -367,16 +367,26 @@
   <si>
     <t>08/09/2025</t>
   </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,48 +494,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,13 +550,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90E5432-501C-4E71-A6C4-97092BA05C82}">
-  <dimension ref="A1:H298"/>
+  <dimension ref="A1:H378"/>
   <sheetViews>
-    <sheetView topLeftCell="A285" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302"/>
+    <sheetView topLeftCell="A373" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B379" sqref="B379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8522,6 +8537,2086 @@
         <v>0</v>
       </c>
     </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A299" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B299" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="28">
+        <v>90</v>
+      </c>
+      <c r="D299" s="28">
+        <v>455</v>
+      </c>
+      <c r="E299" s="28">
+        <v>450</v>
+      </c>
+      <c r="F299" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G299" s="28">
+        <v>545</v>
+      </c>
+      <c r="H299" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A300" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B300" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C300" s="28">
+        <v>220</v>
+      </c>
+      <c r="D300" s="28">
+        <v>586</v>
+      </c>
+      <c r="E300" s="28">
+        <v>732</v>
+      </c>
+      <c r="F300" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G300" s="28">
+        <v>806</v>
+      </c>
+      <c r="H300" s="28">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A301" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B301" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C301" s="28">
+        <v>169</v>
+      </c>
+      <c r="D301" s="28">
+        <v>526</v>
+      </c>
+      <c r="E301" s="28">
+        <v>595</v>
+      </c>
+      <c r="F301" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G301" s="28">
+        <v>695</v>
+      </c>
+      <c r="H301" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A302" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B302" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C302" s="28">
+        <v>645</v>
+      </c>
+      <c r="D302" s="28">
+        <v>754</v>
+      </c>
+      <c r="E302" s="28">
+        <v>1301</v>
+      </c>
+      <c r="F302" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G302" s="28">
+        <v>1399</v>
+      </c>
+      <c r="H302" s="28">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A303" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B303" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C303" s="28">
+        <v>408</v>
+      </c>
+      <c r="D303" s="28">
+        <v>659</v>
+      </c>
+      <c r="E303" s="28">
+        <v>1052</v>
+      </c>
+      <c r="F303" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G303" s="28">
+        <v>1067</v>
+      </c>
+      <c r="H303" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A304" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B304" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="28">
+        <v>407</v>
+      </c>
+      <c r="D304" s="28">
+        <v>435</v>
+      </c>
+      <c r="E304" s="28">
+        <v>804</v>
+      </c>
+      <c r="F304" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G304" s="28">
+        <v>842</v>
+      </c>
+      <c r="H304" s="28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A305" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B305" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C305" s="28">
+        <v>236</v>
+      </c>
+      <c r="D305" s="28">
+        <v>451</v>
+      </c>
+      <c r="E305" s="28">
+        <v>607</v>
+      </c>
+      <c r="F305" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G305" s="28">
+        <v>687</v>
+      </c>
+      <c r="H305" s="28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A306" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B306" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C306" s="28">
+        <v>112</v>
+      </c>
+      <c r="D306" s="28">
+        <v>452</v>
+      </c>
+      <c r="E306" s="28">
+        <v>537</v>
+      </c>
+      <c r="F306" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G306" s="28">
+        <v>564</v>
+      </c>
+      <c r="H306" s="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A307" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B307" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C307" s="28">
+        <v>330</v>
+      </c>
+      <c r="D307" s="28">
+        <v>473</v>
+      </c>
+      <c r="E307" s="28">
+        <v>680</v>
+      </c>
+      <c r="F307" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G307" s="28">
+        <v>803</v>
+      </c>
+      <c r="H307" s="28">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A308" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B308" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C308" s="28">
+        <v>226</v>
+      </c>
+      <c r="D308" s="28">
+        <v>404</v>
+      </c>
+      <c r="E308" s="28">
+        <v>551</v>
+      </c>
+      <c r="F308" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G308" s="28">
+        <v>630</v>
+      </c>
+      <c r="H308" s="28">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A309" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B309" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309" s="28">
+        <v>169</v>
+      </c>
+      <c r="D309" s="28">
+        <v>336</v>
+      </c>
+      <c r="E309" s="28">
+        <v>437</v>
+      </c>
+      <c r="F309" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G309" s="28">
+        <v>505</v>
+      </c>
+      <c r="H309" s="28">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A310" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B310" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C310" s="28">
+        <v>238</v>
+      </c>
+      <c r="D310" s="28">
+        <v>360</v>
+      </c>
+      <c r="E310" s="28">
+        <v>534</v>
+      </c>
+      <c r="F310" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G310" s="28">
+        <v>598</v>
+      </c>
+      <c r="H310" s="28">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A311" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B311" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C311" s="28">
+        <v>191</v>
+      </c>
+      <c r="D311" s="28">
+        <v>326</v>
+      </c>
+      <c r="E311" s="28">
+        <v>423</v>
+      </c>
+      <c r="F311" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G311" s="28">
+        <v>517</v>
+      </c>
+      <c r="H311" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A312" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B312" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C312" s="28">
+        <v>255</v>
+      </c>
+      <c r="D312" s="28">
+        <v>412</v>
+      </c>
+      <c r="E312" s="28">
+        <v>575</v>
+      </c>
+      <c r="F312" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G312" s="28">
+        <v>667</v>
+      </c>
+      <c r="H312" s="28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A313" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B313" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C313" s="28">
+        <v>181</v>
+      </c>
+      <c r="D313" s="28">
+        <v>355</v>
+      </c>
+      <c r="E313" s="28">
+        <v>466</v>
+      </c>
+      <c r="F313" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G313" s="28">
+        <v>536</v>
+      </c>
+      <c r="H313" s="28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A314" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B314" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C314" s="28">
+        <v>245</v>
+      </c>
+      <c r="D314" s="28">
+        <v>235</v>
+      </c>
+      <c r="E314" s="28">
+        <v>480</v>
+      </c>
+      <c r="F314" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G314" s="28">
+        <v>480</v>
+      </c>
+      <c r="H314" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A315" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B315" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C315" s="28">
+        <v>189</v>
+      </c>
+      <c r="D315" s="28">
+        <v>190</v>
+      </c>
+      <c r="E315" s="28">
+        <v>329</v>
+      </c>
+      <c r="F315" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G315" s="28">
+        <v>379</v>
+      </c>
+      <c r="H315" s="28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A316" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B316" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C316" s="30">
+        <v>0</v>
+      </c>
+      <c r="D316" s="30">
+        <v>108</v>
+      </c>
+      <c r="E316" s="30">
+        <v>87</v>
+      </c>
+      <c r="F316" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G316" s="30">
+        <v>108</v>
+      </c>
+      <c r="H316" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A317" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B317" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C317" s="30">
+        <v>0</v>
+      </c>
+      <c r="D317" s="30">
+        <v>105</v>
+      </c>
+      <c r="E317" s="30">
+        <v>101</v>
+      </c>
+      <c r="F317" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G317" s="30">
+        <v>105</v>
+      </c>
+      <c r="H317" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A318" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B318" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C318" s="30">
+        <v>0</v>
+      </c>
+      <c r="D318" s="30">
+        <v>139</v>
+      </c>
+      <c r="E318" s="30">
+        <v>132</v>
+      </c>
+      <c r="F318" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G318" s="30">
+        <v>139</v>
+      </c>
+      <c r="H318" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A319" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B319" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C319" s="30">
+        <v>0</v>
+      </c>
+      <c r="D319" s="30">
+        <v>135</v>
+      </c>
+      <c r="E319" s="30">
+        <v>124</v>
+      </c>
+      <c r="F319" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G319" s="30">
+        <v>135</v>
+      </c>
+      <c r="H319" s="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A320" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B320" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" s="30">
+        <v>0</v>
+      </c>
+      <c r="D320" s="30">
+        <v>75</v>
+      </c>
+      <c r="E320" s="30">
+        <v>65</v>
+      </c>
+      <c r="F320" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G320" s="30">
+        <v>75</v>
+      </c>
+      <c r="H320" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A321" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B321" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C321" s="30">
+        <v>0</v>
+      </c>
+      <c r="D321" s="30">
+        <v>83</v>
+      </c>
+      <c r="E321" s="30">
+        <v>82</v>
+      </c>
+      <c r="F321" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G321" s="30">
+        <v>83</v>
+      </c>
+      <c r="H321" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A322" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B322" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C322" s="30">
+        <v>0</v>
+      </c>
+      <c r="D322" s="30">
+        <v>126</v>
+      </c>
+      <c r="E322" s="30">
+        <v>126</v>
+      </c>
+      <c r="F322" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G322" s="30">
+        <v>126</v>
+      </c>
+      <c r="H322" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A323" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B323" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C323" s="30">
+        <v>0</v>
+      </c>
+      <c r="D323" s="30">
+        <v>99</v>
+      </c>
+      <c r="E323" s="30">
+        <v>99</v>
+      </c>
+      <c r="F323" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G323" s="30">
+        <v>99</v>
+      </c>
+      <c r="H323" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A324" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B324" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C324" s="30">
+        <v>0</v>
+      </c>
+      <c r="D324" s="30">
+        <v>162</v>
+      </c>
+      <c r="E324" s="30">
+        <v>162</v>
+      </c>
+      <c r="F324" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G324" s="30">
+        <v>162</v>
+      </c>
+      <c r="H324" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A325" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B325" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C325" s="30">
+        <v>0</v>
+      </c>
+      <c r="D325" s="30">
+        <v>167</v>
+      </c>
+      <c r="E325" s="30">
+        <v>167</v>
+      </c>
+      <c r="F325" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G325" s="30">
+        <v>167</v>
+      </c>
+      <c r="H325" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A326" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B326" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C326" s="30">
+        <v>0</v>
+      </c>
+      <c r="D326" s="30">
+        <v>138</v>
+      </c>
+      <c r="E326" s="30">
+        <v>103</v>
+      </c>
+      <c r="F326" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G326" s="30">
+        <v>138</v>
+      </c>
+      <c r="H326" s="30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A327" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B327" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C327" s="30">
+        <v>0</v>
+      </c>
+      <c r="D327" s="30">
+        <v>47</v>
+      </c>
+      <c r="E327" s="30">
+        <v>37</v>
+      </c>
+      <c r="F327" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G327" s="30">
+        <v>47</v>
+      </c>
+      <c r="H327" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A328" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B328" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C328" s="30">
+        <v>0</v>
+      </c>
+      <c r="D328" s="30">
+        <v>71</v>
+      </c>
+      <c r="E328" s="30">
+        <v>59</v>
+      </c>
+      <c r="F328" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G328" s="30">
+        <v>71</v>
+      </c>
+      <c r="H328" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A329" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B329" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C329" s="30">
+        <v>0</v>
+      </c>
+      <c r="D329" s="30">
+        <v>38</v>
+      </c>
+      <c r="E329" s="30">
+        <v>38</v>
+      </c>
+      <c r="F329" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G329" s="30">
+        <v>38</v>
+      </c>
+      <c r="H329" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A330" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B330" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C330" s="30">
+        <v>0</v>
+      </c>
+      <c r="D330" s="30">
+        <v>35</v>
+      </c>
+      <c r="E330" s="30">
+        <v>13</v>
+      </c>
+      <c r="F330" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G330" s="30">
+        <v>35</v>
+      </c>
+      <c r="H330" s="30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A331" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B331" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C331" s="30">
+        <v>0</v>
+      </c>
+      <c r="D331" s="30">
+        <v>33</v>
+      </c>
+      <c r="E331" s="30">
+        <v>33</v>
+      </c>
+      <c r="F331" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G331" s="30">
+        <v>33</v>
+      </c>
+      <c r="H331" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A332" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B332" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C332" s="30">
+        <v>0</v>
+      </c>
+      <c r="D332" s="30">
+        <v>56</v>
+      </c>
+      <c r="E332" s="30">
+        <v>56</v>
+      </c>
+      <c r="F332" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G332" s="30">
+        <v>56</v>
+      </c>
+      <c r="H332" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A333" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B333" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C333" s="30">
+        <v>0</v>
+      </c>
+      <c r="D333" s="30">
+        <v>28</v>
+      </c>
+      <c r="E333" s="30">
+        <v>24</v>
+      </c>
+      <c r="F333" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G333" s="30">
+        <v>28</v>
+      </c>
+      <c r="H333" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A334" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B334" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C334" s="30">
+        <v>0</v>
+      </c>
+      <c r="D334" s="30">
+        <v>109</v>
+      </c>
+      <c r="E334" s="30">
+        <v>109</v>
+      </c>
+      <c r="F334" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G334" s="30">
+        <v>109</v>
+      </c>
+      <c r="H334" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A335" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B335" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C335" s="30">
+        <v>0</v>
+      </c>
+      <c r="D335" s="30">
+        <v>40</v>
+      </c>
+      <c r="E335" s="30">
+        <v>40</v>
+      </c>
+      <c r="F335" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G335" s="30">
+        <v>40</v>
+      </c>
+      <c r="H335" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A336" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B336" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C336" s="30">
+        <v>0</v>
+      </c>
+      <c r="D336" s="30">
+        <v>66</v>
+      </c>
+      <c r="E336" s="30">
+        <v>66</v>
+      </c>
+      <c r="F336" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G336" s="30">
+        <v>66</v>
+      </c>
+      <c r="H336" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A337" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B337" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C337" s="30">
+        <v>0</v>
+      </c>
+      <c r="D337" s="30">
+        <v>90</v>
+      </c>
+      <c r="E337" s="30">
+        <v>90</v>
+      </c>
+      <c r="F337" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G337" s="30">
+        <v>90</v>
+      </c>
+      <c r="H337" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A338" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B338" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C338" s="30">
+        <v>0</v>
+      </c>
+      <c r="D338" s="30">
+        <v>110</v>
+      </c>
+      <c r="E338" s="30">
+        <v>107</v>
+      </c>
+      <c r="F338" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G338" s="30">
+        <v>110</v>
+      </c>
+      <c r="H338" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A339" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B339" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C339" s="30">
+        <v>0</v>
+      </c>
+      <c r="D339" s="30">
+        <v>61</v>
+      </c>
+      <c r="E339" s="30">
+        <v>54</v>
+      </c>
+      <c r="F339" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G339" s="30">
+        <v>61</v>
+      </c>
+      <c r="H339" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A340" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B340" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C340" s="30">
+        <v>0</v>
+      </c>
+      <c r="D340" s="30">
+        <v>89</v>
+      </c>
+      <c r="E340" s="30">
+        <v>88</v>
+      </c>
+      <c r="F340" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G340" s="30">
+        <v>89</v>
+      </c>
+      <c r="H340" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A341" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B341" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C341" s="30">
+        <v>0</v>
+      </c>
+      <c r="D341" s="30">
+        <v>31</v>
+      </c>
+      <c r="E341" s="30">
+        <v>20</v>
+      </c>
+      <c r="F341" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G341" s="30">
+        <v>31</v>
+      </c>
+      <c r="H341" s="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A342" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B342" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C342" s="30">
+        <v>0</v>
+      </c>
+      <c r="D342" s="30">
+        <v>42</v>
+      </c>
+      <c r="E342" s="30">
+        <v>40</v>
+      </c>
+      <c r="F342" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G342" s="30">
+        <v>42</v>
+      </c>
+      <c r="H342" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A343" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B343" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C343" s="30">
+        <v>0</v>
+      </c>
+      <c r="D343" s="30">
+        <v>11</v>
+      </c>
+      <c r="E343" s="30">
+        <v>11</v>
+      </c>
+      <c r="F343" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G343" s="30">
+        <v>11</v>
+      </c>
+      <c r="H343" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A344" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B344" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C344" s="30">
+        <v>0</v>
+      </c>
+      <c r="D344" s="30">
+        <v>11</v>
+      </c>
+      <c r="E344" s="30">
+        <v>11</v>
+      </c>
+      <c r="F344" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G344" s="30">
+        <v>11</v>
+      </c>
+      <c r="H344" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A345" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B345" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C345" s="30">
+        <v>0</v>
+      </c>
+      <c r="D345" s="30">
+        <v>69</v>
+      </c>
+      <c r="E345" s="30">
+        <v>69</v>
+      </c>
+      <c r="F345" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G345" s="30">
+        <v>69</v>
+      </c>
+      <c r="H345" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A346" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B346" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C346" s="30">
+        <v>0</v>
+      </c>
+      <c r="D346" s="30">
+        <v>44</v>
+      </c>
+      <c r="E346" s="30">
+        <v>44</v>
+      </c>
+      <c r="F346" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G346" s="30">
+        <v>44</v>
+      </c>
+      <c r="H346" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A347" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B347" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C347" s="30">
+        <v>0</v>
+      </c>
+      <c r="D347" s="30">
+        <v>47</v>
+      </c>
+      <c r="E347" s="30">
+        <v>42</v>
+      </c>
+      <c r="F347" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G347" s="30">
+        <v>47</v>
+      </c>
+      <c r="H347" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A348" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B348" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C348" s="30">
+        <v>0</v>
+      </c>
+      <c r="D348" s="30">
+        <v>4</v>
+      </c>
+      <c r="E348" s="30">
+        <v>3</v>
+      </c>
+      <c r="F348" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G348" s="30">
+        <v>4</v>
+      </c>
+      <c r="H348" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A349" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B349" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C349" s="30">
+        <v>0</v>
+      </c>
+      <c r="D349" s="30">
+        <v>77</v>
+      </c>
+      <c r="E349" s="30">
+        <v>73</v>
+      </c>
+      <c r="F349" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G349" s="30">
+        <v>77</v>
+      </c>
+      <c r="H349" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A350" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B350" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C350" s="30">
+        <v>0</v>
+      </c>
+      <c r="D350" s="30">
+        <v>4</v>
+      </c>
+      <c r="E350" s="30">
+        <v>3</v>
+      </c>
+      <c r="F350" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G350" s="30">
+        <v>4</v>
+      </c>
+      <c r="H350" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A351" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B351" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C351" s="30">
+        <v>0</v>
+      </c>
+      <c r="D351" s="30">
+        <v>102</v>
+      </c>
+      <c r="E351" s="30">
+        <v>102</v>
+      </c>
+      <c r="F351" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G351" s="30">
+        <v>102</v>
+      </c>
+      <c r="H351" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A352" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B352" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C352" s="30">
+        <v>0</v>
+      </c>
+      <c r="D352" s="30">
+        <v>2</v>
+      </c>
+      <c r="E352" s="30">
+        <v>0</v>
+      </c>
+      <c r="F352" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G352" s="30">
+        <v>2</v>
+      </c>
+      <c r="H352" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A353" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B353" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C353" s="30">
+        <v>0</v>
+      </c>
+      <c r="D353" s="30">
+        <v>1</v>
+      </c>
+      <c r="E353" s="30">
+        <v>1</v>
+      </c>
+      <c r="F353" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G353" s="30">
+        <v>1</v>
+      </c>
+      <c r="H353" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A354" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B354" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C354" s="30">
+        <v>0</v>
+      </c>
+      <c r="D354" s="30">
+        <v>1</v>
+      </c>
+      <c r="E354" s="30">
+        <v>1</v>
+      </c>
+      <c r="F354" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G354" s="30">
+        <v>1</v>
+      </c>
+      <c r="H354" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A355" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B355" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C355" s="30">
+        <v>0</v>
+      </c>
+      <c r="D355" s="30">
+        <v>98</v>
+      </c>
+      <c r="E355" s="30">
+        <v>97</v>
+      </c>
+      <c r="F355" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G355" s="30">
+        <v>98</v>
+      </c>
+      <c r="H355" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A356" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B356" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C356" s="30">
+        <v>0</v>
+      </c>
+      <c r="D356" s="30">
+        <v>75</v>
+      </c>
+      <c r="E356" s="30">
+        <v>75</v>
+      </c>
+      <c r="F356" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G356" s="30">
+        <v>75</v>
+      </c>
+      <c r="H356" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A357" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B357" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C357" s="30">
+        <v>0</v>
+      </c>
+      <c r="D357" s="30">
+        <v>0</v>
+      </c>
+      <c r="E357" s="30">
+        <v>0</v>
+      </c>
+      <c r="F357" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G357" s="30">
+        <v>0</v>
+      </c>
+      <c r="H357" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A358" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B358" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C358" s="30">
+        <v>0</v>
+      </c>
+      <c r="D358" s="30">
+        <v>0</v>
+      </c>
+      <c r="E358" s="30">
+        <v>0</v>
+      </c>
+      <c r="F358" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G358" s="30">
+        <v>0</v>
+      </c>
+      <c r="H358" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A359" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B359" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C359" s="30">
+        <v>0</v>
+      </c>
+      <c r="D359" s="30">
+        <v>0</v>
+      </c>
+      <c r="E359" s="30">
+        <v>0</v>
+      </c>
+      <c r="F359" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G359" s="30">
+        <v>0</v>
+      </c>
+      <c r="H359" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A360" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B360" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C360" s="30">
+        <v>0</v>
+      </c>
+      <c r="D360" s="30">
+        <v>85</v>
+      </c>
+      <c r="E360" s="30">
+        <v>85</v>
+      </c>
+      <c r="F360" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G360" s="30">
+        <v>85</v>
+      </c>
+      <c r="H360" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A361" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B361" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C361" s="30">
+        <v>0</v>
+      </c>
+      <c r="D361" s="30">
+        <v>91</v>
+      </c>
+      <c r="E361" s="30">
+        <v>91</v>
+      </c>
+      <c r="F361" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G361" s="30">
+        <v>91</v>
+      </c>
+      <c r="H361" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A362" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B362" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C362" s="30">
+        <v>0</v>
+      </c>
+      <c r="D362" s="30">
+        <v>40</v>
+      </c>
+      <c r="E362" s="30">
+        <v>40</v>
+      </c>
+      <c r="F362" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G362" s="30">
+        <v>40</v>
+      </c>
+      <c r="H362" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A363" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B363" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C363" s="30">
+        <v>0</v>
+      </c>
+      <c r="D363" s="30">
+        <v>61</v>
+      </c>
+      <c r="E363" s="30">
+        <v>61</v>
+      </c>
+      <c r="F363" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G363" s="30">
+        <v>61</v>
+      </c>
+      <c r="H363" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A364" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B364" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C364" s="30">
+        <v>0</v>
+      </c>
+      <c r="D364" s="30">
+        <v>7</v>
+      </c>
+      <c r="E364" s="30">
+        <v>7</v>
+      </c>
+      <c r="F364" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G364" s="30">
+        <v>7</v>
+      </c>
+      <c r="H364" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A365" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B365" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C365" s="30">
+        <v>0</v>
+      </c>
+      <c r="D365" s="30">
+        <v>45</v>
+      </c>
+      <c r="E365" s="30">
+        <v>45</v>
+      </c>
+      <c r="F365" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G365" s="30">
+        <v>45</v>
+      </c>
+      <c r="H365" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A366" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B366" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C366" s="30">
+        <v>0</v>
+      </c>
+      <c r="D366" s="30">
+        <v>0</v>
+      </c>
+      <c r="E366" s="30">
+        <v>0</v>
+      </c>
+      <c r="F366" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G366" s="30">
+        <v>0</v>
+      </c>
+      <c r="H366" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A367" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B367" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C367" s="30">
+        <v>0</v>
+      </c>
+      <c r="D367" s="30">
+        <v>162</v>
+      </c>
+      <c r="E367" s="30">
+        <v>162</v>
+      </c>
+      <c r="F367" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G367" s="30">
+        <v>162</v>
+      </c>
+      <c r="H367" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A368" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B368" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C368" s="30">
+        <v>0</v>
+      </c>
+      <c r="D368" s="30">
+        <v>45</v>
+      </c>
+      <c r="E368" s="30">
+        <v>45</v>
+      </c>
+      <c r="F368" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G368" s="30">
+        <v>45</v>
+      </c>
+      <c r="H368" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A369" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B369" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C369" s="30">
+        <v>0</v>
+      </c>
+      <c r="D369" s="30">
+        <v>35</v>
+      </c>
+      <c r="E369" s="30">
+        <v>35</v>
+      </c>
+      <c r="F369" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G369" s="30">
+        <v>35</v>
+      </c>
+      <c r="H369" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A370" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B370" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C370" s="30">
+        <v>0</v>
+      </c>
+      <c r="D370" s="30">
+        <v>103</v>
+      </c>
+      <c r="E370" s="30">
+        <v>103</v>
+      </c>
+      <c r="F370" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G370" s="30">
+        <v>103</v>
+      </c>
+      <c r="H370" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A371" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B371" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C371" s="30">
+        <v>0</v>
+      </c>
+      <c r="D371" s="30">
+        <v>105</v>
+      </c>
+      <c r="E371" s="30">
+        <v>105</v>
+      </c>
+      <c r="F371" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G371" s="30">
+        <v>105</v>
+      </c>
+      <c r="H371" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A372" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B372" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C372" s="30">
+        <v>0</v>
+      </c>
+      <c r="D372" s="30">
+        <v>77</v>
+      </c>
+      <c r="E372" s="30">
+        <v>77</v>
+      </c>
+      <c r="F372" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G372" s="30">
+        <v>77</v>
+      </c>
+      <c r="H372" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A373" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B373" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C373" s="30">
+        <v>0</v>
+      </c>
+      <c r="D373" s="30">
+        <v>32</v>
+      </c>
+      <c r="E373" s="30">
+        <v>32</v>
+      </c>
+      <c r="F373" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G373" s="30">
+        <v>32</v>
+      </c>
+      <c r="H373" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A374" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B374" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C374" s="30">
+        <v>0</v>
+      </c>
+      <c r="D374" s="30">
+        <v>5</v>
+      </c>
+      <c r="E374" s="30">
+        <v>5</v>
+      </c>
+      <c r="F374" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G374" s="30">
+        <v>5</v>
+      </c>
+      <c r="H374" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A375" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B375" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C375" s="30">
+        <v>0</v>
+      </c>
+      <c r="D375" s="30">
+        <v>62</v>
+      </c>
+      <c r="E375" s="30">
+        <v>62</v>
+      </c>
+      <c r="F375" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G375" s="30">
+        <v>62</v>
+      </c>
+      <c r="H375" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A376" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B376" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C376" s="30">
+        <v>0</v>
+      </c>
+      <c r="D376" s="30">
+        <v>28</v>
+      </c>
+      <c r="E376" s="30">
+        <v>28</v>
+      </c>
+      <c r="F376" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G376" s="30">
+        <v>28</v>
+      </c>
+      <c r="H376" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A377" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B377" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C377" s="30">
+        <v>0</v>
+      </c>
+      <c r="D377" s="30">
+        <v>45</v>
+      </c>
+      <c r="E377" s="30">
+        <v>45</v>
+      </c>
+      <c r="F377" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G377" s="30">
+        <v>45</v>
+      </c>
+      <c r="H377" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A378" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B378" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C378" s="30">
+        <v>0</v>
+      </c>
+      <c r="D378" s="30">
+        <v>0</v>
+      </c>
+      <c r="E378" s="30">
+        <v>0</v>
+      </c>
+      <c r="F378" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G378" s="30">
+        <v>0</v>
+      </c>
+      <c r="H378" s="30">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8532,8 +10627,8 @@
   <dimension ref="A1:H976"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10344,166 +12439,447 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
+      <c r="A70" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="30">
+        <v>90</v>
+      </c>
+      <c r="D70" s="30">
+        <v>455</v>
+      </c>
+      <c r="E70" s="30">
+        <v>450</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G70" s="30">
+        <v>545</v>
+      </c>
+      <c r="H70" s="30">
+        <v>95</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
+      <c r="A71" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="30">
+        <v>220</v>
+      </c>
+      <c r="D71" s="30">
+        <v>586</v>
+      </c>
+      <c r="E71" s="30">
+        <v>732</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G71" s="30">
+        <v>806</v>
+      </c>
+      <c r="H71" s="30">
+        <v>74</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
+      <c r="A72" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="30">
+        <v>169</v>
+      </c>
+      <c r="D72" s="30">
+        <v>526</v>
+      </c>
+      <c r="E72" s="30">
+        <v>595</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G72" s="30">
+        <v>695</v>
+      </c>
+      <c r="H72" s="30">
+        <v>100</v>
+      </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
+      <c r="A73" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="30">
+        <v>645</v>
+      </c>
+      <c r="D73" s="30">
+        <v>754</v>
+      </c>
+      <c r="E73" s="30">
+        <v>1301</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G73" s="30">
+        <v>1399</v>
+      </c>
+      <c r="H73" s="30">
+        <v>98</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
+      <c r="A74" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="30">
+        <v>408</v>
+      </c>
+      <c r="D74" s="30">
+        <v>659</v>
+      </c>
+      <c r="E74" s="30">
+        <v>1052</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G74" s="30">
+        <v>1067</v>
+      </c>
+      <c r="H74" s="30">
+        <v>15</v>
+      </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
+      <c r="A75" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="30">
+        <v>407</v>
+      </c>
+      <c r="D75" s="30">
+        <v>435</v>
+      </c>
+      <c r="E75" s="30">
+        <v>804</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G75" s="30">
+        <v>842</v>
+      </c>
+      <c r="H75" s="30">
+        <v>38</v>
+      </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
+      <c r="A76" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="30">
+        <v>236</v>
+      </c>
+      <c r="D76" s="30">
+        <v>451</v>
+      </c>
+      <c r="E76" s="30">
+        <v>607</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G76" s="30">
+        <v>687</v>
+      </c>
+      <c r="H76" s="30">
+        <v>80</v>
+      </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
+      <c r="A77" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="30">
+        <v>112</v>
+      </c>
+      <c r="D77" s="30">
+        <v>452</v>
+      </c>
+      <c r="E77" s="30">
+        <v>537</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G77" s="30">
+        <v>564</v>
+      </c>
+      <c r="H77" s="30">
+        <v>27</v>
+      </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
+      <c r="A78" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="30">
+        <v>330</v>
+      </c>
+      <c r="D78" s="30">
+        <v>473</v>
+      </c>
+      <c r="E78" s="30">
+        <v>680</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G78" s="30">
+        <v>803</v>
+      </c>
+      <c r="H78" s="30">
+        <v>123</v>
+      </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
+      <c r="A79" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="30">
+        <v>226</v>
+      </c>
+      <c r="D79" s="30">
+        <v>404</v>
+      </c>
+      <c r="E79" s="30">
+        <v>551</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G79" s="30">
+        <v>630</v>
+      </c>
+      <c r="H79" s="30">
+        <v>79</v>
+      </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
+      <c r="A80" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="30">
+        <v>169</v>
+      </c>
+      <c r="D80" s="30">
+        <v>336</v>
+      </c>
+      <c r="E80" s="30">
+        <v>437</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G80" s="30">
+        <v>505</v>
+      </c>
+      <c r="H80" s="30">
+        <v>68</v>
+      </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
+      <c r="A81" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="30">
+        <v>238</v>
+      </c>
+      <c r="D81" s="30">
+        <v>360</v>
+      </c>
+      <c r="E81" s="30">
+        <v>534</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G81" s="30">
+        <v>598</v>
+      </c>
+      <c r="H81" s="30">
+        <v>64</v>
+      </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
+      <c r="A82" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="30">
+        <v>191</v>
+      </c>
+      <c r="D82" s="30">
+        <v>326</v>
+      </c>
+      <c r="E82" s="30">
+        <v>423</v>
+      </c>
+      <c r="F82" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G82" s="30">
+        <v>517</v>
+      </c>
+      <c r="H82" s="30">
+        <v>94</v>
+      </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
+      <c r="A83" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="30">
+        <v>255</v>
+      </c>
+      <c r="D83" s="30">
+        <v>412</v>
+      </c>
+      <c r="E83" s="30">
+        <v>575</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G83" s="30">
+        <v>667</v>
+      </c>
+      <c r="H83" s="30">
+        <v>92</v>
+      </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
+      <c r="A84" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="30">
+        <v>181</v>
+      </c>
+      <c r="D84" s="30">
+        <v>355</v>
+      </c>
+      <c r="E84" s="30">
+        <v>466</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G84" s="30">
+        <v>536</v>
+      </c>
+      <c r="H84" s="30">
+        <v>70</v>
+      </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="A85" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="30">
+        <v>245</v>
+      </c>
+      <c r="D85" s="30">
+        <v>235</v>
+      </c>
+      <c r="E85" s="30">
+        <v>480</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G85" s="30">
+        <v>480</v>
+      </c>
+      <c r="H85" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="30">
+        <v>189</v>
+      </c>
+      <c r="D86" s="30">
+        <v>190</v>
+      </c>
+      <c r="E86" s="30">
+        <v>329</v>
+      </c>
+      <c r="F86" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G86" s="30">
+        <v>379</v>
+      </c>
+      <c r="H86" s="30">
+        <v>50</v>
+      </c>
+    </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11402,10 +13778,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721B1B99-A37B-47CF-BBD2-DBE8B4A5CEF5}">
-  <dimension ref="A1:H230"/>
+  <dimension ref="A1:H293"/>
   <sheetViews>
-    <sheetView topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B227" sqref="B227"/>
+    <sheetView topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17397,6 +19773,1644 @@
         <v>0</v>
       </c>
     </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A231" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B231" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="30">
+        <v>0</v>
+      </c>
+      <c r="D231" s="30">
+        <v>108</v>
+      </c>
+      <c r="E231" s="30">
+        <v>87</v>
+      </c>
+      <c r="F231" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G231" s="30">
+        <v>108</v>
+      </c>
+      <c r="H231" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A232" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B232" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" s="30">
+        <v>0</v>
+      </c>
+      <c r="D232" s="30">
+        <v>105</v>
+      </c>
+      <c r="E232" s="30">
+        <v>101</v>
+      </c>
+      <c r="F232" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G232" s="30">
+        <v>105</v>
+      </c>
+      <c r="H232" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A233" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B233" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" s="30">
+        <v>0</v>
+      </c>
+      <c r="D233" s="30">
+        <v>139</v>
+      </c>
+      <c r="E233" s="30">
+        <v>132</v>
+      </c>
+      <c r="F233" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G233" s="30">
+        <v>139</v>
+      </c>
+      <c r="H233" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A234" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B234" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" s="30">
+        <v>0</v>
+      </c>
+      <c r="D234" s="30">
+        <v>135</v>
+      </c>
+      <c r="E234" s="30">
+        <v>124</v>
+      </c>
+      <c r="F234" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G234" s="30">
+        <v>135</v>
+      </c>
+      <c r="H234" s="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A235" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B235" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="30">
+        <v>0</v>
+      </c>
+      <c r="D235" s="30">
+        <v>75</v>
+      </c>
+      <c r="E235" s="30">
+        <v>65</v>
+      </c>
+      <c r="F235" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G235" s="30">
+        <v>75</v>
+      </c>
+      <c r="H235" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A236" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B236" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="30">
+        <v>0</v>
+      </c>
+      <c r="D236" s="30">
+        <v>83</v>
+      </c>
+      <c r="E236" s="30">
+        <v>82</v>
+      </c>
+      <c r="F236" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G236" s="30">
+        <v>83</v>
+      </c>
+      <c r="H236" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A237" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B237" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="30">
+        <v>0</v>
+      </c>
+      <c r="D237" s="30">
+        <v>126</v>
+      </c>
+      <c r="E237" s="30">
+        <v>126</v>
+      </c>
+      <c r="F237" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G237" s="30">
+        <v>126</v>
+      </c>
+      <c r="H237" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A238" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B238" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="30">
+        <v>0</v>
+      </c>
+      <c r="D238" s="30">
+        <v>99</v>
+      </c>
+      <c r="E238" s="30">
+        <v>99</v>
+      </c>
+      <c r="F238" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G238" s="30">
+        <v>99</v>
+      </c>
+      <c r="H238" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A239" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B239" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="30">
+        <v>0</v>
+      </c>
+      <c r="D239" s="30">
+        <v>162</v>
+      </c>
+      <c r="E239" s="30">
+        <v>162</v>
+      </c>
+      <c r="F239" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G239" s="30">
+        <v>162</v>
+      </c>
+      <c r="H239" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A240" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B240" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="30">
+        <v>0</v>
+      </c>
+      <c r="D240" s="30">
+        <v>167</v>
+      </c>
+      <c r="E240" s="30">
+        <v>167</v>
+      </c>
+      <c r="F240" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G240" s="30">
+        <v>167</v>
+      </c>
+      <c r="H240" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A241" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B241" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" s="30">
+        <v>0</v>
+      </c>
+      <c r="D241" s="30">
+        <v>138</v>
+      </c>
+      <c r="E241" s="30">
+        <v>103</v>
+      </c>
+      <c r="F241" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G241" s="30">
+        <v>138</v>
+      </c>
+      <c r="H241" s="30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A242" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B242" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="30">
+        <v>0</v>
+      </c>
+      <c r="D242" s="30">
+        <v>47</v>
+      </c>
+      <c r="E242" s="30">
+        <v>37</v>
+      </c>
+      <c r="F242" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G242" s="30">
+        <v>47</v>
+      </c>
+      <c r="H242" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A243" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B243" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" s="30">
+        <v>0</v>
+      </c>
+      <c r="D243" s="30">
+        <v>71</v>
+      </c>
+      <c r="E243" s="30">
+        <v>59</v>
+      </c>
+      <c r="F243" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G243" s="30">
+        <v>71</v>
+      </c>
+      <c r="H243" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A244" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B244" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="30">
+        <v>0</v>
+      </c>
+      <c r="D244" s="30">
+        <v>38</v>
+      </c>
+      <c r="E244" s="30">
+        <v>38</v>
+      </c>
+      <c r="F244" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G244" s="30">
+        <v>38</v>
+      </c>
+      <c r="H244" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A245" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B245" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="30">
+        <v>0</v>
+      </c>
+      <c r="D245" s="30">
+        <v>35</v>
+      </c>
+      <c r="E245" s="30">
+        <v>13</v>
+      </c>
+      <c r="F245" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G245" s="30">
+        <v>35</v>
+      </c>
+      <c r="H245" s="30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A246" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B246" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="30">
+        <v>0</v>
+      </c>
+      <c r="D246" s="30">
+        <v>33</v>
+      </c>
+      <c r="E246" s="30">
+        <v>33</v>
+      </c>
+      <c r="F246" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G246" s="30">
+        <v>33</v>
+      </c>
+      <c r="H246" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A247" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B247" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="30">
+        <v>0</v>
+      </c>
+      <c r="D247" s="30">
+        <v>56</v>
+      </c>
+      <c r="E247" s="30">
+        <v>56</v>
+      </c>
+      <c r="F247" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G247" s="30">
+        <v>56</v>
+      </c>
+      <c r="H247" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A248" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B248" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="30">
+        <v>0</v>
+      </c>
+      <c r="D248" s="30">
+        <v>28</v>
+      </c>
+      <c r="E248" s="30">
+        <v>24</v>
+      </c>
+      <c r="F248" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G248" s="30">
+        <v>28</v>
+      </c>
+      <c r="H248" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A249" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B249" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="30">
+        <v>0</v>
+      </c>
+      <c r="D249" s="30">
+        <v>109</v>
+      </c>
+      <c r="E249" s="30">
+        <v>109</v>
+      </c>
+      <c r="F249" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G249" s="30">
+        <v>109</v>
+      </c>
+      <c r="H249" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A250" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B250" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="30">
+        <v>0</v>
+      </c>
+      <c r="D250" s="30">
+        <v>40</v>
+      </c>
+      <c r="E250" s="30">
+        <v>40</v>
+      </c>
+      <c r="F250" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G250" s="30">
+        <v>40</v>
+      </c>
+      <c r="H250" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A251" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B251" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="30">
+        <v>0</v>
+      </c>
+      <c r="D251" s="30">
+        <v>66</v>
+      </c>
+      <c r="E251" s="30">
+        <v>66</v>
+      </c>
+      <c r="F251" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G251" s="30">
+        <v>66</v>
+      </c>
+      <c r="H251" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A252" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B252" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="30">
+        <v>0</v>
+      </c>
+      <c r="D252" s="30">
+        <v>90</v>
+      </c>
+      <c r="E252" s="30">
+        <v>90</v>
+      </c>
+      <c r="F252" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G252" s="30">
+        <v>90</v>
+      </c>
+      <c r="H252" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A253" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B253" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" s="30">
+        <v>0</v>
+      </c>
+      <c r="D253" s="30">
+        <v>110</v>
+      </c>
+      <c r="E253" s="30">
+        <v>107</v>
+      </c>
+      <c r="F253" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G253" s="30">
+        <v>110</v>
+      </c>
+      <c r="H253" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A254" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B254" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="30">
+        <v>0</v>
+      </c>
+      <c r="D254" s="30">
+        <v>61</v>
+      </c>
+      <c r="E254" s="30">
+        <v>54</v>
+      </c>
+      <c r="F254" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G254" s="30">
+        <v>61</v>
+      </c>
+      <c r="H254" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A255" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B255" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255" s="30">
+        <v>0</v>
+      </c>
+      <c r="D255" s="30">
+        <v>89</v>
+      </c>
+      <c r="E255" s="30">
+        <v>88</v>
+      </c>
+      <c r="F255" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G255" s="30">
+        <v>89</v>
+      </c>
+      <c r="H255" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A256" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B256" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" s="30">
+        <v>0</v>
+      </c>
+      <c r="D256" s="30">
+        <v>31</v>
+      </c>
+      <c r="E256" s="30">
+        <v>20</v>
+      </c>
+      <c r="F256" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G256" s="30">
+        <v>31</v>
+      </c>
+      <c r="H256" s="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A257" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B257" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="30">
+        <v>0</v>
+      </c>
+      <c r="D257" s="30">
+        <v>42</v>
+      </c>
+      <c r="E257" s="30">
+        <v>40</v>
+      </c>
+      <c r="F257" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G257" s="30">
+        <v>42</v>
+      </c>
+      <c r="H257" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A258" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B258" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="30">
+        <v>0</v>
+      </c>
+      <c r="D258" s="30">
+        <v>11</v>
+      </c>
+      <c r="E258" s="30">
+        <v>11</v>
+      </c>
+      <c r="F258" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G258" s="30">
+        <v>11</v>
+      </c>
+      <c r="H258" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A259" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B259" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C259" s="30">
+        <v>0</v>
+      </c>
+      <c r="D259" s="30">
+        <v>11</v>
+      </c>
+      <c r="E259" s="30">
+        <v>11</v>
+      </c>
+      <c r="F259" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G259" s="30">
+        <v>11</v>
+      </c>
+      <c r="H259" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A260" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B260" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="30">
+        <v>0</v>
+      </c>
+      <c r="D260" s="30">
+        <v>69</v>
+      </c>
+      <c r="E260" s="30">
+        <v>69</v>
+      </c>
+      <c r="F260" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G260" s="30">
+        <v>69</v>
+      </c>
+      <c r="H260" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A261" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B261" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" s="30">
+        <v>0</v>
+      </c>
+      <c r="D261" s="30">
+        <v>44</v>
+      </c>
+      <c r="E261" s="30">
+        <v>44</v>
+      </c>
+      <c r="F261" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G261" s="30">
+        <v>44</v>
+      </c>
+      <c r="H261" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A262" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B262" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C262" s="30">
+        <v>0</v>
+      </c>
+      <c r="D262" s="30">
+        <v>47</v>
+      </c>
+      <c r="E262" s="30">
+        <v>42</v>
+      </c>
+      <c r="F262" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G262" s="30">
+        <v>47</v>
+      </c>
+      <c r="H262" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A263" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B263" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="30">
+        <v>0</v>
+      </c>
+      <c r="D263" s="30">
+        <v>4</v>
+      </c>
+      <c r="E263" s="30">
+        <v>3</v>
+      </c>
+      <c r="F263" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G263" s="30">
+        <v>4</v>
+      </c>
+      <c r="H263" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A264" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B264" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264" s="30">
+        <v>0</v>
+      </c>
+      <c r="D264" s="30">
+        <v>77</v>
+      </c>
+      <c r="E264" s="30">
+        <v>73</v>
+      </c>
+      <c r="F264" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G264" s="30">
+        <v>77</v>
+      </c>
+      <c r="H264" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A265" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B265" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C265" s="30">
+        <v>0</v>
+      </c>
+      <c r="D265" s="30">
+        <v>4</v>
+      </c>
+      <c r="E265" s="30">
+        <v>3</v>
+      </c>
+      <c r="F265" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G265" s="30">
+        <v>4</v>
+      </c>
+      <c r="H265" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A266" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B266" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" s="30">
+        <v>0</v>
+      </c>
+      <c r="D266" s="30">
+        <v>102</v>
+      </c>
+      <c r="E266" s="30">
+        <v>102</v>
+      </c>
+      <c r="F266" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G266" s="30">
+        <v>102</v>
+      </c>
+      <c r="H266" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A267" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B267" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C267" s="30">
+        <v>0</v>
+      </c>
+      <c r="D267" s="30">
+        <v>2</v>
+      </c>
+      <c r="E267" s="30">
+        <v>0</v>
+      </c>
+      <c r="F267" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G267" s="30">
+        <v>2</v>
+      </c>
+      <c r="H267" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A268" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B268" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="30">
+        <v>0</v>
+      </c>
+      <c r="D268" s="30">
+        <v>1</v>
+      </c>
+      <c r="E268" s="30">
+        <v>1</v>
+      </c>
+      <c r="F268" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G268" s="30">
+        <v>1</v>
+      </c>
+      <c r="H268" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A269" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B269" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C269" s="30">
+        <v>0</v>
+      </c>
+      <c r="D269" s="30">
+        <v>1</v>
+      </c>
+      <c r="E269" s="30">
+        <v>1</v>
+      </c>
+      <c r="F269" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G269" s="30">
+        <v>1</v>
+      </c>
+      <c r="H269" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A270" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B270" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" s="30">
+        <v>0</v>
+      </c>
+      <c r="D270" s="30">
+        <v>98</v>
+      </c>
+      <c r="E270" s="30">
+        <v>97</v>
+      </c>
+      <c r="F270" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G270" s="30">
+        <v>98</v>
+      </c>
+      <c r="H270" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A271" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B271" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C271" s="30">
+        <v>0</v>
+      </c>
+      <c r="D271" s="30">
+        <v>75</v>
+      </c>
+      <c r="E271" s="30">
+        <v>75</v>
+      </c>
+      <c r="F271" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G271" s="30">
+        <v>75</v>
+      </c>
+      <c r="H271" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A272" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B272" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C272" s="30">
+        <v>0</v>
+      </c>
+      <c r="D272" s="30">
+        <v>0</v>
+      </c>
+      <c r="E272" s="30">
+        <v>0</v>
+      </c>
+      <c r="F272" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G272" s="30">
+        <v>0</v>
+      </c>
+      <c r="H272" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A273" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B273" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" s="30">
+        <v>0</v>
+      </c>
+      <c r="D273" s="30">
+        <v>0</v>
+      </c>
+      <c r="E273" s="30">
+        <v>0</v>
+      </c>
+      <c r="F273" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G273" s="30">
+        <v>0</v>
+      </c>
+      <c r="H273" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A274" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B274" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C274" s="30">
+        <v>0</v>
+      </c>
+      <c r="D274" s="30">
+        <v>0</v>
+      </c>
+      <c r="E274" s="30">
+        <v>0</v>
+      </c>
+      <c r="F274" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G274" s="30">
+        <v>0</v>
+      </c>
+      <c r="H274" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A275" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B275" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C275" s="30">
+        <v>0</v>
+      </c>
+      <c r="D275" s="30">
+        <v>85</v>
+      </c>
+      <c r="E275" s="30">
+        <v>85</v>
+      </c>
+      <c r="F275" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G275" s="30">
+        <v>85</v>
+      </c>
+      <c r="H275" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A276" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B276" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C276" s="30">
+        <v>0</v>
+      </c>
+      <c r="D276" s="30">
+        <v>91</v>
+      </c>
+      <c r="E276" s="30">
+        <v>91</v>
+      </c>
+      <c r="F276" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G276" s="30">
+        <v>91</v>
+      </c>
+      <c r="H276" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A277" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B277" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277" s="30">
+        <v>0</v>
+      </c>
+      <c r="D277" s="30">
+        <v>40</v>
+      </c>
+      <c r="E277" s="30">
+        <v>40</v>
+      </c>
+      <c r="F277" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G277" s="30">
+        <v>40</v>
+      </c>
+      <c r="H277" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A278" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B278" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="30">
+        <v>0</v>
+      </c>
+      <c r="D278" s="30">
+        <v>61</v>
+      </c>
+      <c r="E278" s="30">
+        <v>61</v>
+      </c>
+      <c r="F278" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G278" s="30">
+        <v>61</v>
+      </c>
+      <c r="H278" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A279" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B279" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C279" s="30">
+        <v>0</v>
+      </c>
+      <c r="D279" s="30">
+        <v>7</v>
+      </c>
+      <c r="E279" s="30">
+        <v>7</v>
+      </c>
+      <c r="F279" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G279" s="30">
+        <v>7</v>
+      </c>
+      <c r="H279" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A280" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B280" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" s="30">
+        <v>0</v>
+      </c>
+      <c r="D280" s="30">
+        <v>45</v>
+      </c>
+      <c r="E280" s="30">
+        <v>45</v>
+      </c>
+      <c r="F280" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G280" s="30">
+        <v>45</v>
+      </c>
+      <c r="H280" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A281" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B281" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C281" s="30">
+        <v>0</v>
+      </c>
+      <c r="D281" s="30">
+        <v>0</v>
+      </c>
+      <c r="E281" s="30">
+        <v>0</v>
+      </c>
+      <c r="F281" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G281" s="30">
+        <v>0</v>
+      </c>
+      <c r="H281" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A282" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B282" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C282" s="30">
+        <v>0</v>
+      </c>
+      <c r="D282" s="30">
+        <v>162</v>
+      </c>
+      <c r="E282" s="30">
+        <v>162</v>
+      </c>
+      <c r="F282" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G282" s="30">
+        <v>162</v>
+      </c>
+      <c r="H282" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A283" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B283" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="30">
+        <v>0</v>
+      </c>
+      <c r="D283" s="30">
+        <v>45</v>
+      </c>
+      <c r="E283" s="30">
+        <v>45</v>
+      </c>
+      <c r="F283" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G283" s="30">
+        <v>45</v>
+      </c>
+      <c r="H283" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A284" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B284" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C284" s="30">
+        <v>0</v>
+      </c>
+      <c r="D284" s="30">
+        <v>35</v>
+      </c>
+      <c r="E284" s="30">
+        <v>35</v>
+      </c>
+      <c r="F284" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G284" s="30">
+        <v>35</v>
+      </c>
+      <c r="H284" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A285" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B285" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C285" s="30">
+        <v>0</v>
+      </c>
+      <c r="D285" s="30">
+        <v>103</v>
+      </c>
+      <c r="E285" s="30">
+        <v>103</v>
+      </c>
+      <c r="F285" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G285" s="30">
+        <v>103</v>
+      </c>
+      <c r="H285" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A286" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B286" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C286" s="30">
+        <v>0</v>
+      </c>
+      <c r="D286" s="30">
+        <v>105</v>
+      </c>
+      <c r="E286" s="30">
+        <v>105</v>
+      </c>
+      <c r="F286" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G286" s="30">
+        <v>105</v>
+      </c>
+      <c r="H286" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A287" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B287" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C287" s="30">
+        <v>0</v>
+      </c>
+      <c r="D287" s="30">
+        <v>77</v>
+      </c>
+      <c r="E287" s="30">
+        <v>77</v>
+      </c>
+      <c r="F287" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G287" s="30">
+        <v>77</v>
+      </c>
+      <c r="H287" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A288" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B288" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288" s="30">
+        <v>0</v>
+      </c>
+      <c r="D288" s="30">
+        <v>32</v>
+      </c>
+      <c r="E288" s="30">
+        <v>32</v>
+      </c>
+      <c r="F288" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G288" s="30">
+        <v>32</v>
+      </c>
+      <c r="H288" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A289" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B289" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="30">
+        <v>0</v>
+      </c>
+      <c r="D289" s="30">
+        <v>5</v>
+      </c>
+      <c r="E289" s="30">
+        <v>5</v>
+      </c>
+      <c r="F289" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G289" s="30">
+        <v>5</v>
+      </c>
+      <c r="H289" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A290" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B290" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290" s="30">
+        <v>0</v>
+      </c>
+      <c r="D290" s="30">
+        <v>62</v>
+      </c>
+      <c r="E290" s="30">
+        <v>62</v>
+      </c>
+      <c r="F290" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G290" s="30">
+        <v>62</v>
+      </c>
+      <c r="H290" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A291" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B291" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C291" s="30">
+        <v>0</v>
+      </c>
+      <c r="D291" s="30">
+        <v>28</v>
+      </c>
+      <c r="E291" s="30">
+        <v>28</v>
+      </c>
+      <c r="F291" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G291" s="30">
+        <v>28</v>
+      </c>
+      <c r="H291" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A292" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B292" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C292" s="30">
+        <v>0</v>
+      </c>
+      <c r="D292" s="30">
+        <v>45</v>
+      </c>
+      <c r="E292" s="30">
+        <v>45</v>
+      </c>
+      <c r="F292" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G292" s="30">
+        <v>45</v>
+      </c>
+      <c r="H292" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A293" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B293" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C293" s="30">
+        <v>0</v>
+      </c>
+      <c r="D293" s="30">
+        <v>0</v>
+      </c>
+      <c r="E293" s="30">
+        <v>0</v>
+      </c>
+      <c r="F293" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G293" s="30">
+        <v>0</v>
+      </c>
+      <c r="H293" s="30">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProgressKDM.xlsx
+++ b/ProgressKDM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\semester 5\MAGANG BPS\KDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435808AF-871A-434F-A825-75A5B663402D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AE4683-A2BF-44E6-8BC2-139CDA4BA1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semua" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="113">
   <si>
     <t>Nama</t>
   </si>
@@ -370,16 +370,29 @@
   <si>
     <t>15/09/2025</t>
   </si>
+  <si>
+    <t>Suwarno -</t>
+  </si>
+  <si>
+    <t>22/09/2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -494,48 +507,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,10 +563,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -555,6 +574,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,10 +817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90E5432-501C-4E71-A6C4-97092BA05C82}">
-  <dimension ref="A1:H378"/>
+  <dimension ref="A1:H458"/>
   <sheetViews>
-    <sheetView topLeftCell="A373" zoomScale="101" workbookViewId="0">
-      <selection activeCell="B379" sqref="B379"/>
+    <sheetView tabSelected="1" zoomScaleNormal="101" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F384" sqref="F384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10617,8 +10664,2089 @@
         <v>0</v>
       </c>
     </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A379" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B379" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C379" s="34">
+        <v>169</v>
+      </c>
+      <c r="D379" s="34">
+        <v>702</v>
+      </c>
+      <c r="E379" s="34">
+        <v>695</v>
+      </c>
+      <c r="F379" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G379" s="34">
+        <v>871</v>
+      </c>
+      <c r="H379" s="34">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A380" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B380" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C380" s="34">
+        <v>220</v>
+      </c>
+      <c r="D380" s="34">
+        <v>754</v>
+      </c>
+      <c r="E380" s="34">
+        <v>806</v>
+      </c>
+      <c r="F380" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G380" s="34">
+        <v>974</v>
+      </c>
+      <c r="H380" s="34">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A381" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B381" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C381" s="34">
+        <v>408</v>
+      </c>
+      <c r="D381" s="34">
+        <v>716</v>
+      </c>
+      <c r="E381" s="34">
+        <v>1067</v>
+      </c>
+      <c r="F381" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G381" s="34">
+        <v>1124</v>
+      </c>
+      <c r="H381" s="34">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A382" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B382" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C382" s="34">
+        <v>90</v>
+      </c>
+      <c r="D382" s="34">
+        <v>455</v>
+      </c>
+      <c r="E382" s="34">
+        <v>545</v>
+      </c>
+      <c r="F382" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G382" s="34">
+        <v>545</v>
+      </c>
+      <c r="H382" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A383" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B383" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C383" s="34">
+        <v>645</v>
+      </c>
+      <c r="D383" s="34">
+        <v>793</v>
+      </c>
+      <c r="E383" s="34">
+        <v>1399</v>
+      </c>
+      <c r="F383" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G383" s="34">
+        <v>1438</v>
+      </c>
+      <c r="H383" s="34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A384" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B384" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C384" s="34">
+        <v>238</v>
+      </c>
+      <c r="D384" s="34">
+        <v>474</v>
+      </c>
+      <c r="E384" s="34">
+        <v>598</v>
+      </c>
+      <c r="F384" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G384" s="34">
+        <v>712</v>
+      </c>
+      <c r="H384" s="34">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A385" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B385" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C385" s="34">
+        <v>112</v>
+      </c>
+      <c r="D385" s="34">
+        <v>556</v>
+      </c>
+      <c r="E385" s="34">
+        <v>564</v>
+      </c>
+      <c r="F385" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G385" s="34">
+        <v>668</v>
+      </c>
+      <c r="H385" s="34">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A386" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B386" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C386" s="34">
+        <v>191</v>
+      </c>
+      <c r="D386" s="34">
+        <v>423</v>
+      </c>
+      <c r="E386" s="34">
+        <v>517</v>
+      </c>
+      <c r="F386" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G386" s="34">
+        <v>614</v>
+      </c>
+      <c r="H386" s="34">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A387" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B387" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C387" s="34">
+        <v>407</v>
+      </c>
+      <c r="D387" s="34">
+        <v>476</v>
+      </c>
+      <c r="E387" s="34">
+        <v>842</v>
+      </c>
+      <c r="F387" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G387" s="34">
+        <v>883</v>
+      </c>
+      <c r="H387" s="34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A388" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B388" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C388" s="34">
+        <v>236</v>
+      </c>
+      <c r="D388" s="34">
+        <v>472</v>
+      </c>
+      <c r="E388" s="34">
+        <v>687</v>
+      </c>
+      <c r="F388" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G388" s="34">
+        <v>708</v>
+      </c>
+      <c r="H388" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A389" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B389" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C389" s="34">
+        <v>255</v>
+      </c>
+      <c r="D389" s="34">
+        <v>475</v>
+      </c>
+      <c r="E389" s="34">
+        <v>667</v>
+      </c>
+      <c r="F389" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G389" s="34">
+        <v>730</v>
+      </c>
+      <c r="H389" s="34">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A390" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B390" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C390" s="34">
+        <v>181</v>
+      </c>
+      <c r="D390" s="34">
+        <v>410</v>
+      </c>
+      <c r="E390" s="34">
+        <v>536</v>
+      </c>
+      <c r="F390" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G390" s="34">
+        <v>591</v>
+      </c>
+      <c r="H390" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A391" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B391" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C391" s="34">
+        <v>169</v>
+      </c>
+      <c r="D391" s="34">
+        <v>364</v>
+      </c>
+      <c r="E391" s="34">
+        <v>505</v>
+      </c>
+      <c r="F391" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G391" s="34">
+        <v>533</v>
+      </c>
+      <c r="H391" s="34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A392" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B392" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C392" s="34">
+        <v>226</v>
+      </c>
+      <c r="D392" s="34">
+        <v>422</v>
+      </c>
+      <c r="E392" s="34">
+        <v>630</v>
+      </c>
+      <c r="F392" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G392" s="34">
+        <v>648</v>
+      </c>
+      <c r="H392" s="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A393" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B393" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C393" s="32">
+        <v>0</v>
+      </c>
+      <c r="D393" s="32">
+        <v>380</v>
+      </c>
+      <c r="E393" s="32">
+        <v>126</v>
+      </c>
+      <c r="F393" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G393" s="32">
+        <v>380</v>
+      </c>
+      <c r="H393" s="32">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A394" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B394" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C394" s="32">
+        <v>0</v>
+      </c>
+      <c r="D394" s="32">
+        <v>375</v>
+      </c>
+      <c r="E394" s="32">
+        <v>62</v>
+      </c>
+      <c r="F394" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G394" s="32">
+        <v>375</v>
+      </c>
+      <c r="H394" s="32">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A395" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B395" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C395" s="34">
+        <v>330</v>
+      </c>
+      <c r="D395" s="34">
+        <v>473</v>
+      </c>
+      <c r="E395" s="34">
+        <v>803</v>
+      </c>
+      <c r="F395" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G395" s="34">
+        <v>803</v>
+      </c>
+      <c r="H395" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A396" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B396" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C396" s="34">
+        <v>189</v>
+      </c>
+      <c r="D396" s="34">
+        <v>249</v>
+      </c>
+      <c r="E396" s="34">
+        <v>379</v>
+      </c>
+      <c r="F396" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G396" s="34">
+        <v>438</v>
+      </c>
+      <c r="H396" s="34">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A397" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B397" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C397" s="34">
+        <v>245</v>
+      </c>
+      <c r="D397" s="34">
+        <v>235</v>
+      </c>
+      <c r="E397" s="34">
+        <v>480</v>
+      </c>
+      <c r="F397" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G397" s="34">
+        <v>480</v>
+      </c>
+      <c r="H397" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A398" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B398" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C398" s="32">
+        <v>0</v>
+      </c>
+      <c r="D398" s="32">
+        <v>171</v>
+      </c>
+      <c r="E398" s="32">
+        <v>105</v>
+      </c>
+      <c r="F398" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G398" s="32">
+        <v>171</v>
+      </c>
+      <c r="H398" s="32">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A399" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B399" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C399" s="32">
+        <v>0</v>
+      </c>
+      <c r="D399" s="32">
+        <v>266</v>
+      </c>
+      <c r="E399" s="32">
+        <v>167</v>
+      </c>
+      <c r="F399" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G399" s="32">
+        <v>266</v>
+      </c>
+      <c r="H399" s="32">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A400" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B400" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C400" s="32">
+        <v>0</v>
+      </c>
+      <c r="D400" s="32">
+        <v>186</v>
+      </c>
+      <c r="E400" s="32">
+        <v>90</v>
+      </c>
+      <c r="F400" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G400" s="32">
+        <v>186</v>
+      </c>
+      <c r="H400" s="32">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A401" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B401" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C401" s="32">
+        <v>0</v>
+      </c>
+      <c r="D401" s="32">
+        <v>171</v>
+      </c>
+      <c r="E401" s="32">
+        <v>135</v>
+      </c>
+      <c r="F401" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G401" s="32">
+        <v>171</v>
+      </c>
+      <c r="H401" s="32">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A402" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B402" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C402" s="32">
+        <v>0</v>
+      </c>
+      <c r="D402" s="32">
+        <v>108</v>
+      </c>
+      <c r="E402" s="32">
+        <v>108</v>
+      </c>
+      <c r="F402" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G402" s="32">
+        <v>108</v>
+      </c>
+      <c r="H402" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A403" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B403" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C403" s="32">
+        <v>0</v>
+      </c>
+      <c r="D403" s="32">
+        <v>139</v>
+      </c>
+      <c r="E403" s="32">
+        <v>139</v>
+      </c>
+      <c r="F403" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G403" s="32">
+        <v>139</v>
+      </c>
+      <c r="H403" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A404" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B404" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C404" s="32">
+        <v>0</v>
+      </c>
+      <c r="D404" s="32">
+        <v>172</v>
+      </c>
+      <c r="E404" s="32">
+        <v>138</v>
+      </c>
+      <c r="F404" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G404" s="32">
+        <v>172</v>
+      </c>
+      <c r="H404" s="32">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A405" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B405" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C405" s="32">
+        <v>0</v>
+      </c>
+      <c r="D405" s="32">
+        <v>100</v>
+      </c>
+      <c r="E405" s="32">
+        <v>83</v>
+      </c>
+      <c r="F405" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G405" s="32">
+        <v>100</v>
+      </c>
+      <c r="H405" s="32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A406" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B406" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C406" s="32">
+        <v>0</v>
+      </c>
+      <c r="D406" s="32">
+        <v>183</v>
+      </c>
+      <c r="E406" s="32">
+        <v>162</v>
+      </c>
+      <c r="F406" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G406" s="32">
+        <v>183</v>
+      </c>
+      <c r="H406" s="32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A407" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B407" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C407" s="32">
+        <v>0</v>
+      </c>
+      <c r="D407" s="32">
+        <v>75</v>
+      </c>
+      <c r="E407" s="32">
+        <v>75</v>
+      </c>
+      <c r="F407" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G407" s="32">
+        <v>75</v>
+      </c>
+      <c r="H407" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A408" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B408" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C408" s="32">
+        <v>0</v>
+      </c>
+      <c r="D408" s="32">
+        <v>237</v>
+      </c>
+      <c r="E408" s="32">
+        <v>162</v>
+      </c>
+      <c r="F408" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G408" s="32">
+        <v>237</v>
+      </c>
+      <c r="H408" s="32">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A409" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B409" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C409" s="32">
+        <v>0</v>
+      </c>
+      <c r="D409" s="32">
+        <v>106</v>
+      </c>
+      <c r="E409" s="32">
+        <v>47</v>
+      </c>
+      <c r="F409" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G409" s="32">
+        <v>106</v>
+      </c>
+      <c r="H409" s="32">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A410" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B410" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C410" s="32">
+        <v>0</v>
+      </c>
+      <c r="D410" s="32">
+        <v>94</v>
+      </c>
+      <c r="E410" s="32">
+        <v>44</v>
+      </c>
+      <c r="F410" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G410" s="32">
+        <v>94</v>
+      </c>
+      <c r="H410" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A411" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B411" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C411" s="32">
+        <v>0</v>
+      </c>
+      <c r="D411" s="32">
+        <v>99</v>
+      </c>
+      <c r="E411" s="32">
+        <v>99</v>
+      </c>
+      <c r="F411" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G411" s="32">
+        <v>99</v>
+      </c>
+      <c r="H411" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A412" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B412" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C412" s="32">
+        <v>0</v>
+      </c>
+      <c r="D412" s="32">
+        <v>116</v>
+      </c>
+      <c r="E412" s="32">
+        <v>69</v>
+      </c>
+      <c r="F412" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G412" s="32">
+        <v>116</v>
+      </c>
+      <c r="H412" s="32">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A413" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B413" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C413" s="32">
+        <v>0</v>
+      </c>
+      <c r="D413" s="32">
+        <v>70</v>
+      </c>
+      <c r="E413" s="32">
+        <v>31</v>
+      </c>
+      <c r="F413" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G413" s="32">
+        <v>70</v>
+      </c>
+      <c r="H413" s="32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A414" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B414" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C414" s="32">
+        <v>0</v>
+      </c>
+      <c r="D414" s="32">
+        <v>47</v>
+      </c>
+      <c r="E414" s="32">
+        <v>47</v>
+      </c>
+      <c r="F414" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G414" s="32">
+        <v>47</v>
+      </c>
+      <c r="H414" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A415" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B415" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C415" s="32">
+        <v>0</v>
+      </c>
+      <c r="D415" s="32">
+        <v>71</v>
+      </c>
+      <c r="E415" s="32">
+        <v>71</v>
+      </c>
+      <c r="F415" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G415" s="32">
+        <v>71</v>
+      </c>
+      <c r="H415" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A416" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B416" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C416" s="32">
+        <v>0</v>
+      </c>
+      <c r="D416" s="32">
+        <v>38</v>
+      </c>
+      <c r="E416" s="32">
+        <v>38</v>
+      </c>
+      <c r="F416" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G416" s="32">
+        <v>38</v>
+      </c>
+      <c r="H416" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A417" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B417" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C417" s="32">
+        <v>0</v>
+      </c>
+      <c r="D417" s="32">
+        <v>55</v>
+      </c>
+      <c r="E417" s="32">
+        <v>40</v>
+      </c>
+      <c r="F417" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G417" s="32">
+        <v>55</v>
+      </c>
+      <c r="H417" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A418" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B418" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C418" s="32">
+        <v>0</v>
+      </c>
+      <c r="D418" s="32">
+        <v>130</v>
+      </c>
+      <c r="E418" s="32">
+        <v>110</v>
+      </c>
+      <c r="F418" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G418" s="32">
+        <v>130</v>
+      </c>
+      <c r="H418" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A419" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B419" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C419" s="32">
+        <v>0</v>
+      </c>
+      <c r="D419" s="32">
+        <v>35</v>
+      </c>
+      <c r="E419" s="32">
+        <v>35</v>
+      </c>
+      <c r="F419" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G419" s="32">
+        <v>35</v>
+      </c>
+      <c r="H419" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A420" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B420" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C420" s="32">
+        <v>0</v>
+      </c>
+      <c r="D420" s="32">
+        <v>33</v>
+      </c>
+      <c r="E420" s="32">
+        <v>33</v>
+      </c>
+      <c r="F420" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G420" s="32">
+        <v>33</v>
+      </c>
+      <c r="H420" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A421" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B421" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C421" s="32">
+        <v>0</v>
+      </c>
+      <c r="D421" s="32">
+        <v>32</v>
+      </c>
+      <c r="E421" s="32">
+        <v>28</v>
+      </c>
+      <c r="F421" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G421" s="32">
+        <v>32</v>
+      </c>
+      <c r="H421" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A422" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B422" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C422" s="32">
+        <v>0</v>
+      </c>
+      <c r="D422" s="32">
+        <v>56</v>
+      </c>
+      <c r="E422" s="32">
+        <v>56</v>
+      </c>
+      <c r="F422" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G422" s="32">
+        <v>56</v>
+      </c>
+      <c r="H422" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A423" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B423" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C423" s="32">
+        <v>0</v>
+      </c>
+      <c r="D423" s="32">
+        <v>112</v>
+      </c>
+      <c r="E423" s="32">
+        <v>109</v>
+      </c>
+      <c r="F423" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G423" s="32">
+        <v>112</v>
+      </c>
+      <c r="H423" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A424" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B424" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C424" s="32">
+        <v>0</v>
+      </c>
+      <c r="D424" s="32">
+        <v>64</v>
+      </c>
+      <c r="E424" s="32">
+        <v>40</v>
+      </c>
+      <c r="F424" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G424" s="32">
+        <v>64</v>
+      </c>
+      <c r="H424" s="32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A425" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B425" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C425" s="32">
+        <v>0</v>
+      </c>
+      <c r="D425" s="32">
+        <v>68</v>
+      </c>
+      <c r="E425" s="32">
+        <v>61</v>
+      </c>
+      <c r="F425" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G425" s="32">
+        <v>68</v>
+      </c>
+      <c r="H425" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A426" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B426" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C426" s="32">
+        <v>0</v>
+      </c>
+      <c r="D426" s="32">
+        <v>66</v>
+      </c>
+      <c r="E426" s="32">
+        <v>66</v>
+      </c>
+      <c r="F426" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G426" s="32">
+        <v>66</v>
+      </c>
+      <c r="H426" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A427" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B427" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C427" s="32">
+        <v>0</v>
+      </c>
+      <c r="D427" s="32">
+        <v>89</v>
+      </c>
+      <c r="E427" s="32">
+        <v>89</v>
+      </c>
+      <c r="F427" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G427" s="32">
+        <v>89</v>
+      </c>
+      <c r="H427" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A428" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B428" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C428" s="32">
+        <v>0</v>
+      </c>
+      <c r="D428" s="32">
+        <v>13</v>
+      </c>
+      <c r="E428" s="32">
+        <v>11</v>
+      </c>
+      <c r="F428" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G428" s="32">
+        <v>13</v>
+      </c>
+      <c r="H428" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A429" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B429" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C429" s="32">
+        <v>0</v>
+      </c>
+      <c r="D429" s="32">
+        <v>42</v>
+      </c>
+      <c r="E429" s="32">
+        <v>42</v>
+      </c>
+      <c r="F429" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G429" s="32">
+        <v>42</v>
+      </c>
+      <c r="H429" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A430" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B430" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C430" s="32">
+        <v>0</v>
+      </c>
+      <c r="D430" s="32">
+        <v>11</v>
+      </c>
+      <c r="E430" s="32">
+        <v>11</v>
+      </c>
+      <c r="F430" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G430" s="32">
+        <v>11</v>
+      </c>
+      <c r="H430" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A431" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B431" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C431" s="32">
+        <v>0</v>
+      </c>
+      <c r="D431" s="32">
+        <v>108</v>
+      </c>
+      <c r="E431" s="32">
+        <v>98</v>
+      </c>
+      <c r="F431" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G431" s="32">
+        <v>108</v>
+      </c>
+      <c r="H431" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A432" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B432" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C432" s="32">
+        <v>0</v>
+      </c>
+      <c r="D432" s="32">
+        <v>80</v>
+      </c>
+      <c r="E432" s="32">
+        <v>77</v>
+      </c>
+      <c r="F432" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G432" s="32">
+        <v>80</v>
+      </c>
+      <c r="H432" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A433" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B433" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C433" s="32">
+        <v>0</v>
+      </c>
+      <c r="D433" s="32">
+        <v>4</v>
+      </c>
+      <c r="E433" s="32">
+        <v>4</v>
+      </c>
+      <c r="F433" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G433" s="32">
+        <v>4</v>
+      </c>
+      <c r="H433" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A434" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B434" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C434" s="32">
+        <v>0</v>
+      </c>
+      <c r="D434" s="32">
+        <v>4</v>
+      </c>
+      <c r="E434" s="32">
+        <v>4</v>
+      </c>
+      <c r="F434" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G434" s="32">
+        <v>4</v>
+      </c>
+      <c r="H434" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A435" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B435" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C435" s="32">
+        <v>0</v>
+      </c>
+      <c r="D435" s="32">
+        <v>102</v>
+      </c>
+      <c r="E435" s="32">
+        <v>102</v>
+      </c>
+      <c r="F435" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G435" s="32">
+        <v>102</v>
+      </c>
+      <c r="H435" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A436" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B436" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C436" s="32">
+        <v>0</v>
+      </c>
+      <c r="D436" s="32">
+        <v>2</v>
+      </c>
+      <c r="E436" s="32">
+        <v>2</v>
+      </c>
+      <c r="F436" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G436" s="32">
+        <v>2</v>
+      </c>
+      <c r="H436" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A437" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B437" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C437" s="32">
+        <v>0</v>
+      </c>
+      <c r="D437" s="32">
+        <v>1</v>
+      </c>
+      <c r="E437" s="32">
+        <v>1</v>
+      </c>
+      <c r="F437" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G437" s="32">
+        <v>1</v>
+      </c>
+      <c r="H437" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A438" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B438" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C438" s="32">
+        <v>0</v>
+      </c>
+      <c r="D438" s="32">
+        <v>1</v>
+      </c>
+      <c r="E438" s="32">
+        <v>1</v>
+      </c>
+      <c r="F438" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G438" s="32">
+        <v>1</v>
+      </c>
+      <c r="H438" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A439" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B439" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C439" s="32">
+        <v>0</v>
+      </c>
+      <c r="D439" s="32">
+        <v>106</v>
+      </c>
+      <c r="E439" s="32">
+        <v>105</v>
+      </c>
+      <c r="F439" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G439" s="32">
+        <v>106</v>
+      </c>
+      <c r="H439" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A440" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B440" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C440" s="32">
+        <v>0</v>
+      </c>
+      <c r="D440" s="32">
+        <v>61</v>
+      </c>
+      <c r="E440" s="32">
+        <v>61</v>
+      </c>
+      <c r="F440" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G440" s="32">
+        <v>61</v>
+      </c>
+      <c r="H440" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A441" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B441" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C441" s="32">
+        <v>0</v>
+      </c>
+      <c r="D441" s="32">
+        <v>45</v>
+      </c>
+      <c r="E441" s="32">
+        <v>45</v>
+      </c>
+      <c r="F441" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G441" s="32">
+        <v>45</v>
+      </c>
+      <c r="H441" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A442" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B442" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C442" s="32">
+        <v>0</v>
+      </c>
+      <c r="D442" s="32">
+        <v>91</v>
+      </c>
+      <c r="E442" s="32">
+        <v>91</v>
+      </c>
+      <c r="F442" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G442" s="32">
+        <v>91</v>
+      </c>
+      <c r="H442" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A443" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B443" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C443" s="32">
+        <v>0</v>
+      </c>
+      <c r="D443" s="32">
+        <v>0</v>
+      </c>
+      <c r="E443" s="32">
+        <v>0</v>
+      </c>
+      <c r="F443" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G443" s="32">
+        <v>0</v>
+      </c>
+      <c r="H443" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A444" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B444" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C444" s="32">
+        <v>0</v>
+      </c>
+      <c r="D444" s="32">
+        <v>0</v>
+      </c>
+      <c r="E444" s="32">
+        <v>0</v>
+      </c>
+      <c r="F444" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G444" s="32">
+        <v>0</v>
+      </c>
+      <c r="H444" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A445" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B445" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C445" s="32">
+        <v>0</v>
+      </c>
+      <c r="D445" s="32">
+        <v>85</v>
+      </c>
+      <c r="E445" s="32">
+        <v>85</v>
+      </c>
+      <c r="F445" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G445" s="32">
+        <v>85</v>
+      </c>
+      <c r="H445" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A446" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B446" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C446" s="32">
+        <v>0</v>
+      </c>
+      <c r="D446" s="32">
+        <v>0</v>
+      </c>
+      <c r="E446" s="32">
+        <v>0</v>
+      </c>
+      <c r="F446" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G446" s="32">
+        <v>0</v>
+      </c>
+      <c r="H446" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A447" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B447" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C447" s="32">
+        <v>0</v>
+      </c>
+      <c r="D447" s="32">
+        <v>0</v>
+      </c>
+      <c r="E447" s="32">
+        <v>0</v>
+      </c>
+      <c r="F447" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G447" s="32">
+        <v>0</v>
+      </c>
+      <c r="H447" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A448" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B448" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C448" s="32">
+        <v>0</v>
+      </c>
+      <c r="D448" s="32">
+        <v>75</v>
+      </c>
+      <c r="E448" s="32">
+        <v>75</v>
+      </c>
+      <c r="F448" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G448" s="32">
+        <v>75</v>
+      </c>
+      <c r="H448" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A449" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B449" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C449" s="32">
+        <v>0</v>
+      </c>
+      <c r="D449" s="32">
+        <v>7</v>
+      </c>
+      <c r="E449" s="32">
+        <v>7</v>
+      </c>
+      <c r="F449" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G449" s="32">
+        <v>7</v>
+      </c>
+      <c r="H449" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A450" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B450" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C450" s="32">
+        <v>0</v>
+      </c>
+      <c r="D450" s="32">
+        <v>77</v>
+      </c>
+      <c r="E450" s="32">
+        <v>77</v>
+      </c>
+      <c r="F450" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G450" s="32">
+        <v>77</v>
+      </c>
+      <c r="H450" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A451" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B451" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C451" s="32">
+        <v>0</v>
+      </c>
+      <c r="D451" s="32">
+        <v>103</v>
+      </c>
+      <c r="E451" s="32">
+        <v>103</v>
+      </c>
+      <c r="F451" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G451" s="32">
+        <v>103</v>
+      </c>
+      <c r="H451" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A452" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B452" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C452" s="32">
+        <v>0</v>
+      </c>
+      <c r="D452" s="32">
+        <v>35</v>
+      </c>
+      <c r="E452" s="32">
+        <v>35</v>
+      </c>
+      <c r="F452" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G452" s="32">
+        <v>35</v>
+      </c>
+      <c r="H452" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A453" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B453" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C453" s="32">
+        <v>0</v>
+      </c>
+      <c r="D453" s="32">
+        <v>45</v>
+      </c>
+      <c r="E453" s="32">
+        <v>45</v>
+      </c>
+      <c r="F453" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G453" s="32">
+        <v>45</v>
+      </c>
+      <c r="H453" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A454" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B454" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C454" s="32">
+        <v>0</v>
+      </c>
+      <c r="D454" s="32">
+        <v>5</v>
+      </c>
+      <c r="E454" s="32">
+        <v>5</v>
+      </c>
+      <c r="F454" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G454" s="32">
+        <v>5</v>
+      </c>
+      <c r="H454" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A455" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B455" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C455" s="32">
+        <v>0</v>
+      </c>
+      <c r="D455" s="32">
+        <v>45</v>
+      </c>
+      <c r="E455" s="32">
+        <v>45</v>
+      </c>
+      <c r="F455" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G455" s="32">
+        <v>45</v>
+      </c>
+      <c r="H455" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A456" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B456" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C456" s="32">
+        <v>0</v>
+      </c>
+      <c r="D456" s="32">
+        <v>0</v>
+      </c>
+      <c r="E456" s="32">
+        <v>0</v>
+      </c>
+      <c r="F456" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G456" s="32">
+        <v>0</v>
+      </c>
+      <c r="H456" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A457" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B457" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C457" s="32">
+        <v>0</v>
+      </c>
+      <c r="D457" s="32">
+        <v>28</v>
+      </c>
+      <c r="E457" s="32">
+        <v>28</v>
+      </c>
+      <c r="F457" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G457" s="32">
+        <v>28</v>
+      </c>
+      <c r="H457" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A458" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B458" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C458" s="32">
+        <v>0</v>
+      </c>
+      <c r="D458" s="32">
+        <v>32</v>
+      </c>
+      <c r="E458" s="32">
+        <v>32</v>
+      </c>
+      <c r="F458" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G458" s="32">
+        <v>32</v>
+      </c>
+      <c r="H458" s="32">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10626,9 +12754,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H976"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10686,7 +12814,7 @@
       <c r="E2" s="13">
         <v>253</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="35" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="13">
@@ -10712,7 +12840,7 @@
       <c r="E3" s="13">
         <v>208</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="35" t="s">
         <v>99</v>
       </c>
       <c r="G3" s="13">
@@ -10738,7 +12866,7 @@
       <c r="E4" s="13">
         <v>319</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="35" t="s">
         <v>99</v>
       </c>
       <c r="G4" s="13">
@@ -10764,7 +12892,7 @@
       <c r="E5" s="13">
         <v>174</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
       <c r="G5" s="13">
@@ -10790,7 +12918,7 @@
       <c r="E6" s="13">
         <v>229</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="35" t="s">
         <v>99</v>
       </c>
       <c r="G6" s="14">
@@ -10816,7 +12944,7 @@
       <c r="E7" s="13">
         <v>336</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="35" t="s">
         <v>99</v>
       </c>
       <c r="G7" s="13">
@@ -10842,7 +12970,7 @@
       <c r="E8" s="13">
         <v>216</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="35" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="14">
@@ -10868,7 +12996,7 @@
       <c r="E9" s="13">
         <v>90</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="35" t="s">
         <v>99</v>
       </c>
       <c r="G9" s="13">
@@ -10894,7 +13022,7 @@
       <c r="E10" s="13">
         <v>442</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="35" t="s">
         <v>99</v>
       </c>
       <c r="G10" s="13">
@@ -10920,7 +13048,7 @@
       <c r="E11" s="13">
         <v>337</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="35" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="13">
@@ -10946,7 +13074,7 @@
       <c r="E12" s="13">
         <v>299</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="35" t="s">
         <v>99</v>
       </c>
       <c r="G12" s="13">
@@ -10972,7 +13100,7 @@
       <c r="E13" s="13">
         <v>240</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="35" t="s">
         <v>99</v>
       </c>
       <c r="G13" s="13">
@@ -10998,7 +13126,7 @@
       <c r="E14" s="13">
         <v>476</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="35" t="s">
         <v>99</v>
       </c>
       <c r="G14" s="13">
@@ -11024,7 +13152,7 @@
       <c r="E15" s="13">
         <v>644</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="35" t="s">
         <v>99</v>
       </c>
       <c r="G15" s="13">
@@ -11050,7 +13178,7 @@
       <c r="E16" s="13">
         <v>959</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="35" t="s">
         <v>99</v>
       </c>
       <c r="G16" s="13">
@@ -11076,7 +13204,7 @@
       <c r="E17" s="13">
         <v>257</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="35" t="s">
         <v>99</v>
       </c>
       <c r="G17" s="13">
@@ -11102,7 +13230,7 @@
       <c r="E18" s="13">
         <v>169</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="35" t="s">
         <v>99</v>
       </c>
       <c r="G18" s="13">
@@ -11128,7 +13256,7 @@
       <c r="E19" s="2">
         <v>284</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G19" s="2">
@@ -11154,7 +13282,7 @@
       <c r="E20" s="2">
         <v>230</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G20" s="2">
@@ -11180,7 +13308,7 @@
       <c r="E21" s="2">
         <v>364</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G21" s="2">
@@ -11206,7 +13334,7 @@
       <c r="E22" s="2">
         <v>256</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G22" s="2">
@@ -11232,7 +13360,7 @@
       <c r="E23" s="2">
         <v>269</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G23" s="2">
@@ -11258,7 +13386,7 @@
       <c r="E24" s="2">
         <v>374</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G24" s="2">
@@ -11284,7 +13412,7 @@
       <c r="E25" s="2">
         <v>216</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G25" s="2">
@@ -11310,7 +13438,7 @@
       <c r="E26" s="2">
         <v>106</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G26" s="2">
@@ -11336,7 +13464,7 @@
       <c r="E27" s="2">
         <v>497</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G27" s="2">
@@ -11362,7 +13490,7 @@
       <c r="E28" s="2">
         <v>390</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G28" s="2">
@@ -11388,7 +13516,7 @@
       <c r="E29" s="2">
         <v>329</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="37" t="s">
         <v>75</v>
       </c>
       <c r="G29" s="2">
@@ -11414,7 +13542,7 @@
       <c r="E30" s="2">
         <v>263</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G30" s="2">
@@ -11440,7 +13568,7 @@
       <c r="E31" s="2">
         <v>501</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="37" t="s">
         <v>75</v>
       </c>
       <c r="G31" s="2">
@@ -11466,7 +13594,7 @@
       <c r="E32" s="2">
         <v>675</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G32" s="2">
@@ -11492,7 +13620,7 @@
       <c r="E33" s="2">
         <v>1005</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G33" s="2">
@@ -11518,7 +13646,7 @@
       <c r="E34" s="2">
         <v>299</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G34" s="2">
@@ -11544,7 +13672,7 @@
       <c r="E35" s="2">
         <v>205</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G35" s="2">
@@ -11570,7 +13698,7 @@
       <c r="E36" s="17">
         <v>589</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G36" s="17">
@@ -11596,7 +13724,7 @@
       <c r="E37" s="17">
         <v>1192</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G37" s="17">
@@ -11622,7 +13750,7 @@
       <c r="E38" s="17">
         <v>775</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G38" s="17">
@@ -11648,7 +13776,7 @@
       <c r="E39" s="17">
         <v>406</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G39" s="17">
@@ -11674,7 +13802,7 @@
       <c r="E40" s="17">
         <v>586</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G40" s="17">
@@ -11700,7 +13828,7 @@
       <c r="E41" s="17">
         <v>413</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G41" s="17">
@@ -11726,7 +13854,7 @@
       <c r="E42" s="17">
         <v>586</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G42" s="17">
@@ -11752,7 +13880,7 @@
       <c r="E43" s="17">
         <v>383</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G43" s="17">
@@ -11778,7 +13906,7 @@
       <c r="E44" s="17">
         <v>348</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G44" s="17">
@@ -11804,7 +13932,7 @@
       <c r="E45" s="17">
         <v>483</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G45" s="17">
@@ -11830,7 +13958,7 @@
       <c r="E46" s="17">
         <v>365</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F46" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G46" s="17">
@@ -11856,7 +13984,7 @@
       <c r="E47" s="17">
         <v>520</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G47" s="17">
@@ -11882,7 +14010,7 @@
       <c r="E48" s="17">
         <v>259</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G48" s="17">
@@ -11908,7 +14036,7 @@
       <c r="E49" s="17">
         <v>564</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G49" s="17">
@@ -11934,7 +14062,7 @@
       <c r="E50" s="17">
         <v>342</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G50" s="17">
@@ -11960,7 +14088,7 @@
       <c r="E51" s="17">
         <v>328</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G51" s="17">
@@ -11986,7 +14114,7 @@
       <c r="E52" s="17">
         <v>481</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G52" s="17">
@@ -12012,7 +14140,7 @@
       <c r="E53" s="24">
         <v>449</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="39" t="s">
         <v>109</v>
       </c>
       <c r="G53" s="24">
@@ -12038,7 +14166,7 @@
       <c r="E54" s="24">
         <v>320</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="39" t="s">
         <v>109</v>
       </c>
       <c r="G54" s="24">
@@ -12064,7 +14192,7 @@
       <c r="E55" s="24">
         <v>466</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="39" t="s">
         <v>109</v>
       </c>
       <c r="G55" s="24">
@@ -12090,7 +14218,7 @@
       <c r="E56" s="24">
         <v>435</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="39" t="s">
         <v>109</v>
       </c>
       <c r="G56" s="24">
@@ -12116,7 +14244,7 @@
       <c r="E57" s="24">
         <v>680</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="39" t="s">
         <v>109</v>
       </c>
       <c r="G57" s="24">
@@ -12142,7 +14270,7 @@
       <c r="E58" s="24">
         <v>534</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="39" t="s">
         <v>109</v>
       </c>
       <c r="G58" s="24">
@@ -12168,7 +14296,7 @@
       <c r="E59" s="24">
         <v>537</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="39" t="s">
         <v>109</v>
       </c>
       <c r="G59" s="24">
@@ -12194,7 +14322,7 @@
       <c r="E60" s="24">
         <v>423</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="F60" s="39" t="s">
         <v>109</v>
       </c>
       <c r="G60" s="24">
@@ -12220,7 +14348,7 @@
       <c r="E61" s="24">
         <v>551</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="39" t="s">
         <v>109</v>
       </c>
       <c r="G61" s="24">
@@ -12246,7 +14374,7 @@
       <c r="E62" s="24">
         <v>595</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F62" s="39" t="s">
         <v>109</v>
       </c>
       <c r="G62" s="24">
@@ -12272,7 +14400,7 @@
       <c r="E63" s="24">
         <v>574</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="39" t="s">
         <v>109</v>
       </c>
       <c r="G63" s="24">
@@ -12298,7 +14426,7 @@
       <c r="E64" s="24">
         <v>649</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F64" s="39" t="s">
         <v>109</v>
       </c>
       <c r="G64" s="24">
@@ -12324,7 +14452,7 @@
       <c r="E65" s="24">
         <v>998</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F65" s="39" t="s">
         <v>109</v>
       </c>
       <c r="G65" s="24">
@@ -12350,7 +14478,7 @@
       <c r="E66" s="24">
         <v>1214</v>
       </c>
-      <c r="F66" s="21" t="s">
+      <c r="F66" s="39" t="s">
         <v>109</v>
       </c>
       <c r="G66" s="24">
@@ -12376,7 +14504,7 @@
       <c r="E67" s="24">
         <v>814</v>
       </c>
-      <c r="F67" s="21" t="s">
+      <c r="F67" s="39" t="s">
         <v>109</v>
       </c>
       <c r="G67" s="24">
@@ -12402,7 +14530,7 @@
       <c r="E68" s="24">
         <v>474</v>
       </c>
-      <c r="F68" s="21" t="s">
+      <c r="F68" s="39" t="s">
         <v>109</v>
       </c>
       <c r="G68" s="24">
@@ -12428,7 +14556,7 @@
       <c r="E69" s="24">
         <v>579</v>
       </c>
-      <c r="F69" s="21" t="s">
+      <c r="F69" s="39" t="s">
         <v>109</v>
       </c>
       <c r="G69" s="24">
@@ -12454,7 +14582,7 @@
       <c r="E70" s="30">
         <v>450</v>
       </c>
-      <c r="F70" s="30" t="s">
+      <c r="F70" s="40" t="s">
         <v>110</v>
       </c>
       <c r="G70" s="30">
@@ -12480,7 +14608,7 @@
       <c r="E71" s="30">
         <v>732</v>
       </c>
-      <c r="F71" s="30" t="s">
+      <c r="F71" s="40" t="s">
         <v>110</v>
       </c>
       <c r="G71" s="30">
@@ -12506,7 +14634,7 @@
       <c r="E72" s="30">
         <v>595</v>
       </c>
-      <c r="F72" s="30" t="s">
+      <c r="F72" s="40" t="s">
         <v>110</v>
       </c>
       <c r="G72" s="30">
@@ -12532,7 +14660,7 @@
       <c r="E73" s="30">
         <v>1301</v>
       </c>
-      <c r="F73" s="30" t="s">
+      <c r="F73" s="40" t="s">
         <v>110</v>
       </c>
       <c r="G73" s="30">
@@ -12558,7 +14686,7 @@
       <c r="E74" s="30">
         <v>1052</v>
       </c>
-      <c r="F74" s="30" t="s">
+      <c r="F74" s="40" t="s">
         <v>110</v>
       </c>
       <c r="G74" s="30">
@@ -12584,7 +14712,7 @@
       <c r="E75" s="30">
         <v>804</v>
       </c>
-      <c r="F75" s="30" t="s">
+      <c r="F75" s="40" t="s">
         <v>110</v>
       </c>
       <c r="G75" s="30">
@@ -12610,7 +14738,7 @@
       <c r="E76" s="30">
         <v>607</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F76" s="40" t="s">
         <v>110</v>
       </c>
       <c r="G76" s="30">
@@ -12636,7 +14764,7 @@
       <c r="E77" s="30">
         <v>537</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F77" s="40" t="s">
         <v>110</v>
       </c>
       <c r="G77" s="30">
@@ -12662,7 +14790,7 @@
       <c r="E78" s="30">
         <v>680</v>
       </c>
-      <c r="F78" s="30" t="s">
+      <c r="F78" s="40" t="s">
         <v>110</v>
       </c>
       <c r="G78" s="30">
@@ -12688,7 +14816,7 @@
       <c r="E79" s="30">
         <v>551</v>
       </c>
-      <c r="F79" s="30" t="s">
+      <c r="F79" s="40" t="s">
         <v>110</v>
       </c>
       <c r="G79" s="30">
@@ -12714,7 +14842,7 @@
       <c r="E80" s="30">
         <v>437</v>
       </c>
-      <c r="F80" s="30" t="s">
+      <c r="F80" s="40" t="s">
         <v>110</v>
       </c>
       <c r="G80" s="30">
@@ -12740,7 +14868,7 @@
       <c r="E81" s="30">
         <v>534</v>
       </c>
-      <c r="F81" s="30" t="s">
+      <c r="F81" s="40" t="s">
         <v>110</v>
       </c>
       <c r="G81" s="30">
@@ -12766,7 +14894,7 @@
       <c r="E82" s="30">
         <v>423</v>
       </c>
-      <c r="F82" s="30" t="s">
+      <c r="F82" s="40" t="s">
         <v>110</v>
       </c>
       <c r="G82" s="30">
@@ -12792,7 +14920,7 @@
       <c r="E83" s="30">
         <v>575</v>
       </c>
-      <c r="F83" s="30" t="s">
+      <c r="F83" s="40" t="s">
         <v>110</v>
       </c>
       <c r="G83" s="30">
@@ -12818,7 +14946,7 @@
       <c r="E84" s="30">
         <v>466</v>
       </c>
-      <c r="F84" s="30" t="s">
+      <c r="F84" s="40" t="s">
         <v>110</v>
       </c>
       <c r="G84" s="30">
@@ -12844,7 +14972,7 @@
       <c r="E85" s="30">
         <v>480</v>
       </c>
-      <c r="F85" s="30" t="s">
+      <c r="F85" s="40" t="s">
         <v>110</v>
       </c>
       <c r="G85" s="30">
@@ -12870,7 +14998,7 @@
       <c r="E86" s="30">
         <v>329</v>
       </c>
-      <c r="F86" s="30" t="s">
+      <c r="F86" s="40" t="s">
         <v>110</v>
       </c>
       <c r="G86" s="30">
@@ -12880,32 +15008,457 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="32">
+        <v>169</v>
+      </c>
+      <c r="D87" s="32">
+        <v>702</v>
+      </c>
+      <c r="E87" s="32">
+        <v>695</v>
+      </c>
+      <c r="F87" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G87" s="32">
+        <v>871</v>
+      </c>
+      <c r="H87" s="32">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="32">
+        <v>220</v>
+      </c>
+      <c r="D88" s="32">
+        <v>754</v>
+      </c>
+      <c r="E88" s="32">
+        <v>806</v>
+      </c>
+      <c r="F88" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G88" s="32">
+        <v>974</v>
+      </c>
+      <c r="H88" s="32">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="32">
+        <v>408</v>
+      </c>
+      <c r="D89" s="32">
+        <v>716</v>
+      </c>
+      <c r="E89" s="32">
+        <v>1067</v>
+      </c>
+      <c r="F89" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G89" s="32">
+        <v>1124</v>
+      </c>
+      <c r="H89" s="32">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="32">
+        <v>90</v>
+      </c>
+      <c r="D90" s="32">
+        <v>455</v>
+      </c>
+      <c r="E90" s="32">
+        <v>545</v>
+      </c>
+      <c r="F90" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G90" s="32">
+        <v>545</v>
+      </c>
+      <c r="H90" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="32">
+        <v>645</v>
+      </c>
+      <c r="D91" s="32">
+        <v>793</v>
+      </c>
+      <c r="E91" s="32">
+        <v>1399</v>
+      </c>
+      <c r="F91" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G91" s="32">
+        <v>1438</v>
+      </c>
+      <c r="H91" s="32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="32">
+        <v>238</v>
+      </c>
+      <c r="D92" s="32">
+        <v>474</v>
+      </c>
+      <c r="E92" s="32">
+        <v>598</v>
+      </c>
+      <c r="F92" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G92" s="32">
+        <v>712</v>
+      </c>
+      <c r="H92" s="32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="32">
+        <v>112</v>
+      </c>
+      <c r="D93" s="32">
+        <v>556</v>
+      </c>
+      <c r="E93" s="32">
+        <v>564</v>
+      </c>
+      <c r="F93" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G93" s="32">
+        <v>668</v>
+      </c>
+      <c r="H93" s="32">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="32">
+        <v>191</v>
+      </c>
+      <c r="D94" s="32">
+        <v>423</v>
+      </c>
+      <c r="E94" s="32">
+        <v>517</v>
+      </c>
+      <c r="F94" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G94" s="32">
+        <v>614</v>
+      </c>
+      <c r="H94" s="32">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="32">
+        <v>407</v>
+      </c>
+      <c r="D95" s="32">
+        <v>476</v>
+      </c>
+      <c r="E95" s="32">
+        <v>842</v>
+      </c>
+      <c r="F95" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G95" s="32">
+        <v>883</v>
+      </c>
+      <c r="H95" s="32">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="32">
+        <v>236</v>
+      </c>
+      <c r="D96" s="32">
+        <v>472</v>
+      </c>
+      <c r="E96" s="32">
+        <v>687</v>
+      </c>
+      <c r="F96" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G96" s="32">
+        <v>708</v>
+      </c>
+      <c r="H96" s="32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="32">
+        <v>255</v>
+      </c>
+      <c r="D97" s="32">
+        <v>475</v>
+      </c>
+      <c r="E97" s="32">
+        <v>667</v>
+      </c>
+      <c r="F97" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G97" s="32">
+        <v>730</v>
+      </c>
+      <c r="H97" s="32">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="32">
+        <v>181</v>
+      </c>
+      <c r="D98" s="32">
+        <v>410</v>
+      </c>
+      <c r="E98" s="32">
+        <v>536</v>
+      </c>
+      <c r="F98" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G98" s="32">
+        <v>591</v>
+      </c>
+      <c r="H98" s="32">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="32">
+        <v>169</v>
+      </c>
+      <c r="D99" s="32">
+        <v>364</v>
+      </c>
+      <c r="E99" s="32">
+        <v>505</v>
+      </c>
+      <c r="F99" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G99" s="32">
+        <v>533</v>
+      </c>
+      <c r="H99" s="32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="32">
+        <v>226</v>
+      </c>
+      <c r="D100" s="32">
+        <v>422</v>
+      </c>
+      <c r="E100" s="32">
+        <v>630</v>
+      </c>
+      <c r="F100" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G100" s="32">
+        <v>648</v>
+      </c>
+      <c r="H100" s="32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="32">
+        <v>330</v>
+      </c>
+      <c r="D101" s="32">
+        <v>473</v>
+      </c>
+      <c r="E101" s="32">
+        <v>803</v>
+      </c>
+      <c r="F101" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G101" s="32">
+        <v>803</v>
+      </c>
+      <c r="H101" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="32">
+        <v>189</v>
+      </c>
+      <c r="D102" s="32">
+        <v>249</v>
+      </c>
+      <c r="E102" s="32">
+        <v>379</v>
+      </c>
+      <c r="F102" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G102" s="32">
+        <v>438</v>
+      </c>
+      <c r="H102" s="32">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="32">
+        <v>245</v>
+      </c>
+      <c r="D103" s="32">
+        <v>235</v>
+      </c>
+      <c r="E103" s="32">
+        <v>480</v>
+      </c>
+      <c r="F103" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G103" s="32">
+        <v>480</v>
+      </c>
+      <c r="H103" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13778,10 +16331,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721B1B99-A37B-47CF-BBD2-DBE8B4A5CEF5}">
-  <dimension ref="A1:H293"/>
+  <dimension ref="A1:H356"/>
   <sheetViews>
-    <sheetView topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21411,6 +23965,1644 @@
         <v>0</v>
       </c>
     </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A294" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B294" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="32">
+        <v>0</v>
+      </c>
+      <c r="D294" s="32">
+        <v>380</v>
+      </c>
+      <c r="E294" s="32">
+        <v>126</v>
+      </c>
+      <c r="F294" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G294" s="32">
+        <v>380</v>
+      </c>
+      <c r="H294" s="32">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A295" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B295" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C295" s="32">
+        <v>0</v>
+      </c>
+      <c r="D295" s="32">
+        <v>375</v>
+      </c>
+      <c r="E295" s="32">
+        <v>62</v>
+      </c>
+      <c r="F295" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G295" s="32">
+        <v>375</v>
+      </c>
+      <c r="H295" s="32">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A296" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B296" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C296" s="32">
+        <v>0</v>
+      </c>
+      <c r="D296" s="32">
+        <v>171</v>
+      </c>
+      <c r="E296" s="32">
+        <v>105</v>
+      </c>
+      <c r="F296" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G296" s="32">
+        <v>171</v>
+      </c>
+      <c r="H296" s="32">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A297" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B297" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C297" s="32">
+        <v>0</v>
+      </c>
+      <c r="D297" s="32">
+        <v>266</v>
+      </c>
+      <c r="E297" s="32">
+        <v>167</v>
+      </c>
+      <c r="F297" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G297" s="32">
+        <v>266</v>
+      </c>
+      <c r="H297" s="32">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A298" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B298" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C298" s="32">
+        <v>0</v>
+      </c>
+      <c r="D298" s="32">
+        <v>186</v>
+      </c>
+      <c r="E298" s="32">
+        <v>90</v>
+      </c>
+      <c r="F298" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G298" s="32">
+        <v>186</v>
+      </c>
+      <c r="H298" s="32">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A299" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B299" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="32">
+        <v>0</v>
+      </c>
+      <c r="D299" s="32">
+        <v>171</v>
+      </c>
+      <c r="E299" s="32">
+        <v>135</v>
+      </c>
+      <c r="F299" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G299" s="32">
+        <v>171</v>
+      </c>
+      <c r="H299" s="32">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A300" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B300" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C300" s="32">
+        <v>0</v>
+      </c>
+      <c r="D300" s="32">
+        <v>108</v>
+      </c>
+      <c r="E300" s="32">
+        <v>108</v>
+      </c>
+      <c r="F300" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G300" s="32">
+        <v>108</v>
+      </c>
+      <c r="H300" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A301" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B301" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C301" s="32">
+        <v>0</v>
+      </c>
+      <c r="D301" s="32">
+        <v>139</v>
+      </c>
+      <c r="E301" s="32">
+        <v>139</v>
+      </c>
+      <c r="F301" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G301" s="32">
+        <v>139</v>
+      </c>
+      <c r="H301" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A302" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B302" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C302" s="32">
+        <v>0</v>
+      </c>
+      <c r="D302" s="32">
+        <v>172</v>
+      </c>
+      <c r="E302" s="32">
+        <v>138</v>
+      </c>
+      <c r="F302" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G302" s="32">
+        <v>172</v>
+      </c>
+      <c r="H302" s="32">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A303" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B303" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C303" s="32">
+        <v>0</v>
+      </c>
+      <c r="D303" s="32">
+        <v>100</v>
+      </c>
+      <c r="E303" s="32">
+        <v>83</v>
+      </c>
+      <c r="F303" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G303" s="32">
+        <v>100</v>
+      </c>
+      <c r="H303" s="32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A304" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B304" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="32">
+        <v>0</v>
+      </c>
+      <c r="D304" s="32">
+        <v>183</v>
+      </c>
+      <c r="E304" s="32">
+        <v>162</v>
+      </c>
+      <c r="F304" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G304" s="32">
+        <v>183</v>
+      </c>
+      <c r="H304" s="32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A305" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B305" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C305" s="32">
+        <v>0</v>
+      </c>
+      <c r="D305" s="32">
+        <v>75</v>
+      </c>
+      <c r="E305" s="32">
+        <v>75</v>
+      </c>
+      <c r="F305" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G305" s="32">
+        <v>75</v>
+      </c>
+      <c r="H305" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A306" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B306" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C306" s="32">
+        <v>0</v>
+      </c>
+      <c r="D306" s="32">
+        <v>237</v>
+      </c>
+      <c r="E306" s="32">
+        <v>162</v>
+      </c>
+      <c r="F306" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G306" s="32">
+        <v>237</v>
+      </c>
+      <c r="H306" s="32">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A307" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B307" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C307" s="32">
+        <v>0</v>
+      </c>
+      <c r="D307" s="32">
+        <v>106</v>
+      </c>
+      <c r="E307" s="32">
+        <v>47</v>
+      </c>
+      <c r="F307" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G307" s="32">
+        <v>106</v>
+      </c>
+      <c r="H307" s="32">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A308" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B308" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C308" s="32">
+        <v>0</v>
+      </c>
+      <c r="D308" s="32">
+        <v>94</v>
+      </c>
+      <c r="E308" s="32">
+        <v>44</v>
+      </c>
+      <c r="F308" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G308" s="32">
+        <v>94</v>
+      </c>
+      <c r="H308" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A309" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B309" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309" s="32">
+        <v>0</v>
+      </c>
+      <c r="D309" s="32">
+        <v>99</v>
+      </c>
+      <c r="E309" s="32">
+        <v>99</v>
+      </c>
+      <c r="F309" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G309" s="32">
+        <v>99</v>
+      </c>
+      <c r="H309" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A310" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B310" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C310" s="32">
+        <v>0</v>
+      </c>
+      <c r="D310" s="32">
+        <v>116</v>
+      </c>
+      <c r="E310" s="32">
+        <v>69</v>
+      </c>
+      <c r="F310" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G310" s="32">
+        <v>116</v>
+      </c>
+      <c r="H310" s="32">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A311" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B311" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C311" s="32">
+        <v>0</v>
+      </c>
+      <c r="D311" s="32">
+        <v>70</v>
+      </c>
+      <c r="E311" s="32">
+        <v>31</v>
+      </c>
+      <c r="F311" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G311" s="32">
+        <v>70</v>
+      </c>
+      <c r="H311" s="32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A312" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B312" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C312" s="32">
+        <v>0</v>
+      </c>
+      <c r="D312" s="32">
+        <v>47</v>
+      </c>
+      <c r="E312" s="32">
+        <v>47</v>
+      </c>
+      <c r="F312" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G312" s="32">
+        <v>47</v>
+      </c>
+      <c r="H312" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A313" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B313" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C313" s="32">
+        <v>0</v>
+      </c>
+      <c r="D313" s="32">
+        <v>71</v>
+      </c>
+      <c r="E313" s="32">
+        <v>71</v>
+      </c>
+      <c r="F313" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G313" s="32">
+        <v>71</v>
+      </c>
+      <c r="H313" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A314" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B314" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C314" s="32">
+        <v>0</v>
+      </c>
+      <c r="D314" s="32">
+        <v>38</v>
+      </c>
+      <c r="E314" s="32">
+        <v>38</v>
+      </c>
+      <c r="F314" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G314" s="32">
+        <v>38</v>
+      </c>
+      <c r="H314" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A315" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B315" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C315" s="32">
+        <v>0</v>
+      </c>
+      <c r="D315" s="32">
+        <v>55</v>
+      </c>
+      <c r="E315" s="32">
+        <v>40</v>
+      </c>
+      <c r="F315" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G315" s="32">
+        <v>55</v>
+      </c>
+      <c r="H315" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A316" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B316" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C316" s="32">
+        <v>0</v>
+      </c>
+      <c r="D316" s="32">
+        <v>130</v>
+      </c>
+      <c r="E316" s="32">
+        <v>110</v>
+      </c>
+      <c r="F316" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G316" s="32">
+        <v>130</v>
+      </c>
+      <c r="H316" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A317" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B317" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C317" s="32">
+        <v>0</v>
+      </c>
+      <c r="D317" s="32">
+        <v>35</v>
+      </c>
+      <c r="E317" s="32">
+        <v>35</v>
+      </c>
+      <c r="F317" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G317" s="32">
+        <v>35</v>
+      </c>
+      <c r="H317" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A318" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B318" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C318" s="32">
+        <v>0</v>
+      </c>
+      <c r="D318" s="32">
+        <v>33</v>
+      </c>
+      <c r="E318" s="32">
+        <v>33</v>
+      </c>
+      <c r="F318" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G318" s="32">
+        <v>33</v>
+      </c>
+      <c r="H318" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A319" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B319" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C319" s="32">
+        <v>0</v>
+      </c>
+      <c r="D319" s="32">
+        <v>32</v>
+      </c>
+      <c r="E319" s="32">
+        <v>28</v>
+      </c>
+      <c r="F319" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G319" s="32">
+        <v>32</v>
+      </c>
+      <c r="H319" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A320" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B320" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" s="32">
+        <v>0</v>
+      </c>
+      <c r="D320" s="32">
+        <v>56</v>
+      </c>
+      <c r="E320" s="32">
+        <v>56</v>
+      </c>
+      <c r="F320" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G320" s="32">
+        <v>56</v>
+      </c>
+      <c r="H320" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A321" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B321" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C321" s="32">
+        <v>0</v>
+      </c>
+      <c r="D321" s="32">
+        <v>112</v>
+      </c>
+      <c r="E321" s="32">
+        <v>109</v>
+      </c>
+      <c r="F321" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G321" s="32">
+        <v>112</v>
+      </c>
+      <c r="H321" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A322" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B322" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C322" s="32">
+        <v>0</v>
+      </c>
+      <c r="D322" s="32">
+        <v>64</v>
+      </c>
+      <c r="E322" s="32">
+        <v>40</v>
+      </c>
+      <c r="F322" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G322" s="32">
+        <v>64</v>
+      </c>
+      <c r="H322" s="32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A323" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B323" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C323" s="32">
+        <v>0</v>
+      </c>
+      <c r="D323" s="32">
+        <v>68</v>
+      </c>
+      <c r="E323" s="32">
+        <v>61</v>
+      </c>
+      <c r="F323" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G323" s="32">
+        <v>68</v>
+      </c>
+      <c r="H323" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A324" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B324" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C324" s="32">
+        <v>0</v>
+      </c>
+      <c r="D324" s="32">
+        <v>66</v>
+      </c>
+      <c r="E324" s="32">
+        <v>66</v>
+      </c>
+      <c r="F324" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G324" s="32">
+        <v>66</v>
+      </c>
+      <c r="H324" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A325" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B325" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C325" s="32">
+        <v>0</v>
+      </c>
+      <c r="D325" s="32">
+        <v>89</v>
+      </c>
+      <c r="E325" s="32">
+        <v>89</v>
+      </c>
+      <c r="F325" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G325" s="32">
+        <v>89</v>
+      </c>
+      <c r="H325" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A326" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B326" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C326" s="32">
+        <v>0</v>
+      </c>
+      <c r="D326" s="32">
+        <v>13</v>
+      </c>
+      <c r="E326" s="32">
+        <v>11</v>
+      </c>
+      <c r="F326" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G326" s="32">
+        <v>13</v>
+      </c>
+      <c r="H326" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A327" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B327" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C327" s="32">
+        <v>0</v>
+      </c>
+      <c r="D327" s="32">
+        <v>42</v>
+      </c>
+      <c r="E327" s="32">
+        <v>42</v>
+      </c>
+      <c r="F327" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G327" s="32">
+        <v>42</v>
+      </c>
+      <c r="H327" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A328" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B328" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C328" s="32">
+        <v>0</v>
+      </c>
+      <c r="D328" s="32">
+        <v>11</v>
+      </c>
+      <c r="E328" s="32">
+        <v>11</v>
+      </c>
+      <c r="F328" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G328" s="32">
+        <v>11</v>
+      </c>
+      <c r="H328" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A329" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B329" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C329" s="32">
+        <v>0</v>
+      </c>
+      <c r="D329" s="32">
+        <v>108</v>
+      </c>
+      <c r="E329" s="32">
+        <v>98</v>
+      </c>
+      <c r="F329" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G329" s="32">
+        <v>108</v>
+      </c>
+      <c r="H329" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A330" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B330" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C330" s="32">
+        <v>0</v>
+      </c>
+      <c r="D330" s="32">
+        <v>80</v>
+      </c>
+      <c r="E330" s="32">
+        <v>77</v>
+      </c>
+      <c r="F330" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G330" s="32">
+        <v>80</v>
+      </c>
+      <c r="H330" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A331" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B331" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C331" s="32">
+        <v>0</v>
+      </c>
+      <c r="D331" s="32">
+        <v>4</v>
+      </c>
+      <c r="E331" s="32">
+        <v>4</v>
+      </c>
+      <c r="F331" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G331" s="32">
+        <v>4</v>
+      </c>
+      <c r="H331" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A332" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B332" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C332" s="32">
+        <v>0</v>
+      </c>
+      <c r="D332" s="32">
+        <v>4</v>
+      </c>
+      <c r="E332" s="32">
+        <v>4</v>
+      </c>
+      <c r="F332" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G332" s="32">
+        <v>4</v>
+      </c>
+      <c r="H332" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A333" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B333" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C333" s="32">
+        <v>0</v>
+      </c>
+      <c r="D333" s="32">
+        <v>102</v>
+      </c>
+      <c r="E333" s="32">
+        <v>102</v>
+      </c>
+      <c r="F333" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G333" s="32">
+        <v>102</v>
+      </c>
+      <c r="H333" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A334" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B334" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C334" s="32">
+        <v>0</v>
+      </c>
+      <c r="D334" s="32">
+        <v>2</v>
+      </c>
+      <c r="E334" s="32">
+        <v>2</v>
+      </c>
+      <c r="F334" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G334" s="32">
+        <v>2</v>
+      </c>
+      <c r="H334" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A335" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B335" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C335" s="32">
+        <v>0</v>
+      </c>
+      <c r="D335" s="32">
+        <v>1</v>
+      </c>
+      <c r="E335" s="32">
+        <v>1</v>
+      </c>
+      <c r="F335" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G335" s="32">
+        <v>1</v>
+      </c>
+      <c r="H335" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A336" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B336" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C336" s="32">
+        <v>0</v>
+      </c>
+      <c r="D336" s="32">
+        <v>1</v>
+      </c>
+      <c r="E336" s="32">
+        <v>1</v>
+      </c>
+      <c r="F336" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G336" s="32">
+        <v>1</v>
+      </c>
+      <c r="H336" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A337" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B337" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C337" s="32">
+        <v>0</v>
+      </c>
+      <c r="D337" s="32">
+        <v>106</v>
+      </c>
+      <c r="E337" s="32">
+        <v>105</v>
+      </c>
+      <c r="F337" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G337" s="32">
+        <v>106</v>
+      </c>
+      <c r="H337" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A338" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B338" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C338" s="32">
+        <v>0</v>
+      </c>
+      <c r="D338" s="32">
+        <v>61</v>
+      </c>
+      <c r="E338" s="32">
+        <v>61</v>
+      </c>
+      <c r="F338" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G338" s="32">
+        <v>61</v>
+      </c>
+      <c r="H338" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A339" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B339" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C339" s="32">
+        <v>0</v>
+      </c>
+      <c r="D339" s="32">
+        <v>45</v>
+      </c>
+      <c r="E339" s="32">
+        <v>45</v>
+      </c>
+      <c r="F339" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G339" s="32">
+        <v>45</v>
+      </c>
+      <c r="H339" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A340" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B340" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C340" s="32">
+        <v>0</v>
+      </c>
+      <c r="D340" s="32">
+        <v>91</v>
+      </c>
+      <c r="E340" s="32">
+        <v>91</v>
+      </c>
+      <c r="F340" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G340" s="32">
+        <v>91</v>
+      </c>
+      <c r="H340" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A341" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B341" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C341" s="32">
+        <v>0</v>
+      </c>
+      <c r="D341" s="32">
+        <v>0</v>
+      </c>
+      <c r="E341" s="32">
+        <v>0</v>
+      </c>
+      <c r="F341" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G341" s="32">
+        <v>0</v>
+      </c>
+      <c r="H341" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A342" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B342" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C342" s="32">
+        <v>0</v>
+      </c>
+      <c r="D342" s="32">
+        <v>0</v>
+      </c>
+      <c r="E342" s="32">
+        <v>0</v>
+      </c>
+      <c r="F342" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G342" s="32">
+        <v>0</v>
+      </c>
+      <c r="H342" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A343" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B343" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C343" s="32">
+        <v>0</v>
+      </c>
+      <c r="D343" s="32">
+        <v>85</v>
+      </c>
+      <c r="E343" s="32">
+        <v>85</v>
+      </c>
+      <c r="F343" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G343" s="32">
+        <v>85</v>
+      </c>
+      <c r="H343" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A344" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B344" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C344" s="32">
+        <v>0</v>
+      </c>
+      <c r="D344" s="32">
+        <v>0</v>
+      </c>
+      <c r="E344" s="32">
+        <v>0</v>
+      </c>
+      <c r="F344" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G344" s="32">
+        <v>0</v>
+      </c>
+      <c r="H344" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A345" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B345" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C345" s="32">
+        <v>0</v>
+      </c>
+      <c r="D345" s="32">
+        <v>0</v>
+      </c>
+      <c r="E345" s="32">
+        <v>0</v>
+      </c>
+      <c r="F345" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G345" s="32">
+        <v>0</v>
+      </c>
+      <c r="H345" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A346" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B346" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C346" s="32">
+        <v>0</v>
+      </c>
+      <c r="D346" s="32">
+        <v>75</v>
+      </c>
+      <c r="E346" s="32">
+        <v>75</v>
+      </c>
+      <c r="F346" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G346" s="32">
+        <v>75</v>
+      </c>
+      <c r="H346" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A347" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B347" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C347" s="32">
+        <v>0</v>
+      </c>
+      <c r="D347" s="32">
+        <v>7</v>
+      </c>
+      <c r="E347" s="32">
+        <v>7</v>
+      </c>
+      <c r="F347" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G347" s="32">
+        <v>7</v>
+      </c>
+      <c r="H347" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A348" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B348" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C348" s="32">
+        <v>0</v>
+      </c>
+      <c r="D348" s="32">
+        <v>77</v>
+      </c>
+      <c r="E348" s="32">
+        <v>77</v>
+      </c>
+      <c r="F348" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G348" s="32">
+        <v>77</v>
+      </c>
+      <c r="H348" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A349" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B349" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C349" s="32">
+        <v>0</v>
+      </c>
+      <c r="D349" s="32">
+        <v>103</v>
+      </c>
+      <c r="E349" s="32">
+        <v>103</v>
+      </c>
+      <c r="F349" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G349" s="32">
+        <v>103</v>
+      </c>
+      <c r="H349" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A350" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B350" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C350" s="32">
+        <v>0</v>
+      </c>
+      <c r="D350" s="32">
+        <v>35</v>
+      </c>
+      <c r="E350" s="32">
+        <v>35</v>
+      </c>
+      <c r="F350" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G350" s="32">
+        <v>35</v>
+      </c>
+      <c r="H350" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A351" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B351" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C351" s="32">
+        <v>0</v>
+      </c>
+      <c r="D351" s="32">
+        <v>45</v>
+      </c>
+      <c r="E351" s="32">
+        <v>45</v>
+      </c>
+      <c r="F351" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G351" s="32">
+        <v>45</v>
+      </c>
+      <c r="H351" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A352" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B352" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C352" s="32">
+        <v>0</v>
+      </c>
+      <c r="D352" s="32">
+        <v>5</v>
+      </c>
+      <c r="E352" s="32">
+        <v>5</v>
+      </c>
+      <c r="F352" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G352" s="32">
+        <v>5</v>
+      </c>
+      <c r="H352" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A353" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B353" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C353" s="32">
+        <v>0</v>
+      </c>
+      <c r="D353" s="32">
+        <v>45</v>
+      </c>
+      <c r="E353" s="32">
+        <v>45</v>
+      </c>
+      <c r="F353" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G353" s="32">
+        <v>45</v>
+      </c>
+      <c r="H353" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A354" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B354" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C354" s="32">
+        <v>0</v>
+      </c>
+      <c r="D354" s="32">
+        <v>0</v>
+      </c>
+      <c r="E354" s="32">
+        <v>0</v>
+      </c>
+      <c r="F354" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G354" s="32">
+        <v>0</v>
+      </c>
+      <c r="H354" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A355" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B355" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C355" s="32">
+        <v>0</v>
+      </c>
+      <c r="D355" s="32">
+        <v>28</v>
+      </c>
+      <c r="E355" s="32">
+        <v>28</v>
+      </c>
+      <c r="F355" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G355" s="32">
+        <v>28</v>
+      </c>
+      <c r="H355" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A356" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B356" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C356" s="32">
+        <v>0</v>
+      </c>
+      <c r="D356" s="32">
+        <v>32</v>
+      </c>
+      <c r="E356" s="32">
+        <v>32</v>
+      </c>
+      <c r="F356" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G356" s="32">
+        <v>32</v>
+      </c>
+      <c r="H356" s="32">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProgressKDM.xlsx
+++ b/ProgressKDM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\semester 5\MAGANG BPS\KDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AE4683-A2BF-44E6-8BC2-139CDA4BA1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2818387F-068C-49AA-82BB-77ED97E71F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="114">
   <si>
     <t>Nama</t>
   </si>
@@ -371,21 +371,31 @@
     <t>15/09/2025</t>
   </si>
   <si>
-    <t>Suwarno -</t>
+    <t>22/09/2025</t>
   </si>
   <si>
-    <t>22/09/2025</t>
+    <t>Meiriska Krisnanda</t>
+  </si>
+  <si>
+    <t>29/09/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,48 +517,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,10 +573,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -569,22 +585,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -593,14 +603,29 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,11 +842,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90E5432-501C-4E71-A6C4-97092BA05C82}">
-  <dimension ref="A1:H458"/>
+  <dimension ref="A1:H538"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="101" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F384" sqref="F384"/>
+      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C477" sqref="C477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10681,7 +10706,7 @@
         <v>695</v>
       </c>
       <c r="F379" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G379" s="34">
         <v>871</v>
@@ -10707,7 +10732,7 @@
         <v>806</v>
       </c>
       <c r="F380" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G380" s="34">
         <v>974</v>
@@ -10733,7 +10758,7 @@
         <v>1067</v>
       </c>
       <c r="F381" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G381" s="34">
         <v>1124</v>
@@ -10759,7 +10784,7 @@
         <v>545</v>
       </c>
       <c r="F382" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G382" s="34">
         <v>545</v>
@@ -10785,7 +10810,7 @@
         <v>1399</v>
       </c>
       <c r="F383" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G383" s="34">
         <v>1438</v>
@@ -10811,7 +10836,7 @@
         <v>598</v>
       </c>
       <c r="F384" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G384" s="34">
         <v>712</v>
@@ -10837,7 +10862,7 @@
         <v>564</v>
       </c>
       <c r="F385" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G385" s="34">
         <v>668</v>
@@ -10863,7 +10888,7 @@
         <v>517</v>
       </c>
       <c r="F386" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G386" s="34">
         <v>614</v>
@@ -10889,7 +10914,7 @@
         <v>842</v>
       </c>
       <c r="F387" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G387" s="34">
         <v>883</v>
@@ -10899,8 +10924,8 @@
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A388" s="33" t="s">
-        <v>111</v>
+      <c r="A388" s="45" t="s">
+        <v>97</v>
       </c>
       <c r="B388" s="33" t="s">
         <v>8</v>
@@ -10915,7 +10940,7 @@
         <v>687</v>
       </c>
       <c r="F388" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G388" s="34">
         <v>708</v>
@@ -10941,7 +10966,7 @@
         <v>667</v>
       </c>
       <c r="F389" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G389" s="34">
         <v>730</v>
@@ -10967,7 +10992,7 @@
         <v>536</v>
       </c>
       <c r="F390" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G390" s="34">
         <v>591</v>
@@ -10993,7 +11018,7 @@
         <v>505</v>
       </c>
       <c r="F391" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G391" s="34">
         <v>533</v>
@@ -11019,7 +11044,7 @@
         <v>630</v>
       </c>
       <c r="F392" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G392" s="34">
         <v>648</v>
@@ -11045,7 +11070,7 @@
         <v>126</v>
       </c>
       <c r="F393" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G393" s="32">
         <v>380</v>
@@ -11071,7 +11096,7 @@
         <v>62</v>
       </c>
       <c r="F394" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G394" s="32">
         <v>375</v>
@@ -11097,7 +11122,7 @@
         <v>803</v>
       </c>
       <c r="F395" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G395" s="34">
         <v>803</v>
@@ -11123,7 +11148,7 @@
         <v>379</v>
       </c>
       <c r="F396" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G396" s="34">
         <v>438</v>
@@ -11149,7 +11174,7 @@
         <v>480</v>
       </c>
       <c r="F397" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G397" s="34">
         <v>480</v>
@@ -11175,7 +11200,7 @@
         <v>105</v>
       </c>
       <c r="F398" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G398" s="32">
         <v>171</v>
@@ -11201,7 +11226,7 @@
         <v>167</v>
       </c>
       <c r="F399" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G399" s="32">
         <v>266</v>
@@ -11227,7 +11252,7 @@
         <v>90</v>
       </c>
       <c r="F400" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G400" s="32">
         <v>186</v>
@@ -11253,7 +11278,7 @@
         <v>135</v>
       </c>
       <c r="F401" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G401" s="32">
         <v>171</v>
@@ -11279,7 +11304,7 @@
         <v>108</v>
       </c>
       <c r="F402" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G402" s="32">
         <v>108</v>
@@ -11305,7 +11330,7 @@
         <v>139</v>
       </c>
       <c r="F403" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G403" s="32">
         <v>139</v>
@@ -11331,7 +11356,7 @@
         <v>138</v>
       </c>
       <c r="F404" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G404" s="32">
         <v>172</v>
@@ -11357,7 +11382,7 @@
         <v>83</v>
       </c>
       <c r="F405" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G405" s="32">
         <v>100</v>
@@ -11383,7 +11408,7 @@
         <v>162</v>
       </c>
       <c r="F406" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G406" s="32">
         <v>183</v>
@@ -11409,7 +11434,7 @@
         <v>75</v>
       </c>
       <c r="F407" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G407" s="32">
         <v>75</v>
@@ -11435,7 +11460,7 @@
         <v>162</v>
       </c>
       <c r="F408" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G408" s="32">
         <v>237</v>
@@ -11461,7 +11486,7 @@
         <v>47</v>
       </c>
       <c r="F409" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G409" s="32">
         <v>106</v>
@@ -11487,7 +11512,7 @@
         <v>44</v>
       </c>
       <c r="F410" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G410" s="32">
         <v>94</v>
@@ -11513,7 +11538,7 @@
         <v>99</v>
       </c>
       <c r="F411" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G411" s="32">
         <v>99</v>
@@ -11539,7 +11564,7 @@
         <v>69</v>
       </c>
       <c r="F412" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G412" s="32">
         <v>116</v>
@@ -11565,7 +11590,7 @@
         <v>31</v>
       </c>
       <c r="F413" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G413" s="32">
         <v>70</v>
@@ -11591,7 +11616,7 @@
         <v>47</v>
       </c>
       <c r="F414" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G414" s="32">
         <v>47</v>
@@ -11617,7 +11642,7 @@
         <v>71</v>
       </c>
       <c r="F415" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G415" s="32">
         <v>71</v>
@@ -11643,7 +11668,7 @@
         <v>38</v>
       </c>
       <c r="F416" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G416" s="32">
         <v>38</v>
@@ -11669,7 +11694,7 @@
         <v>40</v>
       </c>
       <c r="F417" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G417" s="32">
         <v>55</v>
@@ -11695,7 +11720,7 @@
         <v>110</v>
       </c>
       <c r="F418" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G418" s="32">
         <v>130</v>
@@ -11721,7 +11746,7 @@
         <v>35</v>
       </c>
       <c r="F419" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G419" s="32">
         <v>35</v>
@@ -11747,7 +11772,7 @@
         <v>33</v>
       </c>
       <c r="F420" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G420" s="32">
         <v>33</v>
@@ -11773,7 +11798,7 @@
         <v>28</v>
       </c>
       <c r="F421" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G421" s="32">
         <v>32</v>
@@ -11799,7 +11824,7 @@
         <v>56</v>
       </c>
       <c r="F422" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G422" s="32">
         <v>56</v>
@@ -11825,7 +11850,7 @@
         <v>109</v>
       </c>
       <c r="F423" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G423" s="32">
         <v>112</v>
@@ -11851,7 +11876,7 @@
         <v>40</v>
       </c>
       <c r="F424" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G424" s="32">
         <v>64</v>
@@ -11877,7 +11902,7 @@
         <v>61</v>
       </c>
       <c r="F425" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G425" s="32">
         <v>68</v>
@@ -11903,7 +11928,7 @@
         <v>66</v>
       </c>
       <c r="F426" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G426" s="32">
         <v>66</v>
@@ -11929,7 +11954,7 @@
         <v>89</v>
       </c>
       <c r="F427" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G427" s="32">
         <v>89</v>
@@ -11955,7 +11980,7 @@
         <v>11</v>
       </c>
       <c r="F428" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G428" s="32">
         <v>13</v>
@@ -11981,7 +12006,7 @@
         <v>42</v>
       </c>
       <c r="F429" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G429" s="32">
         <v>42</v>
@@ -12007,7 +12032,7 @@
         <v>11</v>
       </c>
       <c r="F430" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G430" s="32">
         <v>11</v>
@@ -12033,7 +12058,7 @@
         <v>98</v>
       </c>
       <c r="F431" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G431" s="32">
         <v>108</v>
@@ -12059,7 +12084,7 @@
         <v>77</v>
       </c>
       <c r="F432" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G432" s="32">
         <v>80</v>
@@ -12085,7 +12110,7 @@
         <v>4</v>
       </c>
       <c r="F433" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G433" s="32">
         <v>4</v>
@@ -12111,7 +12136,7 @@
         <v>4</v>
       </c>
       <c r="F434" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G434" s="32">
         <v>4</v>
@@ -12137,7 +12162,7 @@
         <v>102</v>
       </c>
       <c r="F435" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G435" s="32">
         <v>102</v>
@@ -12163,7 +12188,7 @@
         <v>2</v>
       </c>
       <c r="F436" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G436" s="32">
         <v>2</v>
@@ -12189,7 +12214,7 @@
         <v>1</v>
       </c>
       <c r="F437" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G437" s="32">
         <v>1</v>
@@ -12215,7 +12240,7 @@
         <v>1</v>
       </c>
       <c r="F438" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G438" s="32">
         <v>1</v>
@@ -12241,7 +12266,7 @@
         <v>105</v>
       </c>
       <c r="F439" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G439" s="32">
         <v>106</v>
@@ -12267,7 +12292,7 @@
         <v>61</v>
       </c>
       <c r="F440" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G440" s="32">
         <v>61</v>
@@ -12293,7 +12318,7 @@
         <v>45</v>
       </c>
       <c r="F441" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G441" s="32">
         <v>45</v>
@@ -12319,7 +12344,7 @@
         <v>91</v>
       </c>
       <c r="F442" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G442" s="32">
         <v>91</v>
@@ -12345,7 +12370,7 @@
         <v>0</v>
       </c>
       <c r="F443" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G443" s="32">
         <v>0</v>
@@ -12371,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="F444" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G444" s="32">
         <v>0</v>
@@ -12397,7 +12422,7 @@
         <v>85</v>
       </c>
       <c r="F445" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G445" s="32">
         <v>85</v>
@@ -12423,7 +12448,7 @@
         <v>0</v>
       </c>
       <c r="F446" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G446" s="32">
         <v>0</v>
@@ -12449,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="F447" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G447" s="32">
         <v>0</v>
@@ -12475,7 +12500,7 @@
         <v>75</v>
       </c>
       <c r="F448" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G448" s="32">
         <v>75</v>
@@ -12501,7 +12526,7 @@
         <v>7</v>
       </c>
       <c r="F449" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G449" s="32">
         <v>7</v>
@@ -12527,7 +12552,7 @@
         <v>77</v>
       </c>
       <c r="F450" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G450" s="32">
         <v>77</v>
@@ -12553,7 +12578,7 @@
         <v>103</v>
       </c>
       <c r="F451" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G451" s="32">
         <v>103</v>
@@ -12579,7 +12604,7 @@
         <v>35</v>
       </c>
       <c r="F452" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G452" s="32">
         <v>35</v>
@@ -12605,7 +12630,7 @@
         <v>45</v>
       </c>
       <c r="F453" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G453" s="32">
         <v>45</v>
@@ -12631,7 +12656,7 @@
         <v>5</v>
       </c>
       <c r="F454" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G454" s="32">
         <v>5</v>
@@ -12657,7 +12682,7 @@
         <v>45</v>
       </c>
       <c r="F455" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G455" s="32">
         <v>45</v>
@@ -12683,7 +12708,7 @@
         <v>0</v>
       </c>
       <c r="F456" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G456" s="32">
         <v>0</v>
@@ -12709,7 +12734,7 @@
         <v>28</v>
       </c>
       <c r="F457" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G457" s="32">
         <v>28</v>
@@ -12735,13 +12760,2093 @@
         <v>32</v>
       </c>
       <c r="F458" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G458" s="32">
         <v>32</v>
       </c>
       <c r="H458" s="32">
         <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A459" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B459" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C459" s="46">
+        <v>408</v>
+      </c>
+      <c r="D459" s="46">
+        <v>893</v>
+      </c>
+      <c r="E459" s="46">
+        <v>1124</v>
+      </c>
+      <c r="F459" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G459" s="46">
+        <v>1301</v>
+      </c>
+      <c r="H459" s="46">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A460" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B460" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C460" s="46">
+        <v>220</v>
+      </c>
+      <c r="D460" s="46">
+        <v>757</v>
+      </c>
+      <c r="E460" s="46">
+        <v>974</v>
+      </c>
+      <c r="F460" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G460" s="46">
+        <v>977</v>
+      </c>
+      <c r="H460" s="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A461" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B461" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C461" s="46">
+        <v>169</v>
+      </c>
+      <c r="D461" s="46">
+        <v>702</v>
+      </c>
+      <c r="E461" s="46">
+        <v>871</v>
+      </c>
+      <c r="F461" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G461" s="46">
+        <v>871</v>
+      </c>
+      <c r="H461" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A462" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B462" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C462" s="46">
+        <v>238</v>
+      </c>
+      <c r="D462" s="46">
+        <v>523</v>
+      </c>
+      <c r="E462" s="46">
+        <v>712</v>
+      </c>
+      <c r="F462" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G462" s="46">
+        <v>761</v>
+      </c>
+      <c r="H462" s="46">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A463" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B463" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C463" s="46">
+        <v>112</v>
+      </c>
+      <c r="D463" s="46">
+        <v>600</v>
+      </c>
+      <c r="E463" s="46">
+        <v>668</v>
+      </c>
+      <c r="F463" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G463" s="46">
+        <v>712</v>
+      </c>
+      <c r="H463" s="46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A464" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B464" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C464" s="46">
+        <v>645</v>
+      </c>
+      <c r="D464" s="46">
+        <v>816</v>
+      </c>
+      <c r="E464" s="46">
+        <v>1438</v>
+      </c>
+      <c r="F464" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G464" s="46">
+        <v>1461</v>
+      </c>
+      <c r="H464" s="46">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A465" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B465" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C465" s="46">
+        <v>90</v>
+      </c>
+      <c r="D465" s="46">
+        <v>455</v>
+      </c>
+      <c r="E465" s="46">
+        <v>545</v>
+      </c>
+      <c r="F465" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G465" s="46">
+        <v>545</v>
+      </c>
+      <c r="H465" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A466" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B466" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C466" s="46">
+        <v>191</v>
+      </c>
+      <c r="D466" s="46">
+        <v>455</v>
+      </c>
+      <c r="E466" s="46">
+        <v>614</v>
+      </c>
+      <c r="F466" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G466" s="46">
+        <v>646</v>
+      </c>
+      <c r="H466" s="46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A467" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B467" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C467" s="46">
+        <v>255</v>
+      </c>
+      <c r="D467" s="46">
+        <v>530</v>
+      </c>
+      <c r="E467" s="46">
+        <v>730</v>
+      </c>
+      <c r="F467" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G467" s="46">
+        <v>785</v>
+      </c>
+      <c r="H467" s="46">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A468" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B468" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C468" s="46">
+        <v>236</v>
+      </c>
+      <c r="D468" s="46">
+        <v>511</v>
+      </c>
+      <c r="E468" s="46">
+        <v>708</v>
+      </c>
+      <c r="F468" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G468" s="46">
+        <v>747</v>
+      </c>
+      <c r="H468" s="46">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A469" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B469" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C469" s="46">
+        <v>407</v>
+      </c>
+      <c r="D469" s="46">
+        <v>475</v>
+      </c>
+      <c r="E469" s="46">
+        <v>883</v>
+      </c>
+      <c r="F469" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G469" s="46">
+        <v>882</v>
+      </c>
+      <c r="H469" s="46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A470" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B470" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C470" s="46">
+        <v>226</v>
+      </c>
+      <c r="D470" s="46">
+        <v>479</v>
+      </c>
+      <c r="E470" s="46">
+        <v>648</v>
+      </c>
+      <c r="F470" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G470" s="46">
+        <v>705</v>
+      </c>
+      <c r="H470" s="46">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A471" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B471" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C471" s="46">
+        <v>330</v>
+      </c>
+      <c r="D471" s="46">
+        <v>543</v>
+      </c>
+      <c r="E471" s="46">
+        <v>803</v>
+      </c>
+      <c r="F471" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G471" s="46">
+        <v>873</v>
+      </c>
+      <c r="H471" s="46">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A472" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B472" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C472" s="46">
+        <v>181</v>
+      </c>
+      <c r="D472" s="46">
+        <v>451</v>
+      </c>
+      <c r="E472" s="46">
+        <v>591</v>
+      </c>
+      <c r="F472" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G472" s="46">
+        <v>632</v>
+      </c>
+      <c r="H472" s="46">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A473" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B473" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C473" s="46">
+        <v>169</v>
+      </c>
+      <c r="D473" s="46">
+        <v>403</v>
+      </c>
+      <c r="E473" s="46">
+        <v>533</v>
+      </c>
+      <c r="F473" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G473" s="46">
+        <v>572</v>
+      </c>
+      <c r="H473" s="46">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A474" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B474" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C474" s="43">
+        <v>0</v>
+      </c>
+      <c r="D474" s="43">
+        <v>389</v>
+      </c>
+      <c r="E474" s="43">
+        <v>380</v>
+      </c>
+      <c r="F474" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G474" s="43">
+        <v>389</v>
+      </c>
+      <c r="H474" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A475" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B475" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C475" s="43">
+        <v>0</v>
+      </c>
+      <c r="D475" s="43">
+        <v>380</v>
+      </c>
+      <c r="E475" s="43">
+        <v>375</v>
+      </c>
+      <c r="F475" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G475" s="43">
+        <v>380</v>
+      </c>
+      <c r="H475" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A476" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B476" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C476" s="46">
+        <v>189</v>
+      </c>
+      <c r="D476" s="46">
+        <v>307</v>
+      </c>
+      <c r="E476" s="46">
+        <v>438</v>
+      </c>
+      <c r="F476" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G476" s="46">
+        <v>496</v>
+      </c>
+      <c r="H476" s="46">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A477" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B477" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C477" s="46">
+        <v>245</v>
+      </c>
+      <c r="D477" s="46">
+        <v>236</v>
+      </c>
+      <c r="E477" s="46">
+        <v>480</v>
+      </c>
+      <c r="F477" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G477" s="46">
+        <v>481</v>
+      </c>
+      <c r="H477" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A478" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B478" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C478" s="43">
+        <v>0</v>
+      </c>
+      <c r="D478" s="43">
+        <v>299</v>
+      </c>
+      <c r="E478" s="43">
+        <v>266</v>
+      </c>
+      <c r="F478" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G478" s="43">
+        <v>299</v>
+      </c>
+      <c r="H478" s="43">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A479" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B479" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C479" s="43">
+        <v>0</v>
+      </c>
+      <c r="D479" s="43">
+        <v>230</v>
+      </c>
+      <c r="E479" s="43">
+        <v>171</v>
+      </c>
+      <c r="F479" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G479" s="43">
+        <v>230</v>
+      </c>
+      <c r="H479" s="43">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A480" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B480" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C480" s="43">
+        <v>0</v>
+      </c>
+      <c r="D480" s="43">
+        <v>171</v>
+      </c>
+      <c r="E480" s="43">
+        <v>171</v>
+      </c>
+      <c r="F480" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G480" s="43">
+        <v>171</v>
+      </c>
+      <c r="H480" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A481" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B481" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C481" s="43">
+        <v>0</v>
+      </c>
+      <c r="D481" s="43">
+        <v>206</v>
+      </c>
+      <c r="E481" s="43">
+        <v>186</v>
+      </c>
+      <c r="F481" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G481" s="43">
+        <v>206</v>
+      </c>
+      <c r="H481" s="43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A482" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B482" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C482" s="43">
+        <v>0</v>
+      </c>
+      <c r="D482" s="43">
+        <v>108</v>
+      </c>
+      <c r="E482" s="43">
+        <v>108</v>
+      </c>
+      <c r="F482" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G482" s="43">
+        <v>108</v>
+      </c>
+      <c r="H482" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A483" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B483" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C483" s="43">
+        <v>0</v>
+      </c>
+      <c r="D483" s="43">
+        <v>202</v>
+      </c>
+      <c r="E483" s="43">
+        <v>183</v>
+      </c>
+      <c r="F483" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G483" s="43">
+        <v>202</v>
+      </c>
+      <c r="H483" s="43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A484" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B484" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C484" s="43">
+        <v>0</v>
+      </c>
+      <c r="D484" s="43">
+        <v>139</v>
+      </c>
+      <c r="E484" s="43">
+        <v>139</v>
+      </c>
+      <c r="F484" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G484" s="43">
+        <v>139</v>
+      </c>
+      <c r="H484" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A485" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B485" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C485" s="43">
+        <v>0</v>
+      </c>
+      <c r="D485" s="43">
+        <v>172</v>
+      </c>
+      <c r="E485" s="43">
+        <v>172</v>
+      </c>
+      <c r="F485" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G485" s="43">
+        <v>172</v>
+      </c>
+      <c r="H485" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A486" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B486" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C486" s="43">
+        <v>0</v>
+      </c>
+      <c r="D486" s="43">
+        <v>100</v>
+      </c>
+      <c r="E486" s="43">
+        <v>100</v>
+      </c>
+      <c r="F486" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G486" s="43">
+        <v>100</v>
+      </c>
+      <c r="H486" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A487" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B487" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C487" s="43">
+        <v>0</v>
+      </c>
+      <c r="D487" s="43">
+        <v>238</v>
+      </c>
+      <c r="E487" s="43">
+        <v>237</v>
+      </c>
+      <c r="F487" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G487" s="43">
+        <v>238</v>
+      </c>
+      <c r="H487" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A488" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B488" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C488" s="43">
+        <v>0</v>
+      </c>
+      <c r="D488" s="43">
+        <v>75</v>
+      </c>
+      <c r="E488" s="43">
+        <v>75</v>
+      </c>
+      <c r="F488" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G488" s="43">
+        <v>75</v>
+      </c>
+      <c r="H488" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A489" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B489" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C489" s="43">
+        <v>0</v>
+      </c>
+      <c r="D489" s="43">
+        <v>115</v>
+      </c>
+      <c r="E489" s="43">
+        <v>106</v>
+      </c>
+      <c r="F489" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G489" s="43">
+        <v>115</v>
+      </c>
+      <c r="H489" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A490" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B490" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C490" s="43">
+        <v>0</v>
+      </c>
+      <c r="D490" s="43">
+        <v>99</v>
+      </c>
+      <c r="E490" s="43">
+        <v>99</v>
+      </c>
+      <c r="F490" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G490" s="43">
+        <v>99</v>
+      </c>
+      <c r="H490" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A491" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B491" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C491" s="43">
+        <v>0</v>
+      </c>
+      <c r="D491" s="43">
+        <v>94</v>
+      </c>
+      <c r="E491" s="43">
+        <v>94</v>
+      </c>
+      <c r="F491" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G491" s="43">
+        <v>94</v>
+      </c>
+      <c r="H491" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A492" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B492" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C492" s="43">
+        <v>0</v>
+      </c>
+      <c r="D492" s="43">
+        <v>116</v>
+      </c>
+      <c r="E492" s="43">
+        <v>116</v>
+      </c>
+      <c r="F492" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G492" s="43">
+        <v>116</v>
+      </c>
+      <c r="H492" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A493" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B493" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C493" s="43">
+        <v>0</v>
+      </c>
+      <c r="D493" s="43">
+        <v>72</v>
+      </c>
+      <c r="E493" s="43">
+        <v>70</v>
+      </c>
+      <c r="F493" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G493" s="43">
+        <v>72</v>
+      </c>
+      <c r="H493" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A494" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B494" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C494" s="43">
+        <v>0</v>
+      </c>
+      <c r="D494" s="43">
+        <v>47</v>
+      </c>
+      <c r="E494" s="43">
+        <v>47</v>
+      </c>
+      <c r="F494" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G494" s="43">
+        <v>47</v>
+      </c>
+      <c r="H494" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A495" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B495" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C495" s="43">
+        <v>0</v>
+      </c>
+      <c r="D495" s="43">
+        <v>71</v>
+      </c>
+      <c r="E495" s="43">
+        <v>71</v>
+      </c>
+      <c r="F495" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G495" s="43">
+        <v>71</v>
+      </c>
+      <c r="H495" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A496" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B496" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C496" s="43">
+        <v>0</v>
+      </c>
+      <c r="D496" s="43">
+        <v>38</v>
+      </c>
+      <c r="E496" s="43">
+        <v>38</v>
+      </c>
+      <c r="F496" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G496" s="43">
+        <v>38</v>
+      </c>
+      <c r="H496" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A497" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B497" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C497" s="43">
+        <v>0</v>
+      </c>
+      <c r="D497" s="43">
+        <v>55</v>
+      </c>
+      <c r="E497" s="43">
+        <v>55</v>
+      </c>
+      <c r="F497" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G497" s="43">
+        <v>55</v>
+      </c>
+      <c r="H497" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A498" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B498" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C498" s="43">
+        <v>0</v>
+      </c>
+      <c r="D498" s="43">
+        <v>35</v>
+      </c>
+      <c r="E498" s="43">
+        <v>35</v>
+      </c>
+      <c r="F498" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G498" s="43">
+        <v>35</v>
+      </c>
+      <c r="H498" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A499" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B499" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C499" s="43">
+        <v>0</v>
+      </c>
+      <c r="D499" s="43">
+        <v>130</v>
+      </c>
+      <c r="E499" s="43">
+        <v>130</v>
+      </c>
+      <c r="F499" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G499" s="43">
+        <v>130</v>
+      </c>
+      <c r="H499" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A500" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B500" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C500" s="43">
+        <v>0</v>
+      </c>
+      <c r="D500" s="43">
+        <v>33</v>
+      </c>
+      <c r="E500" s="43">
+        <v>33</v>
+      </c>
+      <c r="F500" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G500" s="43">
+        <v>33</v>
+      </c>
+      <c r="H500" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A501" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B501" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C501" s="43">
+        <v>0</v>
+      </c>
+      <c r="D501" s="43">
+        <v>32</v>
+      </c>
+      <c r="E501" s="43">
+        <v>32</v>
+      </c>
+      <c r="F501" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G501" s="43">
+        <v>32</v>
+      </c>
+      <c r="H501" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A502" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B502" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C502" s="43">
+        <v>0</v>
+      </c>
+      <c r="D502" s="43">
+        <v>56</v>
+      </c>
+      <c r="E502" s="43">
+        <v>56</v>
+      </c>
+      <c r="F502" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G502" s="43">
+        <v>56</v>
+      </c>
+      <c r="H502" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A503" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B503" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C503" s="43">
+        <v>0</v>
+      </c>
+      <c r="D503" s="43">
+        <v>64</v>
+      </c>
+      <c r="E503" s="43">
+        <v>64</v>
+      </c>
+      <c r="F503" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G503" s="43">
+        <v>64</v>
+      </c>
+      <c r="H503" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A504" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B504" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C504" s="43">
+        <v>0</v>
+      </c>
+      <c r="D504" s="43">
+        <v>107</v>
+      </c>
+      <c r="E504" s="43">
+        <v>112</v>
+      </c>
+      <c r="F504" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G504" s="43">
+        <v>107</v>
+      </c>
+      <c r="H504" s="43">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A505" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B505" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C505" s="43">
+        <v>0</v>
+      </c>
+      <c r="D505" s="43">
+        <v>66</v>
+      </c>
+      <c r="E505" s="43">
+        <v>66</v>
+      </c>
+      <c r="F505" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G505" s="43">
+        <v>66</v>
+      </c>
+      <c r="H505" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A506" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B506" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C506" s="43">
+        <v>0</v>
+      </c>
+      <c r="D506" s="43">
+        <v>66</v>
+      </c>
+      <c r="E506" s="43">
+        <v>68</v>
+      </c>
+      <c r="F506" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G506" s="43">
+        <v>66</v>
+      </c>
+      <c r="H506" s="43">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A507" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B507" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C507" s="43">
+        <v>0</v>
+      </c>
+      <c r="D507" s="43">
+        <v>89</v>
+      </c>
+      <c r="E507" s="43">
+        <v>89</v>
+      </c>
+      <c r="F507" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G507" s="43">
+        <v>89</v>
+      </c>
+      <c r="H507" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A508" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B508" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C508" s="43">
+        <v>0</v>
+      </c>
+      <c r="D508" s="43">
+        <v>13</v>
+      </c>
+      <c r="E508" s="43">
+        <v>13</v>
+      </c>
+      <c r="F508" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G508" s="43">
+        <v>13</v>
+      </c>
+      <c r="H508" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A509" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B509" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C509" s="43">
+        <v>0</v>
+      </c>
+      <c r="D509" s="43">
+        <v>42</v>
+      </c>
+      <c r="E509" s="43">
+        <v>42</v>
+      </c>
+      <c r="F509" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G509" s="43">
+        <v>42</v>
+      </c>
+      <c r="H509" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A510" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B510" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C510" s="43">
+        <v>0</v>
+      </c>
+      <c r="D510" s="43">
+        <v>108</v>
+      </c>
+      <c r="E510" s="43">
+        <v>108</v>
+      </c>
+      <c r="F510" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G510" s="43">
+        <v>108</v>
+      </c>
+      <c r="H510" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A511" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B511" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C511" s="43">
+        <v>0</v>
+      </c>
+      <c r="D511" s="43">
+        <v>11</v>
+      </c>
+      <c r="E511" s="43">
+        <v>11</v>
+      </c>
+      <c r="F511" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G511" s="43">
+        <v>11</v>
+      </c>
+      <c r="H511" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A512" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B512" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C512" s="43">
+        <v>0</v>
+      </c>
+      <c r="D512" s="43">
+        <v>81</v>
+      </c>
+      <c r="E512" s="43">
+        <v>80</v>
+      </c>
+      <c r="F512" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G512" s="43">
+        <v>81</v>
+      </c>
+      <c r="H512" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A513" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B513" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C513" s="43">
+        <v>0</v>
+      </c>
+      <c r="D513" s="43">
+        <v>4</v>
+      </c>
+      <c r="E513" s="43">
+        <v>4</v>
+      </c>
+      <c r="F513" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G513" s="43">
+        <v>4</v>
+      </c>
+      <c r="H513" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A514" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B514" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C514" s="43">
+        <v>0</v>
+      </c>
+      <c r="D514" s="43">
+        <v>4</v>
+      </c>
+      <c r="E514" s="43">
+        <v>4</v>
+      </c>
+      <c r="F514" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G514" s="43">
+        <v>4</v>
+      </c>
+      <c r="H514" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A515" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B515" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C515" s="43">
+        <v>0</v>
+      </c>
+      <c r="D515" s="43">
+        <v>2</v>
+      </c>
+      <c r="E515" s="43">
+        <v>2</v>
+      </c>
+      <c r="F515" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G515" s="43">
+        <v>2</v>
+      </c>
+      <c r="H515" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A516" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B516" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C516" s="43">
+        <v>0</v>
+      </c>
+      <c r="D516" s="43">
+        <v>102</v>
+      </c>
+      <c r="E516" s="43">
+        <v>102</v>
+      </c>
+      <c r="F516" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G516" s="43">
+        <v>102</v>
+      </c>
+      <c r="H516" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A517" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B517" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C517" s="43">
+        <v>0</v>
+      </c>
+      <c r="D517" s="43">
+        <v>1</v>
+      </c>
+      <c r="E517" s="43">
+        <v>0</v>
+      </c>
+      <c r="F517" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G517" s="43">
+        <v>1</v>
+      </c>
+      <c r="H517" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A518" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B518" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C518" s="43">
+        <v>0</v>
+      </c>
+      <c r="D518" s="43">
+        <v>1</v>
+      </c>
+      <c r="E518" s="43">
+        <v>1</v>
+      </c>
+      <c r="F518" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G518" s="43">
+        <v>1</v>
+      </c>
+      <c r="H518" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A519" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B519" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C519" s="43">
+        <v>0</v>
+      </c>
+      <c r="D519" s="43">
+        <v>1</v>
+      </c>
+      <c r="E519" s="43">
+        <v>1</v>
+      </c>
+      <c r="F519" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G519" s="43">
+        <v>1</v>
+      </c>
+      <c r="H519" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A520" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B520" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C520" s="43">
+        <v>0</v>
+      </c>
+      <c r="D520" s="43">
+        <v>106</v>
+      </c>
+      <c r="E520" s="43">
+        <v>106</v>
+      </c>
+      <c r="F520" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G520" s="43">
+        <v>106</v>
+      </c>
+      <c r="H520" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A521" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B521" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C521" s="43">
+        <v>0</v>
+      </c>
+      <c r="D521" s="43">
+        <v>77</v>
+      </c>
+      <c r="E521" s="43">
+        <v>77</v>
+      </c>
+      <c r="F521" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G521" s="43">
+        <v>77</v>
+      </c>
+      <c r="H521" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A522" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B522" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C522" s="43">
+        <v>0</v>
+      </c>
+      <c r="D522" s="43">
+        <v>45</v>
+      </c>
+      <c r="E522" s="43">
+        <v>45</v>
+      </c>
+      <c r="F522" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G522" s="43">
+        <v>45</v>
+      </c>
+      <c r="H522" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A523" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B523" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C523" s="43">
+        <v>0</v>
+      </c>
+      <c r="D523" s="43">
+        <v>32</v>
+      </c>
+      <c r="E523" s="43">
+        <v>32</v>
+      </c>
+      <c r="F523" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G523" s="43">
+        <v>32</v>
+      </c>
+      <c r="H523" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A524" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B524" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C524" s="43">
+        <v>0</v>
+      </c>
+      <c r="D524" s="43">
+        <v>0</v>
+      </c>
+      <c r="E524" s="43">
+        <v>0</v>
+      </c>
+      <c r="F524" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G524" s="43">
+        <v>0</v>
+      </c>
+      <c r="H524" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A525" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B525" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C525" s="43">
+        <v>0</v>
+      </c>
+      <c r="D525" s="43">
+        <v>0</v>
+      </c>
+      <c r="E525" s="43">
+        <v>0</v>
+      </c>
+      <c r="F525" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G525" s="43">
+        <v>0</v>
+      </c>
+      <c r="H525" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A526" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B526" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C526" s="43">
+        <v>0</v>
+      </c>
+      <c r="D526" s="43">
+        <v>7</v>
+      </c>
+      <c r="E526" s="43">
+        <v>7</v>
+      </c>
+      <c r="F526" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G526" s="43">
+        <v>7</v>
+      </c>
+      <c r="H526" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A527" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B527" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C527" s="43">
+        <v>0</v>
+      </c>
+      <c r="D527" s="43">
+        <v>91</v>
+      </c>
+      <c r="E527" s="43">
+        <v>91</v>
+      </c>
+      <c r="F527" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G527" s="43">
+        <v>91</v>
+      </c>
+      <c r="H527" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A528" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B528" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C528" s="43">
+        <v>0</v>
+      </c>
+      <c r="D528" s="43">
+        <v>5</v>
+      </c>
+      <c r="E528" s="43">
+        <v>5</v>
+      </c>
+      <c r="F528" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G528" s="43">
+        <v>5</v>
+      </c>
+      <c r="H528" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A529" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B529" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C529" s="43">
+        <v>0</v>
+      </c>
+      <c r="D529" s="43">
+        <v>35</v>
+      </c>
+      <c r="E529" s="43">
+        <v>35</v>
+      </c>
+      <c r="F529" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G529" s="43">
+        <v>35</v>
+      </c>
+      <c r="H529" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A530" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B530" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C530" s="43">
+        <v>0</v>
+      </c>
+      <c r="D530" s="43">
+        <v>75</v>
+      </c>
+      <c r="E530" s="43">
+        <v>75</v>
+      </c>
+      <c r="F530" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G530" s="43">
+        <v>75</v>
+      </c>
+      <c r="H530" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A531" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B531" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C531" s="43">
+        <v>0</v>
+      </c>
+      <c r="D531" s="43">
+        <v>45</v>
+      </c>
+      <c r="E531" s="43">
+        <v>45</v>
+      </c>
+      <c r="F531" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G531" s="43">
+        <v>45</v>
+      </c>
+      <c r="H531" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A532" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B532" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C532" s="43">
+        <v>0</v>
+      </c>
+      <c r="D532" s="43">
+        <v>45</v>
+      </c>
+      <c r="E532" s="43">
+        <v>45</v>
+      </c>
+      <c r="F532" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G532" s="43">
+        <v>45</v>
+      </c>
+      <c r="H532" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A533" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B533" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C533" s="43">
+        <v>0</v>
+      </c>
+      <c r="D533" s="43">
+        <v>28</v>
+      </c>
+      <c r="E533" s="43">
+        <v>28</v>
+      </c>
+      <c r="F533" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G533" s="43">
+        <v>28</v>
+      </c>
+      <c r="H533" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A534" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B534" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C534" s="43">
+        <v>0</v>
+      </c>
+      <c r="D534" s="43">
+        <v>85</v>
+      </c>
+      <c r="E534" s="43">
+        <v>85</v>
+      </c>
+      <c r="F534" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G534" s="43">
+        <v>85</v>
+      </c>
+      <c r="H534" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A535" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B535" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C535" s="43">
+        <v>0</v>
+      </c>
+      <c r="D535" s="43">
+        <v>0</v>
+      </c>
+      <c r="E535" s="43">
+        <v>0</v>
+      </c>
+      <c r="F535" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G535" s="43">
+        <v>0</v>
+      </c>
+      <c r="H535" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A536" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B536" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C536" s="43">
+        <v>0</v>
+      </c>
+      <c r="D536" s="43">
+        <v>0</v>
+      </c>
+      <c r="E536" s="43">
+        <v>0</v>
+      </c>
+      <c r="F536" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G536" s="43">
+        <v>0</v>
+      </c>
+      <c r="H536" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A537" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B537" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C537" s="43">
+        <v>0</v>
+      </c>
+      <c r="D537" s="43">
+        <v>102</v>
+      </c>
+      <c r="E537" s="43">
+        <v>103</v>
+      </c>
+      <c r="F537" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G537" s="43">
+        <v>102</v>
+      </c>
+      <c r="H537" s="43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A538" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B538" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C538" s="43">
+        <v>0</v>
+      </c>
+      <c r="D538" s="43">
+        <v>60</v>
+      </c>
+      <c r="E538" s="43">
+        <v>61</v>
+      </c>
+      <c r="F538" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G538" s="44">
+        <v>60</v>
+      </c>
+      <c r="H538" s="43">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -12755,8 +14860,8 @@
   <dimension ref="A1:H976"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="A1:H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15025,7 +17130,7 @@
         <v>695</v>
       </c>
       <c r="F87" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G87" s="32">
         <v>871</v>
@@ -15051,7 +17156,7 @@
         <v>806</v>
       </c>
       <c r="F88" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G88" s="32">
         <v>974</v>
@@ -15077,7 +17182,7 @@
         <v>1067</v>
       </c>
       <c r="F89" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G89" s="32">
         <v>1124</v>
@@ -15103,7 +17208,7 @@
         <v>545</v>
       </c>
       <c r="F90" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G90" s="32">
         <v>545</v>
@@ -15129,7 +17234,7 @@
         <v>1399</v>
       </c>
       <c r="F91" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G91" s="32">
         <v>1438</v>
@@ -15155,7 +17260,7 @@
         <v>598</v>
       </c>
       <c r="F92" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G92" s="32">
         <v>712</v>
@@ -15181,7 +17286,7 @@
         <v>564</v>
       </c>
       <c r="F93" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G93" s="32">
         <v>668</v>
@@ -15207,7 +17312,7 @@
         <v>517</v>
       </c>
       <c r="F94" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G94" s="32">
         <v>614</v>
@@ -15233,7 +17338,7 @@
         <v>842</v>
       </c>
       <c r="F95" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G95" s="32">
         <v>883</v>
@@ -15259,7 +17364,7 @@
         <v>687</v>
       </c>
       <c r="F96" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G96" s="32">
         <v>708</v>
@@ -15285,7 +17390,7 @@
         <v>667</v>
       </c>
       <c r="F97" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G97" s="32">
         <v>730</v>
@@ -15311,7 +17416,7 @@
         <v>536</v>
       </c>
       <c r="F98" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G98" s="32">
         <v>591</v>
@@ -15337,7 +17442,7 @@
         <v>505</v>
       </c>
       <c r="F99" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G99" s="32">
         <v>533</v>
@@ -15363,7 +17468,7 @@
         <v>630</v>
       </c>
       <c r="F100" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G100" s="32">
         <v>648</v>
@@ -15389,7 +17494,7 @@
         <v>803</v>
       </c>
       <c r="F101" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G101" s="32">
         <v>803</v>
@@ -15415,7 +17520,7 @@
         <v>379</v>
       </c>
       <c r="F102" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G102" s="32">
         <v>438</v>
@@ -15441,7 +17546,7 @@
         <v>480</v>
       </c>
       <c r="F103" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G103" s="32">
         <v>480</v>
@@ -15450,31 +17555,456 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B104" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="43">
+        <v>408</v>
+      </c>
+      <c r="D104" s="43">
+        <v>893</v>
+      </c>
+      <c r="E104" s="43">
+        <v>1124</v>
+      </c>
+      <c r="F104" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G104" s="43">
+        <v>1301</v>
+      </c>
+      <c r="H104" s="43">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B105" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="43">
+        <v>220</v>
+      </c>
+      <c r="D105" s="43">
+        <v>757</v>
+      </c>
+      <c r="E105" s="43">
+        <v>974</v>
+      </c>
+      <c r="F105" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G105" s="43">
+        <v>977</v>
+      </c>
+      <c r="H105" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B106" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="43">
+        <v>169</v>
+      </c>
+      <c r="D106" s="43">
+        <v>702</v>
+      </c>
+      <c r="E106" s="43">
+        <v>871</v>
+      </c>
+      <c r="F106" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G106" s="43">
+        <v>871</v>
+      </c>
+      <c r="H106" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="43">
+        <v>238</v>
+      </c>
+      <c r="D107" s="43">
+        <v>523</v>
+      </c>
+      <c r="E107" s="43">
+        <v>712</v>
+      </c>
+      <c r="F107" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G107" s="43">
+        <v>761</v>
+      </c>
+      <c r="H107" s="43">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="43">
+        <v>112</v>
+      </c>
+      <c r="D108" s="43">
+        <v>600</v>
+      </c>
+      <c r="E108" s="43">
+        <v>668</v>
+      </c>
+      <c r="F108" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G108" s="43">
+        <v>712</v>
+      </c>
+      <c r="H108" s="43">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B109" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="43">
+        <v>645</v>
+      </c>
+      <c r="D109" s="43">
+        <v>816</v>
+      </c>
+      <c r="E109" s="43">
+        <v>1438</v>
+      </c>
+      <c r="F109" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G109" s="43">
+        <v>1461</v>
+      </c>
+      <c r="H109" s="43">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B110" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="43">
+        <v>90</v>
+      </c>
+      <c r="D110" s="43">
+        <v>455</v>
+      </c>
+      <c r="E110" s="43">
+        <v>545</v>
+      </c>
+      <c r="F110" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G110" s="43">
+        <v>545</v>
+      </c>
+      <c r="H110" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B111" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="43">
+        <v>191</v>
+      </c>
+      <c r="D111" s="43">
+        <v>455</v>
+      </c>
+      <c r="E111" s="43">
+        <v>614</v>
+      </c>
+      <c r="F111" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G111" s="43">
+        <v>646</v>
+      </c>
+      <c r="H111" s="43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B112" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="43">
+        <v>255</v>
+      </c>
+      <c r="D112" s="43">
+        <v>530</v>
+      </c>
+      <c r="E112" s="43">
+        <v>730</v>
+      </c>
+      <c r="F112" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G112" s="43">
+        <v>785</v>
+      </c>
+      <c r="H112" s="43">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B113" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="43">
+        <v>236</v>
+      </c>
+      <c r="D113" s="43">
+        <v>511</v>
+      </c>
+      <c r="E113" s="43">
+        <v>708</v>
+      </c>
+      <c r="F113" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G113" s="43">
+        <v>747</v>
+      </c>
+      <c r="H113" s="43">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B114" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="43">
+        <v>407</v>
+      </c>
+      <c r="D114" s="43">
+        <v>475</v>
+      </c>
+      <c r="E114" s="43">
+        <v>883</v>
+      </c>
+      <c r="F114" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G114" s="43">
+        <v>882</v>
+      </c>
+      <c r="H114" s="43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B115" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="43">
+        <v>226</v>
+      </c>
+      <c r="D115" s="43">
+        <v>479</v>
+      </c>
+      <c r="E115" s="43">
+        <v>648</v>
+      </c>
+      <c r="F115" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G115" s="43">
+        <v>705</v>
+      </c>
+      <c r="H115" s="43">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B116" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="43">
+        <v>330</v>
+      </c>
+      <c r="D116" s="43">
+        <v>543</v>
+      </c>
+      <c r="E116" s="43">
+        <v>803</v>
+      </c>
+      <c r="F116" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G116" s="43">
+        <v>873</v>
+      </c>
+      <c r="H116" s="43">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="43">
+        <v>181</v>
+      </c>
+      <c r="D117" s="43">
+        <v>451</v>
+      </c>
+      <c r="E117" s="43">
+        <v>591</v>
+      </c>
+      <c r="F117" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G117" s="43">
+        <v>632</v>
+      </c>
+      <c r="H117" s="43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B118" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="43">
+        <v>169</v>
+      </c>
+      <c r="D118" s="43">
+        <v>403</v>
+      </c>
+      <c r="E118" s="43">
+        <v>533</v>
+      </c>
+      <c r="F118" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G118" s="43">
+        <v>572</v>
+      </c>
+      <c r="H118" s="43">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B119" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="43">
+        <v>189</v>
+      </c>
+      <c r="D119" s="43">
+        <v>307</v>
+      </c>
+      <c r="E119" s="43">
+        <v>438</v>
+      </c>
+      <c r="F119" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G119" s="43">
+        <v>496</v>
+      </c>
+      <c r="H119" s="43">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B120" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="43">
+        <v>245</v>
+      </c>
+      <c r="D120" s="43">
+        <v>236</v>
+      </c>
+      <c r="E120" s="43">
+        <v>480</v>
+      </c>
+      <c r="F120" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G120" s="43">
+        <v>481</v>
+      </c>
+      <c r="H120" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16331,11 +18861,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721B1B99-A37B-47CF-BBD2-DBE8B4A5CEF5}">
-  <dimension ref="A1:H356"/>
+  <dimension ref="A1:H419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F211" sqref="F211"/>
+      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C417" sqref="C417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23982,7 +26512,7 @@
         <v>126</v>
       </c>
       <c r="F294" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G294" s="32">
         <v>380</v>
@@ -24008,7 +26538,7 @@
         <v>62</v>
       </c>
       <c r="F295" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G295" s="32">
         <v>375</v>
@@ -24034,7 +26564,7 @@
         <v>105</v>
       </c>
       <c r="F296" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G296" s="32">
         <v>171</v>
@@ -24060,7 +26590,7 @@
         <v>167</v>
       </c>
       <c r="F297" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G297" s="32">
         <v>266</v>
@@ -24086,7 +26616,7 @@
         <v>90</v>
       </c>
       <c r="F298" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G298" s="32">
         <v>186</v>
@@ -24112,7 +26642,7 @@
         <v>135</v>
       </c>
       <c r="F299" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G299" s="32">
         <v>171</v>
@@ -24138,7 +26668,7 @@
         <v>108</v>
       </c>
       <c r="F300" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G300" s="32">
         <v>108</v>
@@ -24164,7 +26694,7 @@
         <v>139</v>
       </c>
       <c r="F301" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G301" s="32">
         <v>139</v>
@@ -24190,7 +26720,7 @@
         <v>138</v>
       </c>
       <c r="F302" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G302" s="32">
         <v>172</v>
@@ -24216,7 +26746,7 @@
         <v>83</v>
       </c>
       <c r="F303" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G303" s="32">
         <v>100</v>
@@ -24242,7 +26772,7 @@
         <v>162</v>
       </c>
       <c r="F304" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G304" s="32">
         <v>183</v>
@@ -24268,7 +26798,7 @@
         <v>75</v>
       </c>
       <c r="F305" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G305" s="32">
         <v>75</v>
@@ -24294,7 +26824,7 @@
         <v>162</v>
       </c>
       <c r="F306" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G306" s="32">
         <v>237</v>
@@ -24320,7 +26850,7 @@
         <v>47</v>
       </c>
       <c r="F307" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G307" s="32">
         <v>106</v>
@@ -24346,7 +26876,7 @@
         <v>44</v>
       </c>
       <c r="F308" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G308" s="32">
         <v>94</v>
@@ -24372,7 +26902,7 @@
         <v>99</v>
       </c>
       <c r="F309" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G309" s="32">
         <v>99</v>
@@ -24398,7 +26928,7 @@
         <v>69</v>
       </c>
       <c r="F310" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G310" s="32">
         <v>116</v>
@@ -24424,7 +26954,7 @@
         <v>31</v>
       </c>
       <c r="F311" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G311" s="32">
         <v>70</v>
@@ -24450,7 +26980,7 @@
         <v>47</v>
       </c>
       <c r="F312" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G312" s="32">
         <v>47</v>
@@ -24476,7 +27006,7 @@
         <v>71</v>
       </c>
       <c r="F313" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G313" s="32">
         <v>71</v>
@@ -24502,7 +27032,7 @@
         <v>38</v>
       </c>
       <c r="F314" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G314" s="32">
         <v>38</v>
@@ -24528,7 +27058,7 @@
         <v>40</v>
       </c>
       <c r="F315" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G315" s="32">
         <v>55</v>
@@ -24554,7 +27084,7 @@
         <v>110</v>
       </c>
       <c r="F316" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G316" s="32">
         <v>130</v>
@@ -24580,7 +27110,7 @@
         <v>35</v>
       </c>
       <c r="F317" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G317" s="32">
         <v>35</v>
@@ -24606,7 +27136,7 @@
         <v>33</v>
       </c>
       <c r="F318" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G318" s="32">
         <v>33</v>
@@ -24632,7 +27162,7 @@
         <v>28</v>
       </c>
       <c r="F319" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G319" s="32">
         <v>32</v>
@@ -24658,7 +27188,7 @@
         <v>56</v>
       </c>
       <c r="F320" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G320" s="32">
         <v>56</v>
@@ -24684,7 +27214,7 @@
         <v>109</v>
       </c>
       <c r="F321" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G321" s="32">
         <v>112</v>
@@ -24710,7 +27240,7 @@
         <v>40</v>
       </c>
       <c r="F322" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G322" s="32">
         <v>64</v>
@@ -24736,7 +27266,7 @@
         <v>61</v>
       </c>
       <c r="F323" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G323" s="32">
         <v>68</v>
@@ -24762,7 +27292,7 @@
         <v>66</v>
       </c>
       <c r="F324" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G324" s="32">
         <v>66</v>
@@ -24788,7 +27318,7 @@
         <v>89</v>
       </c>
       <c r="F325" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G325" s="32">
         <v>89</v>
@@ -24814,7 +27344,7 @@
         <v>11</v>
       </c>
       <c r="F326" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G326" s="32">
         <v>13</v>
@@ -24840,7 +27370,7 @@
         <v>42</v>
       </c>
       <c r="F327" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G327" s="32">
         <v>42</v>
@@ -24866,7 +27396,7 @@
         <v>11</v>
       </c>
       <c r="F328" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G328" s="32">
         <v>11</v>
@@ -24892,7 +27422,7 @@
         <v>98</v>
       </c>
       <c r="F329" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G329" s="32">
         <v>108</v>
@@ -24918,7 +27448,7 @@
         <v>77</v>
       </c>
       <c r="F330" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G330" s="32">
         <v>80</v>
@@ -24944,7 +27474,7 @@
         <v>4</v>
       </c>
       <c r="F331" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G331" s="32">
         <v>4</v>
@@ -24970,7 +27500,7 @@
         <v>4</v>
       </c>
       <c r="F332" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G332" s="32">
         <v>4</v>
@@ -24996,7 +27526,7 @@
         <v>102</v>
       </c>
       <c r="F333" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G333" s="32">
         <v>102</v>
@@ -25022,7 +27552,7 @@
         <v>2</v>
       </c>
       <c r="F334" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G334" s="32">
         <v>2</v>
@@ -25048,7 +27578,7 @@
         <v>1</v>
       </c>
       <c r="F335" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G335" s="32">
         <v>1</v>
@@ -25074,7 +27604,7 @@
         <v>1</v>
       </c>
       <c r="F336" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G336" s="32">
         <v>1</v>
@@ -25100,7 +27630,7 @@
         <v>105</v>
       </c>
       <c r="F337" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G337" s="32">
         <v>106</v>
@@ -25126,7 +27656,7 @@
         <v>61</v>
       </c>
       <c r="F338" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G338" s="32">
         <v>61</v>
@@ -25152,7 +27682,7 @@
         <v>45</v>
       </c>
       <c r="F339" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G339" s="32">
         <v>45</v>
@@ -25178,7 +27708,7 @@
         <v>91</v>
       </c>
       <c r="F340" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G340" s="32">
         <v>91</v>
@@ -25204,7 +27734,7 @@
         <v>0</v>
       </c>
       <c r="F341" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G341" s="32">
         <v>0</v>
@@ -25230,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="F342" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G342" s="32">
         <v>0</v>
@@ -25256,7 +27786,7 @@
         <v>85</v>
       </c>
       <c r="F343" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G343" s="32">
         <v>85</v>
@@ -25282,7 +27812,7 @@
         <v>0</v>
       </c>
       <c r="F344" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G344" s="32">
         <v>0</v>
@@ -25308,7 +27838,7 @@
         <v>0</v>
       </c>
       <c r="F345" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G345" s="32">
         <v>0</v>
@@ -25334,7 +27864,7 @@
         <v>75</v>
       </c>
       <c r="F346" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G346" s="32">
         <v>75</v>
@@ -25360,7 +27890,7 @@
         <v>7</v>
       </c>
       <c r="F347" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G347" s="32">
         <v>7</v>
@@ -25386,7 +27916,7 @@
         <v>77</v>
       </c>
       <c r="F348" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G348" s="32">
         <v>77</v>
@@ -25412,7 +27942,7 @@
         <v>103</v>
       </c>
       <c r="F349" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G349" s="32">
         <v>103</v>
@@ -25438,7 +27968,7 @@
         <v>35</v>
       </c>
       <c r="F350" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G350" s="32">
         <v>35</v>
@@ -25464,7 +27994,7 @@
         <v>45</v>
       </c>
       <c r="F351" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G351" s="32">
         <v>45</v>
@@ -25490,7 +28020,7 @@
         <v>5</v>
       </c>
       <c r="F352" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G352" s="32">
         <v>5</v>
@@ -25516,7 +28046,7 @@
         <v>45</v>
       </c>
       <c r="F353" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G353" s="32">
         <v>45</v>
@@ -25542,7 +28072,7 @@
         <v>0</v>
       </c>
       <c r="F354" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G354" s="32">
         <v>0</v>
@@ -25568,7 +28098,7 @@
         <v>28</v>
       </c>
       <c r="F355" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G355" s="32">
         <v>28</v>
@@ -25594,13 +28124,1651 @@
         <v>32</v>
       </c>
       <c r="F356" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G356" s="32">
         <v>32</v>
       </c>
       <c r="H356" s="32">
         <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A357" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B357" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C357" s="43">
+        <v>0</v>
+      </c>
+      <c r="D357" s="43">
+        <v>389</v>
+      </c>
+      <c r="E357" s="43">
+        <v>380</v>
+      </c>
+      <c r="F357" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G357" s="43">
+        <v>389</v>
+      </c>
+      <c r="H357" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A358" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B358" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C358" s="43">
+        <v>0</v>
+      </c>
+      <c r="D358" s="43">
+        <v>380</v>
+      </c>
+      <c r="E358" s="43">
+        <v>375</v>
+      </c>
+      <c r="F358" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G358" s="43">
+        <v>380</v>
+      </c>
+      <c r="H358" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A359" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B359" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C359" s="43">
+        <v>0</v>
+      </c>
+      <c r="D359" s="43">
+        <v>299</v>
+      </c>
+      <c r="E359" s="43">
+        <v>266</v>
+      </c>
+      <c r="F359" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G359" s="43">
+        <v>299</v>
+      </c>
+      <c r="H359" s="43">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A360" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B360" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C360" s="43">
+        <v>0</v>
+      </c>
+      <c r="D360" s="43">
+        <v>230</v>
+      </c>
+      <c r="E360" s="43">
+        <v>171</v>
+      </c>
+      <c r="F360" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G360" s="43">
+        <v>230</v>
+      </c>
+      <c r="H360" s="43">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A361" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B361" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C361" s="43">
+        <v>0</v>
+      </c>
+      <c r="D361" s="43">
+        <v>171</v>
+      </c>
+      <c r="E361" s="43">
+        <v>171</v>
+      </c>
+      <c r="F361" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G361" s="43">
+        <v>171</v>
+      </c>
+      <c r="H361" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A362" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B362" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C362" s="43">
+        <v>0</v>
+      </c>
+      <c r="D362" s="43">
+        <v>206</v>
+      </c>
+      <c r="E362" s="43">
+        <v>186</v>
+      </c>
+      <c r="F362" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G362" s="43">
+        <v>206</v>
+      </c>
+      <c r="H362" s="43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A363" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B363" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C363" s="43">
+        <v>0</v>
+      </c>
+      <c r="D363" s="43">
+        <v>108</v>
+      </c>
+      <c r="E363" s="43">
+        <v>108</v>
+      </c>
+      <c r="F363" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G363" s="43">
+        <v>108</v>
+      </c>
+      <c r="H363" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A364" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B364" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C364" s="43">
+        <v>0</v>
+      </c>
+      <c r="D364" s="43">
+        <v>202</v>
+      </c>
+      <c r="E364" s="43">
+        <v>183</v>
+      </c>
+      <c r="F364" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G364" s="43">
+        <v>202</v>
+      </c>
+      <c r="H364" s="43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A365" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B365" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C365" s="43">
+        <v>0</v>
+      </c>
+      <c r="D365" s="43">
+        <v>139</v>
+      </c>
+      <c r="E365" s="43">
+        <v>139</v>
+      </c>
+      <c r="F365" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G365" s="43">
+        <v>139</v>
+      </c>
+      <c r="H365" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A366" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B366" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C366" s="43">
+        <v>0</v>
+      </c>
+      <c r="D366" s="43">
+        <v>172</v>
+      </c>
+      <c r="E366" s="43">
+        <v>172</v>
+      </c>
+      <c r="F366" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G366" s="43">
+        <v>172</v>
+      </c>
+      <c r="H366" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A367" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B367" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C367" s="43">
+        <v>0</v>
+      </c>
+      <c r="D367" s="43">
+        <v>100</v>
+      </c>
+      <c r="E367" s="43">
+        <v>100</v>
+      </c>
+      <c r="F367" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G367" s="43">
+        <v>100</v>
+      </c>
+      <c r="H367" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A368" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B368" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C368" s="43">
+        <v>0</v>
+      </c>
+      <c r="D368" s="43">
+        <v>238</v>
+      </c>
+      <c r="E368" s="43">
+        <v>237</v>
+      </c>
+      <c r="F368" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G368" s="43">
+        <v>238</v>
+      </c>
+      <c r="H368" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A369" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B369" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C369" s="43">
+        <v>0</v>
+      </c>
+      <c r="D369" s="43">
+        <v>75</v>
+      </c>
+      <c r="E369" s="43">
+        <v>75</v>
+      </c>
+      <c r="F369" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G369" s="43">
+        <v>75</v>
+      </c>
+      <c r="H369" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A370" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B370" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C370" s="43">
+        <v>0</v>
+      </c>
+      <c r="D370" s="43">
+        <v>115</v>
+      </c>
+      <c r="E370" s="43">
+        <v>106</v>
+      </c>
+      <c r="F370" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G370" s="43">
+        <v>115</v>
+      </c>
+      <c r="H370" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A371" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B371" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C371" s="43">
+        <v>0</v>
+      </c>
+      <c r="D371" s="43">
+        <v>99</v>
+      </c>
+      <c r="E371" s="43">
+        <v>99</v>
+      </c>
+      <c r="F371" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G371" s="43">
+        <v>99</v>
+      </c>
+      <c r="H371" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A372" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B372" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C372" s="43">
+        <v>0</v>
+      </c>
+      <c r="D372" s="43">
+        <v>94</v>
+      </c>
+      <c r="E372" s="43">
+        <v>94</v>
+      </c>
+      <c r="F372" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G372" s="43">
+        <v>94</v>
+      </c>
+      <c r="H372" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A373" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B373" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C373" s="43">
+        <v>0</v>
+      </c>
+      <c r="D373" s="43">
+        <v>116</v>
+      </c>
+      <c r="E373" s="43">
+        <v>116</v>
+      </c>
+      <c r="F373" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G373" s="43">
+        <v>116</v>
+      </c>
+      <c r="H373" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A374" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B374" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C374" s="43">
+        <v>0</v>
+      </c>
+      <c r="D374" s="43">
+        <v>72</v>
+      </c>
+      <c r="E374" s="43">
+        <v>70</v>
+      </c>
+      <c r="F374" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G374" s="43">
+        <v>72</v>
+      </c>
+      <c r="H374" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A375" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B375" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C375" s="43">
+        <v>0</v>
+      </c>
+      <c r="D375" s="43">
+        <v>47</v>
+      </c>
+      <c r="E375" s="43">
+        <v>47</v>
+      </c>
+      <c r="F375" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G375" s="43">
+        <v>47</v>
+      </c>
+      <c r="H375" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A376" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B376" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C376" s="43">
+        <v>0</v>
+      </c>
+      <c r="D376" s="43">
+        <v>71</v>
+      </c>
+      <c r="E376" s="43">
+        <v>71</v>
+      </c>
+      <c r="F376" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G376" s="43">
+        <v>71</v>
+      </c>
+      <c r="H376" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A377" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B377" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C377" s="43">
+        <v>0</v>
+      </c>
+      <c r="D377" s="43">
+        <v>38</v>
+      </c>
+      <c r="E377" s="43">
+        <v>38</v>
+      </c>
+      <c r="F377" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G377" s="43">
+        <v>38</v>
+      </c>
+      <c r="H377" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A378" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B378" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C378" s="43">
+        <v>0</v>
+      </c>
+      <c r="D378" s="43">
+        <v>55</v>
+      </c>
+      <c r="E378" s="43">
+        <v>55</v>
+      </c>
+      <c r="F378" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G378" s="43">
+        <v>55</v>
+      </c>
+      <c r="H378" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A379" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B379" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C379" s="43">
+        <v>0</v>
+      </c>
+      <c r="D379" s="43">
+        <v>35</v>
+      </c>
+      <c r="E379" s="43">
+        <v>35</v>
+      </c>
+      <c r="F379" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G379" s="43">
+        <v>35</v>
+      </c>
+      <c r="H379" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A380" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B380" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C380" s="43">
+        <v>0</v>
+      </c>
+      <c r="D380" s="43">
+        <v>130</v>
+      </c>
+      <c r="E380" s="43">
+        <v>130</v>
+      </c>
+      <c r="F380" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G380" s="43">
+        <v>130</v>
+      </c>
+      <c r="H380" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A381" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B381" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C381" s="43">
+        <v>0</v>
+      </c>
+      <c r="D381" s="43">
+        <v>33</v>
+      </c>
+      <c r="E381" s="43">
+        <v>33</v>
+      </c>
+      <c r="F381" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G381" s="43">
+        <v>33</v>
+      </c>
+      <c r="H381" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A382" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B382" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C382" s="43">
+        <v>0</v>
+      </c>
+      <c r="D382" s="43">
+        <v>32</v>
+      </c>
+      <c r="E382" s="43">
+        <v>32</v>
+      </c>
+      <c r="F382" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G382" s="43">
+        <v>32</v>
+      </c>
+      <c r="H382" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A383" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B383" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C383" s="43">
+        <v>0</v>
+      </c>
+      <c r="D383" s="43">
+        <v>56</v>
+      </c>
+      <c r="E383" s="43">
+        <v>56</v>
+      </c>
+      <c r="F383" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G383" s="43">
+        <v>56</v>
+      </c>
+      <c r="H383" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A384" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B384" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C384" s="43">
+        <v>0</v>
+      </c>
+      <c r="D384" s="43">
+        <v>64</v>
+      </c>
+      <c r="E384" s="43">
+        <v>64</v>
+      </c>
+      <c r="F384" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G384" s="43">
+        <v>64</v>
+      </c>
+      <c r="H384" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A385" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B385" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C385" s="43">
+        <v>0</v>
+      </c>
+      <c r="D385" s="43">
+        <v>107</v>
+      </c>
+      <c r="E385" s="43">
+        <v>112</v>
+      </c>
+      <c r="F385" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G385" s="43">
+        <v>107</v>
+      </c>
+      <c r="H385" s="43">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A386" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B386" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C386" s="43">
+        <v>0</v>
+      </c>
+      <c r="D386" s="43">
+        <v>66</v>
+      </c>
+      <c r="E386" s="43">
+        <v>66</v>
+      </c>
+      <c r="F386" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G386" s="43">
+        <v>66</v>
+      </c>
+      <c r="H386" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A387" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B387" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C387" s="43">
+        <v>0</v>
+      </c>
+      <c r="D387" s="43">
+        <v>66</v>
+      </c>
+      <c r="E387" s="43">
+        <v>68</v>
+      </c>
+      <c r="F387" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G387" s="43">
+        <v>66</v>
+      </c>
+      <c r="H387" s="43">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A388" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B388" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C388" s="43">
+        <v>0</v>
+      </c>
+      <c r="D388" s="43">
+        <v>89</v>
+      </c>
+      <c r="E388" s="43">
+        <v>89</v>
+      </c>
+      <c r="F388" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G388" s="43">
+        <v>89</v>
+      </c>
+      <c r="H388" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A389" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B389" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C389" s="43">
+        <v>0</v>
+      </c>
+      <c r="D389" s="43">
+        <v>13</v>
+      </c>
+      <c r="E389" s="43">
+        <v>13</v>
+      </c>
+      <c r="F389" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G389" s="43">
+        <v>13</v>
+      </c>
+      <c r="H389" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A390" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B390" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C390" s="43">
+        <v>0</v>
+      </c>
+      <c r="D390" s="43">
+        <v>42</v>
+      </c>
+      <c r="E390" s="43">
+        <v>42</v>
+      </c>
+      <c r="F390" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G390" s="43">
+        <v>42</v>
+      </c>
+      <c r="H390" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A391" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B391" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C391" s="43">
+        <v>0</v>
+      </c>
+      <c r="D391" s="43">
+        <v>108</v>
+      </c>
+      <c r="E391" s="43">
+        <v>108</v>
+      </c>
+      <c r="F391" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G391" s="43">
+        <v>108</v>
+      </c>
+      <c r="H391" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A392" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B392" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C392" s="43">
+        <v>0</v>
+      </c>
+      <c r="D392" s="43">
+        <v>11</v>
+      </c>
+      <c r="E392" s="43">
+        <v>11</v>
+      </c>
+      <c r="F392" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G392" s="43">
+        <v>11</v>
+      </c>
+      <c r="H392" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A393" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B393" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C393" s="43">
+        <v>0</v>
+      </c>
+      <c r="D393" s="43">
+        <v>81</v>
+      </c>
+      <c r="E393" s="43">
+        <v>80</v>
+      </c>
+      <c r="F393" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G393" s="43">
+        <v>81</v>
+      </c>
+      <c r="H393" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A394" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B394" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C394" s="43">
+        <v>0</v>
+      </c>
+      <c r="D394" s="43">
+        <v>4</v>
+      </c>
+      <c r="E394" s="43">
+        <v>4</v>
+      </c>
+      <c r="F394" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G394" s="43">
+        <v>4</v>
+      </c>
+      <c r="H394" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A395" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B395" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C395" s="43">
+        <v>0</v>
+      </c>
+      <c r="D395" s="43">
+        <v>4</v>
+      </c>
+      <c r="E395" s="43">
+        <v>4</v>
+      </c>
+      <c r="F395" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G395" s="43">
+        <v>4</v>
+      </c>
+      <c r="H395" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A396" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B396" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C396" s="43">
+        <v>0</v>
+      </c>
+      <c r="D396" s="43">
+        <v>2</v>
+      </c>
+      <c r="E396" s="43">
+        <v>2</v>
+      </c>
+      <c r="F396" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G396" s="43">
+        <v>2</v>
+      </c>
+      <c r="H396" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A397" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B397" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C397" s="43">
+        <v>0</v>
+      </c>
+      <c r="D397" s="43">
+        <v>102</v>
+      </c>
+      <c r="E397" s="43">
+        <v>102</v>
+      </c>
+      <c r="F397" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G397" s="43">
+        <v>102</v>
+      </c>
+      <c r="H397" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A398" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B398" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C398" s="43">
+        <v>0</v>
+      </c>
+      <c r="D398" s="43">
+        <v>1</v>
+      </c>
+      <c r="E398" s="43">
+        <v>0</v>
+      </c>
+      <c r="F398" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G398" s="43">
+        <v>1</v>
+      </c>
+      <c r="H398" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A399" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B399" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C399" s="43">
+        <v>0</v>
+      </c>
+      <c r="D399" s="43">
+        <v>1</v>
+      </c>
+      <c r="E399" s="43">
+        <v>1</v>
+      </c>
+      <c r="F399" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G399" s="43">
+        <v>1</v>
+      </c>
+      <c r="H399" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A400" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B400" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C400" s="43">
+        <v>0</v>
+      </c>
+      <c r="D400" s="43">
+        <v>1</v>
+      </c>
+      <c r="E400" s="43">
+        <v>1</v>
+      </c>
+      <c r="F400" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G400" s="43">
+        <v>1</v>
+      </c>
+      <c r="H400" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A401" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B401" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C401" s="43">
+        <v>0</v>
+      </c>
+      <c r="D401" s="43">
+        <v>106</v>
+      </c>
+      <c r="E401" s="43">
+        <v>106</v>
+      </c>
+      <c r="F401" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G401" s="43">
+        <v>106</v>
+      </c>
+      <c r="H401" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A402" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B402" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C402" s="43">
+        <v>0</v>
+      </c>
+      <c r="D402" s="43">
+        <v>77</v>
+      </c>
+      <c r="E402" s="43">
+        <v>77</v>
+      </c>
+      <c r="F402" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G402" s="43">
+        <v>77</v>
+      </c>
+      <c r="H402" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A403" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B403" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C403" s="43">
+        <v>0</v>
+      </c>
+      <c r="D403" s="43">
+        <v>45</v>
+      </c>
+      <c r="E403" s="43">
+        <v>45</v>
+      </c>
+      <c r="F403" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G403" s="43">
+        <v>45</v>
+      </c>
+      <c r="H403" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A404" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B404" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C404" s="43">
+        <v>0</v>
+      </c>
+      <c r="D404" s="43">
+        <v>32</v>
+      </c>
+      <c r="E404" s="43">
+        <v>32</v>
+      </c>
+      <c r="F404" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G404" s="43">
+        <v>32</v>
+      </c>
+      <c r="H404" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A405" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B405" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C405" s="43">
+        <v>0</v>
+      </c>
+      <c r="D405" s="43">
+        <v>0</v>
+      </c>
+      <c r="E405" s="43">
+        <v>0</v>
+      </c>
+      <c r="F405" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G405" s="43">
+        <v>0</v>
+      </c>
+      <c r="H405" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A406" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B406" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C406" s="43">
+        <v>0</v>
+      </c>
+      <c r="D406" s="43">
+        <v>0</v>
+      </c>
+      <c r="E406" s="43">
+        <v>0</v>
+      </c>
+      <c r="F406" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G406" s="43">
+        <v>0</v>
+      </c>
+      <c r="H406" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A407" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B407" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C407" s="43">
+        <v>0</v>
+      </c>
+      <c r="D407" s="43">
+        <v>7</v>
+      </c>
+      <c r="E407" s="43">
+        <v>7</v>
+      </c>
+      <c r="F407" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G407" s="43">
+        <v>7</v>
+      </c>
+      <c r="H407" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A408" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B408" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C408" s="43">
+        <v>0</v>
+      </c>
+      <c r="D408" s="43">
+        <v>91</v>
+      </c>
+      <c r="E408" s="43">
+        <v>91</v>
+      </c>
+      <c r="F408" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G408" s="43">
+        <v>91</v>
+      </c>
+      <c r="H408" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A409" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B409" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C409" s="43">
+        <v>0</v>
+      </c>
+      <c r="D409" s="43">
+        <v>5</v>
+      </c>
+      <c r="E409" s="43">
+        <v>5</v>
+      </c>
+      <c r="F409" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G409" s="43">
+        <v>5</v>
+      </c>
+      <c r="H409" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A410" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B410" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C410" s="43">
+        <v>0</v>
+      </c>
+      <c r="D410" s="43">
+        <v>35</v>
+      </c>
+      <c r="E410" s="43">
+        <v>35</v>
+      </c>
+      <c r="F410" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G410" s="43">
+        <v>35</v>
+      </c>
+      <c r="H410" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A411" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B411" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C411" s="43">
+        <v>0</v>
+      </c>
+      <c r="D411" s="43">
+        <v>75</v>
+      </c>
+      <c r="E411" s="43">
+        <v>75</v>
+      </c>
+      <c r="F411" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G411" s="43">
+        <v>75</v>
+      </c>
+      <c r="H411" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A412" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B412" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C412" s="43">
+        <v>0</v>
+      </c>
+      <c r="D412" s="43">
+        <v>45</v>
+      </c>
+      <c r="E412" s="43">
+        <v>45</v>
+      </c>
+      <c r="F412" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G412" s="43">
+        <v>45</v>
+      </c>
+      <c r="H412" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A413" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B413" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C413" s="43">
+        <v>0</v>
+      </c>
+      <c r="D413" s="43">
+        <v>45</v>
+      </c>
+      <c r="E413" s="43">
+        <v>45</v>
+      </c>
+      <c r="F413" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G413" s="43">
+        <v>45</v>
+      </c>
+      <c r="H413" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A414" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B414" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C414" s="43">
+        <v>0</v>
+      </c>
+      <c r="D414" s="43">
+        <v>28</v>
+      </c>
+      <c r="E414" s="43">
+        <v>28</v>
+      </c>
+      <c r="F414" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G414" s="43">
+        <v>28</v>
+      </c>
+      <c r="H414" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A415" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B415" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C415" s="43">
+        <v>0</v>
+      </c>
+      <c r="D415" s="43">
+        <v>85</v>
+      </c>
+      <c r="E415" s="43">
+        <v>85</v>
+      </c>
+      <c r="F415" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G415" s="43">
+        <v>85</v>
+      </c>
+      <c r="H415" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A416" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B416" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C416" s="43">
+        <v>0</v>
+      </c>
+      <c r="D416" s="43">
+        <v>0</v>
+      </c>
+      <c r="E416" s="43">
+        <v>0</v>
+      </c>
+      <c r="F416" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G416" s="43">
+        <v>0</v>
+      </c>
+      <c r="H416" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A417" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B417" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C417" s="43">
+        <v>0</v>
+      </c>
+      <c r="D417" s="43">
+        <v>0</v>
+      </c>
+      <c r="E417" s="43">
+        <v>0</v>
+      </c>
+      <c r="F417" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G417" s="43">
+        <v>0</v>
+      </c>
+      <c r="H417" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A418" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B418" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C418" s="43">
+        <v>0</v>
+      </c>
+      <c r="D418" s="43">
+        <v>102</v>
+      </c>
+      <c r="E418" s="43">
+        <v>103</v>
+      </c>
+      <c r="F418" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G418" s="43">
+        <v>102</v>
+      </c>
+      <c r="H418" s="43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A419" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B419" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C419" s="43">
+        <v>0</v>
+      </c>
+      <c r="D419" s="43">
+        <v>60</v>
+      </c>
+      <c r="E419" s="43">
+        <v>61</v>
+      </c>
+      <c r="F419" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G419" s="44">
+        <v>60</v>
+      </c>
+      <c r="H419" s="43">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/ProgressKDM.xlsx
+++ b/ProgressKDM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\semester 5\MAGANG BPS\KDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2818387F-068C-49AA-82BB-77ED97E71F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E882C0B-8A42-4766-90A7-23AFF9BC6F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3566" uniqueCount="114">
   <si>
     <t>Nama</t>
   </si>
@@ -384,11 +384,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,6 +489,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -490,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -513,48 +535,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -567,16 +644,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -585,50 +683,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -842,11 +918,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90E5432-501C-4E71-A6C4-97092BA05C82}">
-  <dimension ref="A1:H538"/>
+  <dimension ref="A1:I618"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="101" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C477" sqref="C477"/>
+      <pane ySplit="1" topLeftCell="A602" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H607" sqref="H607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10924,7 +11000,7 @@
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A388" s="45" t="s">
+      <c r="A388" s="44" t="s">
         <v>97</v>
       </c>
       <c r="B388" s="33" t="s">
@@ -12770,392 +12846,392 @@
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A459" s="45" t="s">
+      <c r="A459" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B459" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C459" s="46">
+      <c r="B459" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C459" s="45">
         <v>408</v>
       </c>
-      <c r="D459" s="46">
+      <c r="D459" s="45">
         <v>893</v>
       </c>
-      <c r="E459" s="46">
+      <c r="E459" s="45">
         <v>1124</v>
       </c>
-      <c r="F459" s="46" t="s">
+      <c r="F459" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G459" s="46">
+      <c r="G459" s="45">
         <v>1301</v>
       </c>
-      <c r="H459" s="46">
+      <c r="H459" s="45">
         <v>177</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A460" s="45" t="s">
+      <c r="A460" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B460" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C460" s="46">
+      <c r="B460" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C460" s="45">
         <v>220</v>
       </c>
-      <c r="D460" s="46">
+      <c r="D460" s="45">
         <v>757</v>
       </c>
-      <c r="E460" s="46">
+      <c r="E460" s="45">
         <v>974</v>
       </c>
-      <c r="F460" s="46" t="s">
+      <c r="F460" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G460" s="46">
+      <c r="G460" s="45">
         <v>977</v>
       </c>
-      <c r="H460" s="46">
+      <c r="H460" s="45">
         <v>3</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A461" s="45" t="s">
+      <c r="A461" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B461" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C461" s="46">
+      <c r="B461" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C461" s="45">
         <v>169</v>
       </c>
-      <c r="D461" s="46">
+      <c r="D461" s="45">
         <v>702</v>
       </c>
-      <c r="E461" s="46">
+      <c r="E461" s="45">
         <v>871</v>
       </c>
-      <c r="F461" s="46" t="s">
+      <c r="F461" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G461" s="46">
+      <c r="G461" s="45">
         <v>871</v>
       </c>
-      <c r="H461" s="46">
+      <c r="H461" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A462" s="45" t="s">
+      <c r="A462" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B462" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C462" s="46">
+      <c r="B462" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C462" s="45">
         <v>238</v>
       </c>
-      <c r="D462" s="46">
+      <c r="D462" s="45">
         <v>523</v>
       </c>
-      <c r="E462" s="46">
+      <c r="E462" s="45">
         <v>712</v>
       </c>
-      <c r="F462" s="46" t="s">
+      <c r="F462" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G462" s="46">
+      <c r="G462" s="45">
         <v>761</v>
       </c>
-      <c r="H462" s="46">
+      <c r="H462" s="45">
         <v>49</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A463" s="45" t="s">
+      <c r="A463" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B463" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C463" s="46">
+      <c r="B463" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C463" s="45">
         <v>112</v>
       </c>
-      <c r="D463" s="46">
+      <c r="D463" s="45">
         <v>600</v>
       </c>
-      <c r="E463" s="46">
+      <c r="E463" s="45">
         <v>668</v>
       </c>
-      <c r="F463" s="46" t="s">
+      <c r="F463" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G463" s="46">
+      <c r="G463" s="45">
         <v>712</v>
       </c>
-      <c r="H463" s="46">
+      <c r="H463" s="45">
         <v>44</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A464" s="45" t="s">
+      <c r="A464" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B464" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C464" s="46">
+      <c r="B464" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C464" s="45">
         <v>645</v>
       </c>
-      <c r="D464" s="46">
+      <c r="D464" s="45">
         <v>816</v>
       </c>
-      <c r="E464" s="46">
+      <c r="E464" s="45">
         <v>1438</v>
       </c>
-      <c r="F464" s="46" t="s">
+      <c r="F464" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G464" s="46">
+      <c r="G464" s="45">
         <v>1461</v>
       </c>
-      <c r="H464" s="46">
+      <c r="H464" s="45">
         <v>23</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A465" s="45" t="s">
+      <c r="A465" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B465" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C465" s="46">
+      <c r="B465" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C465" s="45">
         <v>90</v>
       </c>
-      <c r="D465" s="46">
+      <c r="D465" s="45">
         <v>455</v>
       </c>
-      <c r="E465" s="46">
+      <c r="E465" s="45">
         <v>545</v>
       </c>
-      <c r="F465" s="46" t="s">
+      <c r="F465" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G465" s="46">
+      <c r="G465" s="45">
         <v>545</v>
       </c>
-      <c r="H465" s="46">
+      <c r="H465" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A466" s="45" t="s">
+      <c r="A466" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B466" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C466" s="46">
+      <c r="B466" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C466" s="45">
         <v>191</v>
       </c>
-      <c r="D466" s="46">
+      <c r="D466" s="45">
         <v>455</v>
       </c>
-      <c r="E466" s="46">
+      <c r="E466" s="45">
         <v>614</v>
       </c>
-      <c r="F466" s="46" t="s">
+      <c r="F466" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G466" s="46">
+      <c r="G466" s="45">
         <v>646</v>
       </c>
-      <c r="H466" s="46">
+      <c r="H466" s="45">
         <v>32</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A467" s="45" t="s">
+      <c r="A467" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B467" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C467" s="46">
+      <c r="B467" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C467" s="45">
         <v>255</v>
       </c>
-      <c r="D467" s="46">
+      <c r="D467" s="45">
         <v>530</v>
       </c>
-      <c r="E467" s="46">
+      <c r="E467" s="45">
         <v>730</v>
       </c>
-      <c r="F467" s="46" t="s">
+      <c r="F467" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G467" s="46">
+      <c r="G467" s="45">
         <v>785</v>
       </c>
-      <c r="H467" s="46">
+      <c r="H467" s="45">
         <v>55</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A468" s="45" t="s">
+      <c r="A468" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="B468" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C468" s="46">
+      <c r="B468" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C468" s="45">
         <v>236</v>
       </c>
-      <c r="D468" s="46">
+      <c r="D468" s="45">
         <v>511</v>
       </c>
-      <c r="E468" s="46">
+      <c r="E468" s="45">
         <v>708</v>
       </c>
-      <c r="F468" s="46" t="s">
+      <c r="F468" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G468" s="46">
+      <c r="G468" s="45">
         <v>747</v>
       </c>
-      <c r="H468" s="46">
+      <c r="H468" s="45">
         <v>39</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A469" s="45" t="s">
+      <c r="A469" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B469" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C469" s="46">
+      <c r="B469" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C469" s="45">
         <v>407</v>
       </c>
-      <c r="D469" s="46">
+      <c r="D469" s="45">
         <v>475</v>
       </c>
-      <c r="E469" s="46">
+      <c r="E469" s="45">
         <v>883</v>
       </c>
-      <c r="F469" s="46" t="s">
+      <c r="F469" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G469" s="46">
+      <c r="G469" s="45">
         <v>882</v>
       </c>
-      <c r="H469" s="46">
+      <c r="H469" s="45">
         <v>-1</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A470" s="45" t="s">
+      <c r="A470" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B470" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C470" s="46">
+      <c r="B470" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C470" s="45">
         <v>226</v>
       </c>
-      <c r="D470" s="46">
+      <c r="D470" s="45">
         <v>479</v>
       </c>
-      <c r="E470" s="46">
+      <c r="E470" s="45">
         <v>648</v>
       </c>
-      <c r="F470" s="46" t="s">
+      <c r="F470" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G470" s="46">
+      <c r="G470" s="45">
         <v>705</v>
       </c>
-      <c r="H470" s="46">
+      <c r="H470" s="45">
         <v>57</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A471" s="45" t="s">
+      <c r="A471" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B471" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C471" s="46">
+      <c r="B471" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C471" s="45">
         <v>330</v>
       </c>
-      <c r="D471" s="46">
+      <c r="D471" s="45">
         <v>543</v>
       </c>
-      <c r="E471" s="46">
+      <c r="E471" s="45">
         <v>803</v>
       </c>
-      <c r="F471" s="46" t="s">
+      <c r="F471" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G471" s="46">
+      <c r="G471" s="45">
         <v>873</v>
       </c>
-      <c r="H471" s="46">
+      <c r="H471" s="45">
         <v>70</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A472" s="45" t="s">
+      <c r="A472" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B472" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C472" s="46">
+      <c r="B472" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C472" s="45">
         <v>181</v>
       </c>
-      <c r="D472" s="46">
+      <c r="D472" s="45">
         <v>451</v>
       </c>
-      <c r="E472" s="46">
+      <c r="E472" s="45">
         <v>591</v>
       </c>
-      <c r="F472" s="46" t="s">
+      <c r="F472" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G472" s="46">
+      <c r="G472" s="45">
         <v>632</v>
       </c>
-      <c r="H472" s="46">
+      <c r="H472" s="45">
         <v>41</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A473" s="45" t="s">
+      <c r="A473" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B473" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C473" s="46">
+      <c r="B473" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C473" s="45">
         <v>169</v>
       </c>
-      <c r="D473" s="46">
+      <c r="D473" s="45">
         <v>403</v>
       </c>
-      <c r="E473" s="46">
+      <c r="E473" s="45">
         <v>533</v>
       </c>
-      <c r="F473" s="46" t="s">
+      <c r="F473" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G473" s="46">
+      <c r="G473" s="45">
         <v>572</v>
       </c>
-      <c r="H473" s="46">
+      <c r="H473" s="45">
         <v>39</v>
       </c>
     </row>
@@ -13212,54 +13288,54 @@
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A476" s="45" t="s">
+      <c r="A476" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B476" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C476" s="46">
+      <c r="B476" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C476" s="45">
         <v>189</v>
       </c>
-      <c r="D476" s="46">
+      <c r="D476" s="45">
         <v>307</v>
       </c>
-      <c r="E476" s="46">
+      <c r="E476" s="45">
         <v>438</v>
       </c>
-      <c r="F476" s="46" t="s">
+      <c r="F476" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G476" s="46">
+      <c r="G476" s="45">
         <v>496</v>
       </c>
-      <c r="H476" s="46">
+      <c r="H476" s="45">
         <v>58</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A477" s="45" t="s">
+      <c r="A477" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B477" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C477" s="46">
+      <c r="B477" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C477" s="45">
         <v>245</v>
       </c>
-      <c r="D477" s="46">
+      <c r="D477" s="45">
         <v>236</v>
       </c>
-      <c r="E477" s="46">
+      <c r="E477" s="45">
         <v>480</v>
       </c>
-      <c r="F477" s="46" t="s">
+      <c r="F477" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G477" s="46">
+      <c r="G477" s="45">
         <v>481</v>
       </c>
-      <c r="H477" s="46">
+      <c r="H477" s="45">
         <v>1</v>
       </c>
     </row>
@@ -14333,7 +14409,7 @@
       <c r="A519" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="B519" s="42" t="s">
+      <c r="B519" s="46" t="s">
         <v>8</v>
       </c>
       <c r="C519" s="43">
@@ -14823,7 +14899,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A538" s="42" t="s">
         <v>35</v>
       </c>
@@ -14842,11 +14918,2092 @@
       <c r="F538" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G538" s="44">
+      <c r="G538" s="43">
         <v>60</v>
       </c>
       <c r="H538" s="43">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A539" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B539" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C539" s="50">
+        <v>220</v>
+      </c>
+      <c r="D539" s="50">
+        <v>828</v>
+      </c>
+      <c r="E539" s="52">
+        <v>977</v>
+      </c>
+      <c r="F539" s="51">
+        <v>45818</v>
+      </c>
+      <c r="G539" s="50">
+        <v>1048</v>
+      </c>
+      <c r="H539" s="52">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A540" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B540" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C540" s="50">
+        <v>408</v>
+      </c>
+      <c r="D540" s="50">
+        <v>935</v>
+      </c>
+      <c r="E540" s="53">
+        <v>1301</v>
+      </c>
+      <c r="F540" s="51">
+        <v>45818</v>
+      </c>
+      <c r="G540" s="50">
+        <v>1343</v>
+      </c>
+      <c r="H540" s="53">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A541" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B541" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C541" s="50">
+        <v>169</v>
+      </c>
+      <c r="D541" s="50">
+        <v>702</v>
+      </c>
+      <c r="E541" s="53">
+        <v>871</v>
+      </c>
+      <c r="F541" s="51">
+        <v>45818</v>
+      </c>
+      <c r="G541" s="50">
+        <v>871</v>
+      </c>
+      <c r="H541" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A542" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B542" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C542" s="50">
+        <v>238</v>
+      </c>
+      <c r="D542" s="50">
+        <v>524</v>
+      </c>
+      <c r="E542" s="53">
+        <v>761</v>
+      </c>
+      <c r="F542" s="51">
+        <v>45818</v>
+      </c>
+      <c r="G542" s="50">
+        <v>762</v>
+      </c>
+      <c r="H542" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A543" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B543" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C543" s="50">
+        <v>112</v>
+      </c>
+      <c r="D543" s="50">
+        <v>601</v>
+      </c>
+      <c r="E543" s="53">
+        <v>712</v>
+      </c>
+      <c r="F543" s="51">
+        <v>45818</v>
+      </c>
+      <c r="G543" s="50">
+        <v>713</v>
+      </c>
+      <c r="H543" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A544" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B544" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C544" s="50">
+        <v>645</v>
+      </c>
+      <c r="D544" s="50">
+        <v>816</v>
+      </c>
+      <c r="E544" s="53">
+        <v>1461</v>
+      </c>
+      <c r="F544" s="51">
+        <v>45818</v>
+      </c>
+      <c r="G544" s="50">
+        <v>1461</v>
+      </c>
+      <c r="H544" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A545" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B545" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C545" s="50">
+        <v>90</v>
+      </c>
+      <c r="D545" s="50">
+        <v>455</v>
+      </c>
+      <c r="E545" s="53">
+        <v>545</v>
+      </c>
+      <c r="F545" s="51">
+        <v>45818</v>
+      </c>
+      <c r="G545" s="50">
+        <v>545</v>
+      </c>
+      <c r="H545" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A546" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B546" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C546" s="50">
+        <v>191</v>
+      </c>
+      <c r="D546" s="50">
+        <v>455</v>
+      </c>
+      <c r="E546" s="53">
+        <v>646</v>
+      </c>
+      <c r="F546" s="51">
+        <v>45818</v>
+      </c>
+      <c r="G546" s="50">
+        <v>646</v>
+      </c>
+      <c r="H546" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A547" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B547" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C547" s="50">
+        <v>181</v>
+      </c>
+      <c r="D547" s="50">
+        <v>482</v>
+      </c>
+      <c r="E547" s="53">
+        <v>632</v>
+      </c>
+      <c r="F547" s="51">
+        <v>45818</v>
+      </c>
+      <c r="G547" s="50">
+        <v>663</v>
+      </c>
+      <c r="H547" s="53">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A548" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B548" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C548" s="50">
+        <v>226</v>
+      </c>
+      <c r="D548" s="50">
+        <v>503</v>
+      </c>
+      <c r="E548" s="53">
+        <v>705</v>
+      </c>
+      <c r="F548" s="51">
+        <v>45818</v>
+      </c>
+      <c r="G548" s="50">
+        <v>729</v>
+      </c>
+      <c r="H548" s="53">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A549" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B549" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C549" s="50">
+        <v>255</v>
+      </c>
+      <c r="D549" s="50">
+        <v>530</v>
+      </c>
+      <c r="E549" s="53">
+        <v>785</v>
+      </c>
+      <c r="F549" s="51">
+        <v>45818</v>
+      </c>
+      <c r="G549" s="50">
+        <v>785</v>
+      </c>
+      <c r="H549" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A550" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B550" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C550" s="50">
+        <v>169</v>
+      </c>
+      <c r="D550" s="50">
+        <v>429</v>
+      </c>
+      <c r="E550" s="53">
+        <v>572</v>
+      </c>
+      <c r="F550" s="51">
+        <v>45818</v>
+      </c>
+      <c r="G550" s="50">
+        <v>598</v>
+      </c>
+      <c r="H550" s="53">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A551" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B551" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C551" s="50">
+        <v>236</v>
+      </c>
+      <c r="D551" s="50">
+        <v>519</v>
+      </c>
+      <c r="E551" s="53">
+        <v>747</v>
+      </c>
+      <c r="F551" s="51">
+        <v>45818</v>
+      </c>
+      <c r="G551" s="50">
+        <v>755</v>
+      </c>
+      <c r="H551" s="53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A552" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B552" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C552" s="50">
+        <v>330</v>
+      </c>
+      <c r="D552" s="50">
+        <v>558</v>
+      </c>
+      <c r="E552" s="53">
+        <v>873</v>
+      </c>
+      <c r="F552" s="51">
+        <v>45818</v>
+      </c>
+      <c r="G552" s="50">
+        <v>888</v>
+      </c>
+      <c r="H552" s="53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A553" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B553" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C553" s="50">
+        <v>407</v>
+      </c>
+      <c r="D553" s="50">
+        <v>475</v>
+      </c>
+      <c r="E553" s="53">
+        <v>882</v>
+      </c>
+      <c r="F553" s="51">
+        <v>45818</v>
+      </c>
+      <c r="G553" s="50">
+        <v>882</v>
+      </c>
+      <c r="H553" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A554" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B554" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C554" s="47">
+        <v>0</v>
+      </c>
+      <c r="D554" s="47">
+        <v>389</v>
+      </c>
+      <c r="E554" s="53">
+        <v>389</v>
+      </c>
+      <c r="F554" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G554" s="47">
+        <v>389</v>
+      </c>
+      <c r="H554" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A555" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B555" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C555" s="47">
+        <v>0</v>
+      </c>
+      <c r="D555" s="47">
+        <v>380</v>
+      </c>
+      <c r="E555" s="53">
+        <v>380</v>
+      </c>
+      <c r="F555" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G555" s="47">
+        <v>380</v>
+      </c>
+      <c r="H555" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A556" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B556" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C556" s="50">
+        <v>189</v>
+      </c>
+      <c r="D556" s="50">
+        <v>307</v>
+      </c>
+      <c r="E556" s="53">
+        <v>496</v>
+      </c>
+      <c r="F556" s="51">
+        <v>45818</v>
+      </c>
+      <c r="G556" s="50">
+        <v>496</v>
+      </c>
+      <c r="H556" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A557" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B557" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C557" s="50">
+        <v>245</v>
+      </c>
+      <c r="D557" s="50">
+        <v>253</v>
+      </c>
+      <c r="E557" s="53">
+        <v>481</v>
+      </c>
+      <c r="F557" s="51">
+        <v>45818</v>
+      </c>
+      <c r="G557" s="50">
+        <v>498</v>
+      </c>
+      <c r="H557" s="53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A558" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B558" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C558" s="47">
+        <v>0</v>
+      </c>
+      <c r="D558" s="47">
+        <v>299</v>
+      </c>
+      <c r="E558" s="53">
+        <v>299</v>
+      </c>
+      <c r="F558" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G558" s="47">
+        <v>299</v>
+      </c>
+      <c r="H558" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A559" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B559" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C559" s="47">
+        <v>0</v>
+      </c>
+      <c r="D559" s="47">
+        <v>172</v>
+      </c>
+      <c r="E559" s="53">
+        <v>171</v>
+      </c>
+      <c r="F559" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G559" s="47">
+        <v>172</v>
+      </c>
+      <c r="H559" s="53">
+        <v>1</v>
+      </c>
+      <c r="I559" s="54"/>
+    </row>
+    <row r="560" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A560" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B560" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C560" s="47">
+        <v>0</v>
+      </c>
+      <c r="D560" s="47">
+        <v>230</v>
+      </c>
+      <c r="E560" s="53">
+        <v>230</v>
+      </c>
+      <c r="F560" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G560" s="47">
+        <v>230</v>
+      </c>
+      <c r="H560" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A561" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B561" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C561" s="47">
+        <v>0</v>
+      </c>
+      <c r="D561" s="47">
+        <v>206</v>
+      </c>
+      <c r="E561" s="53">
+        <v>206</v>
+      </c>
+      <c r="F561" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G561" s="47">
+        <v>206</v>
+      </c>
+      <c r="H561" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A562" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B562" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C562" s="47">
+        <v>0</v>
+      </c>
+      <c r="D562" s="47">
+        <v>108</v>
+      </c>
+      <c r="E562" s="53">
+        <v>108</v>
+      </c>
+      <c r="F562" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G562" s="47">
+        <v>108</v>
+      </c>
+      <c r="H562" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A563" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B563" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C563" s="47">
+        <v>0</v>
+      </c>
+      <c r="D563" s="47">
+        <v>202</v>
+      </c>
+      <c r="E563" s="53">
+        <v>202</v>
+      </c>
+      <c r="F563" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G563" s="47">
+        <v>202</v>
+      </c>
+      <c r="H563" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A564" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B564" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C564" s="47">
+        <v>0</v>
+      </c>
+      <c r="D564" s="47">
+        <v>139</v>
+      </c>
+      <c r="E564" s="53">
+        <v>139</v>
+      </c>
+      <c r="F564" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G564" s="47">
+        <v>139</v>
+      </c>
+      <c r="H564" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A565" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B565" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C565" s="47">
+        <v>0</v>
+      </c>
+      <c r="D565" s="47">
+        <v>172</v>
+      </c>
+      <c r="E565" s="53">
+        <v>172</v>
+      </c>
+      <c r="F565" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G565" s="47">
+        <v>172</v>
+      </c>
+      <c r="H565" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A566" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B566" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C566" s="47">
+        <v>0</v>
+      </c>
+      <c r="D566" s="47">
+        <v>100</v>
+      </c>
+      <c r="E566" s="53">
+        <v>100</v>
+      </c>
+      <c r="F566" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G566" s="47">
+        <v>100</v>
+      </c>
+      <c r="H566" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A567" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B567" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C567" s="47">
+        <v>0</v>
+      </c>
+      <c r="D567" s="47">
+        <v>238</v>
+      </c>
+      <c r="E567" s="53">
+        <v>238</v>
+      </c>
+      <c r="F567" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G567" s="47">
+        <v>238</v>
+      </c>
+      <c r="H567" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A568" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B568" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C568" s="47">
+        <v>0</v>
+      </c>
+      <c r="D568" s="47">
+        <v>75</v>
+      </c>
+      <c r="E568" s="53">
+        <v>75</v>
+      </c>
+      <c r="F568" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G568" s="47">
+        <v>75</v>
+      </c>
+      <c r="H568" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A569" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B569" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C569" s="47">
+        <v>0</v>
+      </c>
+      <c r="D569" s="47">
+        <v>115</v>
+      </c>
+      <c r="E569" s="53">
+        <v>115</v>
+      </c>
+      <c r="F569" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G569" s="47">
+        <v>115</v>
+      </c>
+      <c r="H569" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A570" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B570" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C570" s="47">
+        <v>0</v>
+      </c>
+      <c r="D570" s="47">
+        <v>94</v>
+      </c>
+      <c r="E570" s="53">
+        <v>94</v>
+      </c>
+      <c r="F570" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G570" s="47">
+        <v>94</v>
+      </c>
+      <c r="H570" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A571" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B571" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C571" s="47">
+        <v>0</v>
+      </c>
+      <c r="D571" s="47">
+        <v>99</v>
+      </c>
+      <c r="E571" s="53">
+        <v>99</v>
+      </c>
+      <c r="F571" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G571" s="47">
+        <v>99</v>
+      </c>
+      <c r="H571" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A572" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B572" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C572" s="47">
+        <v>0</v>
+      </c>
+      <c r="D572" s="47">
+        <v>116</v>
+      </c>
+      <c r="E572" s="53">
+        <v>116</v>
+      </c>
+      <c r="F572" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G572" s="47">
+        <v>116</v>
+      </c>
+      <c r="H572" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A573" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B573" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C573" s="47">
+        <v>0</v>
+      </c>
+      <c r="D573" s="47">
+        <v>72</v>
+      </c>
+      <c r="E573" s="53">
+        <v>72</v>
+      </c>
+      <c r="F573" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G573" s="47">
+        <v>72</v>
+      </c>
+      <c r="H573" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A574" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B574" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C574" s="47">
+        <v>0</v>
+      </c>
+      <c r="D574" s="47">
+        <v>71</v>
+      </c>
+      <c r="E574" s="53">
+        <v>71</v>
+      </c>
+      <c r="F574" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G574" s="47">
+        <v>71</v>
+      </c>
+      <c r="H574" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A575" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B575" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C575" s="47">
+        <v>0</v>
+      </c>
+      <c r="D575" s="47">
+        <v>47</v>
+      </c>
+      <c r="E575" s="53">
+        <v>47</v>
+      </c>
+      <c r="F575" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G575" s="47">
+        <v>47</v>
+      </c>
+      <c r="H575" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A576" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B576" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C576" s="47">
+        <v>0</v>
+      </c>
+      <c r="D576" s="47">
+        <v>38</v>
+      </c>
+      <c r="E576" s="53">
+        <v>38</v>
+      </c>
+      <c r="F576" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G576" s="47">
+        <v>38</v>
+      </c>
+      <c r="H576" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A577" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B577" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C577" s="47">
+        <v>0</v>
+      </c>
+      <c r="D577" s="47">
+        <v>55</v>
+      </c>
+      <c r="E577" s="53">
+        <v>55</v>
+      </c>
+      <c r="F577" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G577" s="47">
+        <v>55</v>
+      </c>
+      <c r="H577" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A578" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B578" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C578" s="47">
+        <v>0</v>
+      </c>
+      <c r="D578" s="47">
+        <v>35</v>
+      </c>
+      <c r="E578" s="53">
+        <v>35</v>
+      </c>
+      <c r="F578" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G578" s="47">
+        <v>35</v>
+      </c>
+      <c r="H578" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A579" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B579" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C579" s="47">
+        <v>0</v>
+      </c>
+      <c r="D579" s="47">
+        <v>130</v>
+      </c>
+      <c r="E579" s="53">
+        <v>130</v>
+      </c>
+      <c r="F579" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G579" s="47">
+        <v>130</v>
+      </c>
+      <c r="H579" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A580" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B580" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C580" s="47">
+        <v>0</v>
+      </c>
+      <c r="D580" s="47">
+        <v>33</v>
+      </c>
+      <c r="E580" s="53">
+        <v>33</v>
+      </c>
+      <c r="F580" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G580" s="47">
+        <v>33</v>
+      </c>
+      <c r="H580" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A581" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B581" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C581" s="47">
+        <v>0</v>
+      </c>
+      <c r="D581" s="47">
+        <v>32</v>
+      </c>
+      <c r="E581" s="53">
+        <v>32</v>
+      </c>
+      <c r="F581" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G581" s="47">
+        <v>32</v>
+      </c>
+      <c r="H581" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A582" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B582" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C582" s="47">
+        <v>0</v>
+      </c>
+      <c r="D582" s="47">
+        <v>56</v>
+      </c>
+      <c r="E582" s="53">
+        <v>56</v>
+      </c>
+      <c r="F582" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G582" s="47">
+        <v>56</v>
+      </c>
+      <c r="H582" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A583" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B583" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C583" s="47">
+        <v>0</v>
+      </c>
+      <c r="D583" s="47">
+        <v>64</v>
+      </c>
+      <c r="E583" s="53">
+        <v>64</v>
+      </c>
+      <c r="F583" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G583" s="47">
+        <v>64</v>
+      </c>
+      <c r="H583" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A584" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B584" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C584" s="47">
+        <v>0</v>
+      </c>
+      <c r="D584" s="47">
+        <v>107</v>
+      </c>
+      <c r="E584" s="53">
+        <v>107</v>
+      </c>
+      <c r="F584" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G584" s="47">
+        <v>107</v>
+      </c>
+      <c r="H584" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A585" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B585" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C585" s="47">
+        <v>0</v>
+      </c>
+      <c r="D585" s="47">
+        <v>66</v>
+      </c>
+      <c r="E585" s="53">
+        <v>66</v>
+      </c>
+      <c r="F585" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G585" s="47">
+        <v>66</v>
+      </c>
+      <c r="H585" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A586" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B586" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C586" s="47">
+        <v>0</v>
+      </c>
+      <c r="D586" s="47">
+        <v>66</v>
+      </c>
+      <c r="E586" s="53">
+        <v>66</v>
+      </c>
+      <c r="F586" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G586" s="47">
+        <v>66</v>
+      </c>
+      <c r="H586" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A587" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B587" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C587" s="47">
+        <v>0</v>
+      </c>
+      <c r="D587" s="47">
+        <v>14</v>
+      </c>
+      <c r="E587" s="53">
+        <v>1</v>
+      </c>
+      <c r="F587" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G587" s="47">
+        <v>14</v>
+      </c>
+      <c r="H587" s="53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A588" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B588" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C588" s="47">
+        <v>0</v>
+      </c>
+      <c r="D588" s="47">
+        <v>89</v>
+      </c>
+      <c r="E588" s="53">
+        <v>89</v>
+      </c>
+      <c r="F588" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G588" s="47">
+        <v>89</v>
+      </c>
+      <c r="H588" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A589" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B589" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C589" s="47">
+        <v>0</v>
+      </c>
+      <c r="D589" s="47">
+        <v>42</v>
+      </c>
+      <c r="E589" s="53">
+        <v>42</v>
+      </c>
+      <c r="F589" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G589" s="47">
+        <v>42</v>
+      </c>
+      <c r="H589" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A590" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B590" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C590" s="47">
+        <v>0</v>
+      </c>
+      <c r="D590" s="47">
+        <v>13</v>
+      </c>
+      <c r="E590" s="53">
+        <v>13</v>
+      </c>
+      <c r="F590" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G590" s="47">
+        <v>13</v>
+      </c>
+      <c r="H590" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A591" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B591" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C591" s="47">
+        <v>0</v>
+      </c>
+      <c r="D591" s="47">
+        <v>108</v>
+      </c>
+      <c r="E591" s="53">
+        <v>108</v>
+      </c>
+      <c r="F591" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G591" s="47">
+        <v>108</v>
+      </c>
+      <c r="H591" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A592" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B592" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C592" s="47">
+        <v>0</v>
+      </c>
+      <c r="D592" s="47">
+        <v>11</v>
+      </c>
+      <c r="E592" s="53">
+        <v>11</v>
+      </c>
+      <c r="F592" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G592" s="47">
+        <v>11</v>
+      </c>
+      <c r="H592" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A593" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B593" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C593" s="47">
+        <v>0</v>
+      </c>
+      <c r="D593" s="47">
+        <v>81</v>
+      </c>
+      <c r="E593" s="53">
+        <v>81</v>
+      </c>
+      <c r="F593" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G593" s="47">
+        <v>81</v>
+      </c>
+      <c r="H593" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A594" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B594" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C594" s="47">
+        <v>0</v>
+      </c>
+      <c r="D594" s="47">
+        <v>4</v>
+      </c>
+      <c r="E594" s="53">
+        <v>4</v>
+      </c>
+      <c r="F594" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G594" s="47">
+        <v>4</v>
+      </c>
+      <c r="H594" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A595" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B595" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C595" s="47">
+        <v>0</v>
+      </c>
+      <c r="D595" s="47">
+        <v>4</v>
+      </c>
+      <c r="E595" s="53">
+        <v>4</v>
+      </c>
+      <c r="F595" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G595" s="47">
+        <v>4</v>
+      </c>
+      <c r="H595" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A596" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B596" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C596" s="47">
+        <v>0</v>
+      </c>
+      <c r="D596" s="47">
+        <v>102</v>
+      </c>
+      <c r="E596" s="53">
+        <v>102</v>
+      </c>
+      <c r="F596" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G596" s="47">
+        <v>102</v>
+      </c>
+      <c r="H596" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A597" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B597" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C597" s="47">
+        <v>0</v>
+      </c>
+      <c r="D597" s="47">
+        <v>2</v>
+      </c>
+      <c r="E597" s="53">
+        <v>2</v>
+      </c>
+      <c r="F597" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G597" s="47">
+        <v>2</v>
+      </c>
+      <c r="H597" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A598" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B598" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C598" s="47">
+        <v>0</v>
+      </c>
+      <c r="D598" s="47">
+        <v>106</v>
+      </c>
+      <c r="E598" s="53">
+        <v>106</v>
+      </c>
+      <c r="F598" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G598" s="47">
+        <v>106</v>
+      </c>
+      <c r="H598" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A599" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B599" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C599" s="47">
+        <v>0</v>
+      </c>
+      <c r="D599" s="47">
+        <v>1</v>
+      </c>
+      <c r="E599" s="53">
+        <v>1</v>
+      </c>
+      <c r="F599" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G599" s="47">
+        <v>1</v>
+      </c>
+      <c r="H599" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A600" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B600" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C600" s="47">
+        <v>0</v>
+      </c>
+      <c r="D600" s="47">
+        <v>1</v>
+      </c>
+      <c r="E600" s="53">
+        <v>1</v>
+      </c>
+      <c r="F600" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G600" s="47">
+        <v>1</v>
+      </c>
+      <c r="H600" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A601" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B601" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C601" s="47">
+        <v>0</v>
+      </c>
+      <c r="D601" s="47">
+        <v>85</v>
+      </c>
+      <c r="E601" s="53">
+        <v>85</v>
+      </c>
+      <c r="F601" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G601" s="47">
+        <v>85</v>
+      </c>
+      <c r="H601" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A602" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B602" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C602" s="47">
+        <v>0</v>
+      </c>
+      <c r="D602" s="47">
+        <v>45</v>
+      </c>
+      <c r="E602" s="53">
+        <v>45</v>
+      </c>
+      <c r="F602" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G602" s="47">
+        <v>45</v>
+      </c>
+      <c r="H602" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A603" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B603" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C603" s="47">
+        <v>0</v>
+      </c>
+      <c r="D603" s="47">
+        <v>0</v>
+      </c>
+      <c r="E603" s="53">
+        <v>0</v>
+      </c>
+      <c r="F603" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G603" s="47">
+        <v>0</v>
+      </c>
+      <c r="H603" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A604" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B604" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C604" s="47">
+        <v>0</v>
+      </c>
+      <c r="D604" s="47">
+        <v>45</v>
+      </c>
+      <c r="E604" s="53">
+        <v>45</v>
+      </c>
+      <c r="F604" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G604" s="47">
+        <v>45</v>
+      </c>
+      <c r="H604" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A605" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B605" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C605" s="47">
+        <v>0</v>
+      </c>
+      <c r="D605" s="47">
+        <v>0</v>
+      </c>
+      <c r="E605" s="53">
+        <v>0</v>
+      </c>
+      <c r="F605" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G605" s="47">
+        <v>0</v>
+      </c>
+      <c r="H605" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A606" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B606" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C606" s="47">
+        <v>0</v>
+      </c>
+      <c r="D606" s="47">
+        <v>28</v>
+      </c>
+      <c r="E606" s="53">
+        <v>28</v>
+      </c>
+      <c r="F606" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G606" s="47">
+        <v>28</v>
+      </c>
+      <c r="H606" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A607" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B607" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C607" s="47">
+        <v>0</v>
+      </c>
+      <c r="D607" s="47">
+        <v>45</v>
+      </c>
+      <c r="E607" s="53">
+        <v>45</v>
+      </c>
+      <c r="F607" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G607" s="47">
+        <v>45</v>
+      </c>
+      <c r="H607" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A608" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B608" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C608" s="47">
+        <v>0</v>
+      </c>
+      <c r="D608" s="47">
+        <v>7</v>
+      </c>
+      <c r="E608" s="53">
+        <v>7</v>
+      </c>
+      <c r="F608" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G608" s="47">
+        <v>7</v>
+      </c>
+      <c r="H608" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A609" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B609" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C609" s="47">
+        <v>0</v>
+      </c>
+      <c r="D609" s="47">
+        <v>77</v>
+      </c>
+      <c r="E609" s="53">
+        <v>77</v>
+      </c>
+      <c r="F609" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G609" s="47">
+        <v>77</v>
+      </c>
+      <c r="H609" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A610" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B610" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C610" s="47">
+        <v>0</v>
+      </c>
+      <c r="D610" s="47">
+        <v>5</v>
+      </c>
+      <c r="E610" s="53">
+        <v>5</v>
+      </c>
+      <c r="F610" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G610" s="47">
+        <v>5</v>
+      </c>
+      <c r="H610" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A611" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B611" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C611" s="47">
+        <v>0</v>
+      </c>
+      <c r="D611" s="47">
+        <v>91</v>
+      </c>
+      <c r="E611" s="53">
+        <v>91</v>
+      </c>
+      <c r="F611" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G611" s="47">
+        <v>91</v>
+      </c>
+      <c r="H611" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A612" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B612" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C612" s="47">
+        <v>0</v>
+      </c>
+      <c r="D612" s="47">
+        <v>35</v>
+      </c>
+      <c r="E612" s="53">
+        <v>35</v>
+      </c>
+      <c r="F612" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G612" s="47">
+        <v>35</v>
+      </c>
+      <c r="H612" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A613" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B613" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C613" s="47">
+        <v>0</v>
+      </c>
+      <c r="D613" s="47">
+        <v>0</v>
+      </c>
+      <c r="E613" s="53">
+        <v>0</v>
+      </c>
+      <c r="F613" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G613" s="47">
+        <v>0</v>
+      </c>
+      <c r="H613" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A614" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B614" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C614" s="47">
+        <v>0</v>
+      </c>
+      <c r="D614" s="47">
+        <v>32</v>
+      </c>
+      <c r="E614" s="53">
+        <v>32</v>
+      </c>
+      <c r="F614" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G614" s="47">
+        <v>32</v>
+      </c>
+      <c r="H614" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A615" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B615" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C615" s="47">
+        <v>0</v>
+      </c>
+      <c r="D615" s="47">
+        <v>0</v>
+      </c>
+      <c r="E615" s="53">
+        <v>0</v>
+      </c>
+      <c r="F615" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G615" s="47">
+        <v>0</v>
+      </c>
+      <c r="H615" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A616" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B616" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C616" s="47">
+        <v>0</v>
+      </c>
+      <c r="D616" s="47">
+        <v>75</v>
+      </c>
+      <c r="E616" s="53">
+        <v>75</v>
+      </c>
+      <c r="F616" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G616" s="47">
+        <v>75</v>
+      </c>
+      <c r="H616" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A617" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B617" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C617" s="47">
+        <v>0</v>
+      </c>
+      <c r="D617" s="47">
+        <v>102</v>
+      </c>
+      <c r="E617" s="53">
+        <v>102</v>
+      </c>
+      <c r="F617" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G617" s="47">
+        <v>102</v>
+      </c>
+      <c r="H617" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A618" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B618" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C618" s="47">
+        <v>0</v>
+      </c>
+      <c r="D618" s="47">
+        <v>60</v>
+      </c>
+      <c r="E618" s="53">
+        <v>60</v>
+      </c>
+      <c r="F618" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G618" s="47">
+        <v>60</v>
+      </c>
+      <c r="H618" s="53">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14860,8 +17017,8 @@
   <dimension ref="A1:H976"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B118" sqref="A1:H120"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H136" sqref="H136:H137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -17971,7 +20128,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="42" t="s">
         <v>89</v>
       </c>
@@ -17997,30 +20154,455 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B121" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="47">
+        <v>220</v>
+      </c>
+      <c r="D121" s="47">
+        <v>828</v>
+      </c>
+      <c r="E121" s="52">
+        <v>977</v>
+      </c>
+      <c r="F121" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G121" s="47">
+        <v>1048</v>
+      </c>
+      <c r="H121" s="52">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B122" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="47">
+        <v>408</v>
+      </c>
+      <c r="D122" s="47">
+        <v>935</v>
+      </c>
+      <c r="E122" s="53">
+        <v>1301</v>
+      </c>
+      <c r="F122" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G122" s="47">
+        <v>1343</v>
+      </c>
+      <c r="H122" s="53">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B123" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="47">
+        <v>169</v>
+      </c>
+      <c r="D123" s="47">
+        <v>702</v>
+      </c>
+      <c r="E123" s="53">
+        <v>871</v>
+      </c>
+      <c r="F123" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G123" s="47">
+        <v>871</v>
+      </c>
+      <c r="H123" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="47">
+        <v>238</v>
+      </c>
+      <c r="D124" s="47">
+        <v>524</v>
+      </c>
+      <c r="E124" s="53">
+        <v>761</v>
+      </c>
+      <c r="F124" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G124" s="47">
+        <v>762</v>
+      </c>
+      <c r="H124" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="47">
+        <v>112</v>
+      </c>
+      <c r="D125" s="47">
+        <v>601</v>
+      </c>
+      <c r="E125" s="53">
+        <v>712</v>
+      </c>
+      <c r="F125" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G125" s="47">
+        <v>713</v>
+      </c>
+      <c r="H125" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B126" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="47">
+        <v>645</v>
+      </c>
+      <c r="D126" s="47">
+        <v>816</v>
+      </c>
+      <c r="E126" s="53">
+        <v>1461</v>
+      </c>
+      <c r="F126" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G126" s="47">
+        <v>1461</v>
+      </c>
+      <c r="H126" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B127" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="47">
+        <v>90</v>
+      </c>
+      <c r="D127" s="47">
+        <v>455</v>
+      </c>
+      <c r="E127" s="53">
+        <v>545</v>
+      </c>
+      <c r="F127" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G127" s="47">
+        <v>545</v>
+      </c>
+      <c r="H127" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B128" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="47">
+        <v>191</v>
+      </c>
+      <c r="D128" s="47">
+        <v>455</v>
+      </c>
+      <c r="E128" s="53">
+        <v>646</v>
+      </c>
+      <c r="F128" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G128" s="47">
+        <v>646</v>
+      </c>
+      <c r="H128" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B129" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="47">
+        <v>181</v>
+      </c>
+      <c r="D129" s="47">
+        <v>482</v>
+      </c>
+      <c r="E129" s="53">
+        <v>632</v>
+      </c>
+      <c r="F129" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G129" s="47">
+        <v>663</v>
+      </c>
+      <c r="H129" s="53">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B130" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="47">
+        <v>226</v>
+      </c>
+      <c r="D130" s="47">
+        <v>503</v>
+      </c>
+      <c r="E130" s="53">
+        <v>705</v>
+      </c>
+      <c r="F130" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G130" s="47">
+        <v>729</v>
+      </c>
+      <c r="H130" s="53">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B131" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="47">
+        <v>255</v>
+      </c>
+      <c r="D131" s="47">
+        <v>530</v>
+      </c>
+      <c r="E131" s="53">
+        <v>785</v>
+      </c>
+      <c r="F131" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G131" s="47">
+        <v>785</v>
+      </c>
+      <c r="H131" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B132" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="47">
+        <v>169</v>
+      </c>
+      <c r="D132" s="47">
+        <v>429</v>
+      </c>
+      <c r="E132" s="53">
+        <v>572</v>
+      </c>
+      <c r="F132" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G132" s="47">
+        <v>598</v>
+      </c>
+      <c r="H132" s="53">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B133" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="47">
+        <v>236</v>
+      </c>
+      <c r="D133" s="47">
+        <v>519</v>
+      </c>
+      <c r="E133" s="53">
+        <v>747</v>
+      </c>
+      <c r="F133" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G133" s="47">
+        <v>755</v>
+      </c>
+      <c r="H133" s="53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B134" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="47">
+        <v>330</v>
+      </c>
+      <c r="D134" s="47">
+        <v>558</v>
+      </c>
+      <c r="E134" s="53">
+        <v>873</v>
+      </c>
+      <c r="F134" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G134" s="47">
+        <v>888</v>
+      </c>
+      <c r="H134" s="53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B135" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="47">
+        <v>407</v>
+      </c>
+      <c r="D135" s="47">
+        <v>475</v>
+      </c>
+      <c r="E135" s="53">
+        <v>882</v>
+      </c>
+      <c r="F135" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G135" s="47">
+        <v>882</v>
+      </c>
+      <c r="H135" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B136" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="47">
+        <v>189</v>
+      </c>
+      <c r="D136" s="47">
+        <v>307</v>
+      </c>
+      <c r="E136" s="53">
+        <v>496</v>
+      </c>
+      <c r="F136" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G136" s="47">
+        <v>496</v>
+      </c>
+      <c r="H136" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B137" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="47">
+        <v>245</v>
+      </c>
+      <c r="D137" s="47">
+        <v>253</v>
+      </c>
+      <c r="E137" s="53">
+        <v>481</v>
+      </c>
+      <c r="F137" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G137" s="47">
+        <v>498</v>
+      </c>
+      <c r="H137" s="53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18861,11 +21443,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721B1B99-A37B-47CF-BBD2-DBE8B4A5CEF5}">
-  <dimension ref="A1:H419"/>
+  <dimension ref="A1:H482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C417" sqref="C417"/>
+      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H482" sqref="H482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29745,7 +32327,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A419" s="42" t="s">
         <v>35</v>
       </c>
@@ -29764,11 +32346,1649 @@
       <c r="F419" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G419" s="44">
+      <c r="G419" s="43">
         <v>60</v>
       </c>
       <c r="H419" s="43">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A420" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B420" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C420" s="47">
+        <v>0</v>
+      </c>
+      <c r="D420" s="47">
+        <v>389</v>
+      </c>
+      <c r="E420" s="53">
+        <v>389</v>
+      </c>
+      <c r="F420" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G420" s="47">
+        <v>389</v>
+      </c>
+      <c r="H420" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A421" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B421" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C421" s="47">
+        <v>0</v>
+      </c>
+      <c r="D421" s="47">
+        <v>380</v>
+      </c>
+      <c r="E421" s="53">
+        <v>380</v>
+      </c>
+      <c r="F421" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G421" s="47">
+        <v>380</v>
+      </c>
+      <c r="H421" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A422" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B422" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C422" s="47">
+        <v>0</v>
+      </c>
+      <c r="D422" s="47">
+        <v>299</v>
+      </c>
+      <c r="E422" s="53">
+        <v>299</v>
+      </c>
+      <c r="F422" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G422" s="47">
+        <v>299</v>
+      </c>
+      <c r="H422" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A423" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B423" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C423" s="47">
+        <v>0</v>
+      </c>
+      <c r="D423" s="47">
+        <v>172</v>
+      </c>
+      <c r="E423" s="53">
+        <v>171</v>
+      </c>
+      <c r="F423" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G423" s="47">
+        <v>172</v>
+      </c>
+      <c r="H423" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A424" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B424" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C424" s="47">
+        <v>0</v>
+      </c>
+      <c r="D424" s="47">
+        <v>230</v>
+      </c>
+      <c r="E424" s="53">
+        <v>230</v>
+      </c>
+      <c r="F424" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G424" s="47">
+        <v>230</v>
+      </c>
+      <c r="H424" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A425" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B425" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C425" s="47">
+        <v>0</v>
+      </c>
+      <c r="D425" s="47">
+        <v>206</v>
+      </c>
+      <c r="E425" s="53">
+        <v>206</v>
+      </c>
+      <c r="F425" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G425" s="47">
+        <v>206</v>
+      </c>
+      <c r="H425" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A426" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B426" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C426" s="47">
+        <v>0</v>
+      </c>
+      <c r="D426" s="47">
+        <v>108</v>
+      </c>
+      <c r="E426" s="53">
+        <v>108</v>
+      </c>
+      <c r="F426" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G426" s="47">
+        <v>108</v>
+      </c>
+      <c r="H426" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A427" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B427" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C427" s="47">
+        <v>0</v>
+      </c>
+      <c r="D427" s="47">
+        <v>202</v>
+      </c>
+      <c r="E427" s="53">
+        <v>202</v>
+      </c>
+      <c r="F427" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G427" s="47">
+        <v>202</v>
+      </c>
+      <c r="H427" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A428" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B428" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C428" s="47">
+        <v>0</v>
+      </c>
+      <c r="D428" s="47">
+        <v>139</v>
+      </c>
+      <c r="E428" s="53">
+        <v>139</v>
+      </c>
+      <c r="F428" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G428" s="47">
+        <v>139</v>
+      </c>
+      <c r="H428" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A429" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B429" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C429" s="47">
+        <v>0</v>
+      </c>
+      <c r="D429" s="47">
+        <v>172</v>
+      </c>
+      <c r="E429" s="53">
+        <v>172</v>
+      </c>
+      <c r="F429" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G429" s="47">
+        <v>172</v>
+      </c>
+      <c r="H429" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A430" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B430" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C430" s="47">
+        <v>0</v>
+      </c>
+      <c r="D430" s="47">
+        <v>100</v>
+      </c>
+      <c r="E430" s="53">
+        <v>100</v>
+      </c>
+      <c r="F430" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G430" s="47">
+        <v>100</v>
+      </c>
+      <c r="H430" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A431" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B431" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C431" s="47">
+        <v>0</v>
+      </c>
+      <c r="D431" s="47">
+        <v>238</v>
+      </c>
+      <c r="E431" s="53">
+        <v>238</v>
+      </c>
+      <c r="F431" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G431" s="47">
+        <v>238</v>
+      </c>
+      <c r="H431" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A432" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B432" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C432" s="47">
+        <v>0</v>
+      </c>
+      <c r="D432" s="47">
+        <v>75</v>
+      </c>
+      <c r="E432" s="53">
+        <v>75</v>
+      </c>
+      <c r="F432" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G432" s="47">
+        <v>75</v>
+      </c>
+      <c r="H432" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A433" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B433" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C433" s="47">
+        <v>0</v>
+      </c>
+      <c r="D433" s="47">
+        <v>115</v>
+      </c>
+      <c r="E433" s="53">
+        <v>115</v>
+      </c>
+      <c r="F433" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G433" s="47">
+        <v>115</v>
+      </c>
+      <c r="H433" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A434" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B434" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C434" s="47">
+        <v>0</v>
+      </c>
+      <c r="D434" s="47">
+        <v>94</v>
+      </c>
+      <c r="E434" s="53">
+        <v>94</v>
+      </c>
+      <c r="F434" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G434" s="47">
+        <v>94</v>
+      </c>
+      <c r="H434" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A435" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B435" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C435" s="47">
+        <v>0</v>
+      </c>
+      <c r="D435" s="47">
+        <v>99</v>
+      </c>
+      <c r="E435" s="53">
+        <v>99</v>
+      </c>
+      <c r="F435" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G435" s="47">
+        <v>99</v>
+      </c>
+      <c r="H435" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A436" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B436" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C436" s="47">
+        <v>0</v>
+      </c>
+      <c r="D436" s="47">
+        <v>116</v>
+      </c>
+      <c r="E436" s="53">
+        <v>116</v>
+      </c>
+      <c r="F436" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G436" s="47">
+        <v>116</v>
+      </c>
+      <c r="H436" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A437" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B437" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C437" s="47">
+        <v>0</v>
+      </c>
+      <c r="D437" s="47">
+        <v>72</v>
+      </c>
+      <c r="E437" s="53">
+        <v>72</v>
+      </c>
+      <c r="F437" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G437" s="47">
+        <v>72</v>
+      </c>
+      <c r="H437" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A438" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B438" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C438" s="47">
+        <v>0</v>
+      </c>
+      <c r="D438" s="47">
+        <v>71</v>
+      </c>
+      <c r="E438" s="53">
+        <v>71</v>
+      </c>
+      <c r="F438" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G438" s="47">
+        <v>71</v>
+      </c>
+      <c r="H438" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A439" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B439" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C439" s="47">
+        <v>0</v>
+      </c>
+      <c r="D439" s="47">
+        <v>47</v>
+      </c>
+      <c r="E439" s="53">
+        <v>47</v>
+      </c>
+      <c r="F439" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G439" s="47">
+        <v>47</v>
+      </c>
+      <c r="H439" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A440" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B440" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C440" s="47">
+        <v>0</v>
+      </c>
+      <c r="D440" s="47">
+        <v>38</v>
+      </c>
+      <c r="E440" s="53">
+        <v>38</v>
+      </c>
+      <c r="F440" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G440" s="47">
+        <v>38</v>
+      </c>
+      <c r="H440" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A441" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B441" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C441" s="47">
+        <v>0</v>
+      </c>
+      <c r="D441" s="47">
+        <v>55</v>
+      </c>
+      <c r="E441" s="53">
+        <v>55</v>
+      </c>
+      <c r="F441" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G441" s="47">
+        <v>55</v>
+      </c>
+      <c r="H441" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A442" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B442" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C442" s="47">
+        <v>0</v>
+      </c>
+      <c r="D442" s="47">
+        <v>35</v>
+      </c>
+      <c r="E442" s="53">
+        <v>35</v>
+      </c>
+      <c r="F442" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G442" s="47">
+        <v>35</v>
+      </c>
+      <c r="H442" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A443" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B443" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C443" s="47">
+        <v>0</v>
+      </c>
+      <c r="D443" s="47">
+        <v>130</v>
+      </c>
+      <c r="E443" s="53">
+        <v>130</v>
+      </c>
+      <c r="F443" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G443" s="47">
+        <v>130</v>
+      </c>
+      <c r="H443" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A444" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B444" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C444" s="47">
+        <v>0</v>
+      </c>
+      <c r="D444" s="47">
+        <v>33</v>
+      </c>
+      <c r="E444" s="53">
+        <v>33</v>
+      </c>
+      <c r="F444" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G444" s="47">
+        <v>33</v>
+      </c>
+      <c r="H444" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A445" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B445" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C445" s="47">
+        <v>0</v>
+      </c>
+      <c r="D445" s="47">
+        <v>32</v>
+      </c>
+      <c r="E445" s="53">
+        <v>32</v>
+      </c>
+      <c r="F445" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G445" s="47">
+        <v>32</v>
+      </c>
+      <c r="H445" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A446" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B446" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C446" s="47">
+        <v>0</v>
+      </c>
+      <c r="D446" s="47">
+        <v>56</v>
+      </c>
+      <c r="E446" s="53">
+        <v>56</v>
+      </c>
+      <c r="F446" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G446" s="47">
+        <v>56</v>
+      </c>
+      <c r="H446" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A447" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B447" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C447" s="47">
+        <v>0</v>
+      </c>
+      <c r="D447" s="47">
+        <v>64</v>
+      </c>
+      <c r="E447" s="53">
+        <v>64</v>
+      </c>
+      <c r="F447" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G447" s="47">
+        <v>64</v>
+      </c>
+      <c r="H447" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A448" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B448" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C448" s="47">
+        <v>0</v>
+      </c>
+      <c r="D448" s="47">
+        <v>107</v>
+      </c>
+      <c r="E448" s="53">
+        <v>107</v>
+      </c>
+      <c r="F448" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G448" s="47">
+        <v>107</v>
+      </c>
+      <c r="H448" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A449" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B449" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C449" s="47">
+        <v>0</v>
+      </c>
+      <c r="D449" s="47">
+        <v>66</v>
+      </c>
+      <c r="E449" s="53">
+        <v>66</v>
+      </c>
+      <c r="F449" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G449" s="47">
+        <v>66</v>
+      </c>
+      <c r="H449" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A450" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B450" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C450" s="47">
+        <v>0</v>
+      </c>
+      <c r="D450" s="47">
+        <v>66</v>
+      </c>
+      <c r="E450" s="53">
+        <v>66</v>
+      </c>
+      <c r="F450" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G450" s="47">
+        <v>66</v>
+      </c>
+      <c r="H450" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A451" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B451" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C451" s="47">
+        <v>0</v>
+      </c>
+      <c r="D451" s="47">
+        <v>14</v>
+      </c>
+      <c r="E451" s="53">
+        <v>1</v>
+      </c>
+      <c r="F451" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G451" s="47">
+        <v>14</v>
+      </c>
+      <c r="H451" s="53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A452" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B452" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C452" s="47">
+        <v>0</v>
+      </c>
+      <c r="D452" s="47">
+        <v>89</v>
+      </c>
+      <c r="E452" s="53">
+        <v>89</v>
+      </c>
+      <c r="F452" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G452" s="47">
+        <v>89</v>
+      </c>
+      <c r="H452" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A453" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B453" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C453" s="47">
+        <v>0</v>
+      </c>
+      <c r="D453" s="47">
+        <v>42</v>
+      </c>
+      <c r="E453" s="53">
+        <v>42</v>
+      </c>
+      <c r="F453" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G453" s="47">
+        <v>42</v>
+      </c>
+      <c r="H453" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A454" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B454" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C454" s="47">
+        <v>0</v>
+      </c>
+      <c r="D454" s="47">
+        <v>13</v>
+      </c>
+      <c r="E454" s="53">
+        <v>13</v>
+      </c>
+      <c r="F454" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G454" s="47">
+        <v>13</v>
+      </c>
+      <c r="H454" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A455" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B455" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C455" s="47">
+        <v>0</v>
+      </c>
+      <c r="D455" s="47">
+        <v>108</v>
+      </c>
+      <c r="E455" s="53">
+        <v>108</v>
+      </c>
+      <c r="F455" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G455" s="47">
+        <v>108</v>
+      </c>
+      <c r="H455" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A456" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B456" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C456" s="47">
+        <v>0</v>
+      </c>
+      <c r="D456" s="47">
+        <v>11</v>
+      </c>
+      <c r="E456" s="53">
+        <v>11</v>
+      </c>
+      <c r="F456" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G456" s="47">
+        <v>11</v>
+      </c>
+      <c r="H456" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A457" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B457" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C457" s="47">
+        <v>0</v>
+      </c>
+      <c r="D457" s="47">
+        <v>81</v>
+      </c>
+      <c r="E457" s="53">
+        <v>81</v>
+      </c>
+      <c r="F457" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G457" s="47">
+        <v>81</v>
+      </c>
+      <c r="H457" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A458" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B458" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C458" s="47">
+        <v>0</v>
+      </c>
+      <c r="D458" s="47">
+        <v>4</v>
+      </c>
+      <c r="E458" s="53">
+        <v>4</v>
+      </c>
+      <c r="F458" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G458" s="47">
+        <v>4</v>
+      </c>
+      <c r="H458" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A459" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B459" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C459" s="47">
+        <v>0</v>
+      </c>
+      <c r="D459" s="47">
+        <v>4</v>
+      </c>
+      <c r="E459" s="53">
+        <v>4</v>
+      </c>
+      <c r="F459" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G459" s="47">
+        <v>4</v>
+      </c>
+      <c r="H459" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A460" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B460" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C460" s="47">
+        <v>0</v>
+      </c>
+      <c r="D460" s="47">
+        <v>102</v>
+      </c>
+      <c r="E460" s="53">
+        <v>102</v>
+      </c>
+      <c r="F460" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G460" s="47">
+        <v>102</v>
+      </c>
+      <c r="H460" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A461" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B461" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C461" s="47">
+        <v>0</v>
+      </c>
+      <c r="D461" s="47">
+        <v>2</v>
+      </c>
+      <c r="E461" s="53">
+        <v>2</v>
+      </c>
+      <c r="F461" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G461" s="47">
+        <v>2</v>
+      </c>
+      <c r="H461" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A462" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B462" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C462" s="47">
+        <v>0</v>
+      </c>
+      <c r="D462" s="47">
+        <v>106</v>
+      </c>
+      <c r="E462" s="53">
+        <v>106</v>
+      </c>
+      <c r="F462" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G462" s="47">
+        <v>106</v>
+      </c>
+      <c r="H462" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A463" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B463" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C463" s="47">
+        <v>0</v>
+      </c>
+      <c r="D463" s="47">
+        <v>1</v>
+      </c>
+      <c r="E463" s="53">
+        <v>1</v>
+      </c>
+      <c r="F463" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G463" s="47">
+        <v>1</v>
+      </c>
+      <c r="H463" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A464" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B464" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C464" s="47">
+        <v>0</v>
+      </c>
+      <c r="D464" s="47">
+        <v>1</v>
+      </c>
+      <c r="E464" s="53">
+        <v>1</v>
+      </c>
+      <c r="F464" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G464" s="47">
+        <v>1</v>
+      </c>
+      <c r="H464" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A465" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B465" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C465" s="47">
+        <v>0</v>
+      </c>
+      <c r="D465" s="47">
+        <v>85</v>
+      </c>
+      <c r="E465" s="53">
+        <v>85</v>
+      </c>
+      <c r="F465" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G465" s="47">
+        <v>85</v>
+      </c>
+      <c r="H465" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A466" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B466" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C466" s="47">
+        <v>0</v>
+      </c>
+      <c r="D466" s="47">
+        <v>45</v>
+      </c>
+      <c r="E466" s="53">
+        <v>45</v>
+      </c>
+      <c r="F466" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G466" s="47">
+        <v>45</v>
+      </c>
+      <c r="H466" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A467" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B467" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C467" s="47">
+        <v>0</v>
+      </c>
+      <c r="D467" s="47">
+        <v>0</v>
+      </c>
+      <c r="E467" s="53">
+        <v>0</v>
+      </c>
+      <c r="F467" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G467" s="47">
+        <v>0</v>
+      </c>
+      <c r="H467" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A468" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B468" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C468" s="47">
+        <v>0</v>
+      </c>
+      <c r="D468" s="47">
+        <v>45</v>
+      </c>
+      <c r="E468" s="53">
+        <v>45</v>
+      </c>
+      <c r="F468" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G468" s="47">
+        <v>45</v>
+      </c>
+      <c r="H468" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A469" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B469" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C469" s="47">
+        <v>0</v>
+      </c>
+      <c r="D469" s="47">
+        <v>0</v>
+      </c>
+      <c r="E469" s="53">
+        <v>0</v>
+      </c>
+      <c r="F469" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G469" s="47">
+        <v>0</v>
+      </c>
+      <c r="H469" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A470" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B470" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C470" s="47">
+        <v>0</v>
+      </c>
+      <c r="D470" s="47">
+        <v>28</v>
+      </c>
+      <c r="E470" s="53">
+        <v>28</v>
+      </c>
+      <c r="F470" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G470" s="47">
+        <v>28</v>
+      </c>
+      <c r="H470" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A471" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B471" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C471" s="47">
+        <v>0</v>
+      </c>
+      <c r="D471" s="47">
+        <v>45</v>
+      </c>
+      <c r="E471" s="53">
+        <v>45</v>
+      </c>
+      <c r="F471" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G471" s="47">
+        <v>45</v>
+      </c>
+      <c r="H471" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A472" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B472" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C472" s="47">
+        <v>0</v>
+      </c>
+      <c r="D472" s="47">
+        <v>7</v>
+      </c>
+      <c r="E472" s="53">
+        <v>7</v>
+      </c>
+      <c r="F472" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G472" s="47">
+        <v>7</v>
+      </c>
+      <c r="H472" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A473" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B473" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C473" s="47">
+        <v>0</v>
+      </c>
+      <c r="D473" s="47">
+        <v>77</v>
+      </c>
+      <c r="E473" s="53">
+        <v>77</v>
+      </c>
+      <c r="F473" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G473" s="47">
+        <v>77</v>
+      </c>
+      <c r="H473" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A474" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B474" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C474" s="47">
+        <v>0</v>
+      </c>
+      <c r="D474" s="47">
+        <v>5</v>
+      </c>
+      <c r="E474" s="53">
+        <v>5</v>
+      </c>
+      <c r="F474" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G474" s="47">
+        <v>5</v>
+      </c>
+      <c r="H474" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A475" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B475" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C475" s="47">
+        <v>0</v>
+      </c>
+      <c r="D475" s="47">
+        <v>91</v>
+      </c>
+      <c r="E475" s="53">
+        <v>91</v>
+      </c>
+      <c r="F475" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G475" s="47">
+        <v>91</v>
+      </c>
+      <c r="H475" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A476" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B476" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C476" s="47">
+        <v>0</v>
+      </c>
+      <c r="D476" s="47">
+        <v>35</v>
+      </c>
+      <c r="E476" s="53">
+        <v>35</v>
+      </c>
+      <c r="F476" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G476" s="47">
+        <v>35</v>
+      </c>
+      <c r="H476" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A477" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B477" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C477" s="47">
+        <v>0</v>
+      </c>
+      <c r="D477" s="47">
+        <v>0</v>
+      </c>
+      <c r="E477" s="53">
+        <v>0</v>
+      </c>
+      <c r="F477" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G477" s="47">
+        <v>0</v>
+      </c>
+      <c r="H477" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A478" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B478" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C478" s="47">
+        <v>0</v>
+      </c>
+      <c r="D478" s="47">
+        <v>32</v>
+      </c>
+      <c r="E478" s="53">
+        <v>32</v>
+      </c>
+      <c r="F478" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G478" s="47">
+        <v>32</v>
+      </c>
+      <c r="H478" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A479" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B479" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C479" s="47">
+        <v>0</v>
+      </c>
+      <c r="D479" s="47">
+        <v>0</v>
+      </c>
+      <c r="E479" s="53">
+        <v>0</v>
+      </c>
+      <c r="F479" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G479" s="47">
+        <v>0</v>
+      </c>
+      <c r="H479" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A480" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B480" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C480" s="47">
+        <v>0</v>
+      </c>
+      <c r="D480" s="47">
+        <v>75</v>
+      </c>
+      <c r="E480" s="53">
+        <v>75</v>
+      </c>
+      <c r="F480" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G480" s="47">
+        <v>75</v>
+      </c>
+      <c r="H480" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A481" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B481" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C481" s="47">
+        <v>0</v>
+      </c>
+      <c r="D481" s="47">
+        <v>102</v>
+      </c>
+      <c r="E481" s="53">
+        <v>102</v>
+      </c>
+      <c r="F481" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G481" s="47">
+        <v>102</v>
+      </c>
+      <c r="H481" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A482" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B482" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C482" s="47">
+        <v>0</v>
+      </c>
+      <c r="D482" s="47">
+        <v>60</v>
+      </c>
+      <c r="E482" s="53">
+        <v>60</v>
+      </c>
+      <c r="F482" s="48">
+        <v>45818</v>
+      </c>
+      <c r="G482" s="47">
+        <v>60</v>
+      </c>
+      <c r="H482" s="53">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
